--- a/flashcards/Memcode - KS Oeffentliches Recht I (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Oeffentliches Recht I (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t>Question</t>
   </si>
@@ -19,6 +19,192 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ergehen unmittelbar aus Bundesverfassung (ohne weitere Gesetze)&lt;/li&gt;&lt;li&gt;Gesetzesergänzend, gesetzesvertretend oder gesetzesändernd.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rechtsverordnung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach außen&lt;/li&gt;&lt;li&gt;Legt Rechte und Pflichten für Bürger fest&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Ortspolizeiliche Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Von Gemeinden erlassen &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(Art. 118 Abs. 6)&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;im eigenen Wirkungsbereich&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;nur zur Abwehr drohender oder bestehender Missstände&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dürfen nicht gegen Bundes- oder Landesrecht verstoßen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Arten von Verordnungen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ortspolizeiliche Verordnung&lt;/li&gt;&lt;li&gt;Rechtsverordnung&lt;/li&gt;&lt;li&gt;Verwaltungsverordnung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Landesverwaltung: Landesregierung (Zuständigkeit, Zusammensetzung, Entscheidungsfindung, Wahl, Regierungsart, Amt)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der Landesverwaltung, zuständig für hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 11-15 B-VG&lt;/a&gt;) und nicht hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;) Verwaltung&lt;/li&gt;&lt;li&gt;Besteht aus Landeshauptmann und weiteren Landesräten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank"&gt;Art. 101 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Entscheidet als Kollegialorgan, Landesräte können teilweise auch als Einzelorgane tätig werden (Ämter der Landesregierungen)&lt;/li&gt;&lt;li&gt;Parlamentarisches System: Landtag wählt Regierung &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 101 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Meist Mehrheitsregierung, außer in OÖ, NÖ und W → Proporzregierung=Konzentrationsregierung&lt;/li&gt;&lt;li&gt;Amt der Landesregierung: Hilfsapparat der Regierung &lt;strong&gt;&lt;em&gt;und &lt;/em&gt;&lt;/strong&gt;des Landeshauptmanns.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen: Grundrechte im B-VG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art. 7 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Recht auf den gesetzlichen Richter (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 83 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Recht der Richter auf Unabhängigkeit (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Recht der Gemeinden auf Selbstverwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Weisungsfreie Vollziehung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Unabhängige &lt;strong&gt;Richter &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;weisungsfreier Teil der &lt;strong&gt;Justizverwaltung &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 2 B-VG&lt;/a&gt;): Richtersenate und Kommissionen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gemeindeselbstverwaltung&lt;/strong&gt;: Gemeinderat und Bürgermeister (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Weisungsfrei, unterliegen nur Aufsicht der Bundes/Landesbehörden.&lt;/li&gt;&lt;li&gt;Einfacher Bundes/Landesgesetzgeber kann weitere Verwaltungsorgane bei Rechtfertigung weisungsfrei stellen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel20" rel="noopener noreferrer" target="_blank"&gt;Art. 20 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie regelt die (Finanz)Verfassung wie der Staat zu seinem Geld kommt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Konstruiert den Staat als Abgabestaat&lt;/li&gt;&lt;li&gt;Staat bringt das Geld zwangsweise durch hoheitliche Abgaben, Gebühren und Beiträge auf.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird das Budget bestimmt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In einem Budgetgesetz (Bundesfinanzgesetz) auf der Grundlage eines Bundesfinanzrahmengesetzes&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man das Geld- und Vermögensrelevante Handeln der Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gebarung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wo liegt die Budgethoheit, was bedeutet sie?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beim Parlament, das Parlament entscheidet, wofür die Verwaltung welche Summen ausgeben darf. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sind Gemeinden unter dem Grundrechtsschutz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, die Gemeindeautonomie (Recht auf Selbstverwaltung, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ist ausgenommen aus dem Grundrechtsschutz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Staaten (Bund und Land), die Grundrechte sind nicht dazu da den Staat vor sich selbst, Land vor dem Bund oder Bund vor dem Land zu schützen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können Gebietskörperschaften Träger von Grundrechten sein?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, juristische Personen&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; (des öffentlichen und des Privatrechts)&lt;/span&gt; können Träger von Grundrechten sein, wenn dies &lt;strong&gt;wesensmäßig &lt;/strong&gt;möglich ist.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gilt der Gleichheitssatz auch für die nicht-hoheitliche Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, Diskriminierung ist verboten, und Sachlichkeit wird verlangt. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Fiskalgeltung der Grundrechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Bindung des Staates an die Grundrechte im Rahmen der Privatwirtschaftsverwaltung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Verwaltung kann sowohl hoheitlich als auch privatrechtlich Handeln. Gilt der Grundrechtsschutz auch gegen die nicht-hoheitlichen Handlungen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man Verwaltungsakte des BP?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Entschließungen&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Verwaltungsapparat des BP?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Präsidentschaftskanzl&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;ei&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine formalgesetzliche Delegation?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Gesetz bestimmt das Handeln der Vollziehung nicht oder nur sehr ungenau, dies ist verfassungswidrig (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 18. Abs 1. B-VG&lt;/a&gt;). Der Gesetzgeber delegiert daher die Pflicht das Recht zu bestimmen an die Vollziehung.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Organisation&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abstrakte Konstrukte der Rechtsordnung denen bestimmte Aufgaben zukommen, bestehen meist aus vielen Organen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;z.B.: Gebietskörperschaft, Verwaltungsorganisation, Gerichtsorganisation&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsverwaltung: Was is das Bundesheer? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;militärische Formation des Bundes, zählt zur unmittelbaren Bundesverwaltung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsbehörden des Bundes&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt; richten die Sicherheitsbehörden ein&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/spg/paragraf/2" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;2 Abs. 2 SPG&lt;/a&gt; definiert Aufgaben der Sicherheitsverwaltung&lt;/li&gt;&lt;li&gt;2/3 Ebenen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;BM für Inneres&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landespolizeidirektion&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li&gt;Mischform aus mittelbarer und unmittelbarer Bundesverwaltung, weil auf unterer Ebene teilweise Bezirksverwaltungsbehörden als Landesbehörden eingebunden sind&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Organwalter (Definition, Zuordnung, Arten)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Den abstrakten Organen werden konkrete Menschen zugeordnet. &lt;/li&gt;&lt;li&gt;Gesetzessprache verwendet Organ und Organwalter oft synonym&lt;/li&gt;&lt;li&gt;Immer einer Gebietskörperschaft zugeordnet&lt;/li&gt;&lt;li&gt;Arten (Gesamtbegriff &lt;strong&gt;öffentliche Bedienstete&lt;/strong&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Beamte = ernannte berufsmäßige Organe&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertragsbedienstete = vertraglich bestellte Organe&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Präzisiert ein Gesetz (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 18 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kompetenzverteilung in der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Kompetenzverteilung in Art. 10 - 15 B-VG gilt &lt;strong&gt;nicht&lt;/strong&gt; für nicht-hoheitliche Verwaltung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das hoheitliche Organisationsrecht einer Gebietskörperschaft?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bestimmt die innere Willensbildung des &lt;strong&gt;privatrechtlichen&lt;/strong&gt; Handelns&lt;/li&gt;&lt;li&gt;Zuständigkeit für Kaufverträge, Willensbildung, inhaltliche Gestaltung von Verträgen ⇾ bestimmt das hoheitliche Organisationsrecht (nicht die Privatrechtsordnung)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie funktioniert das Gesetzmäßigkeitsgebot in der nicht-hoheitlichen Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Geregelt durch das Verwaltungsprivatrecht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;differenziertes Legalitätsprinzip: &lt;/strong&gt;Auch privatrechtliche Handlungen unterliegen dem Gesetzmäßigkeitsgebot,  es ist aber flexibler und weniger streng, als für hoheitliches Handeln &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Inhalt der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Privatwirtschaftsverwaltung&lt;/li&gt;&lt;li&gt;Fiskalverwaltung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer kann nicht-hoheitlich handeln, wer nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nur die juristischen Personen: Bund, Länder und Gemeinden, also nur die Verwaltung. &lt;/li&gt;&lt;li&gt;Parlamente und Gerichte handeln  immer hoheitlich&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Gebietskörperschaften sind Träger von Privatrechten?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Bund und Länder sind juristische Personen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 2 B-VG&lt;/a&gt;: Gemeinden sind juristische Personen&lt;/li&gt;&lt;li&gt;Vermögensfähig sind also der Bund, die Länder und die Gemeinden, nicht der Gesamtstaat Österreich.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Was sind die Unterschiede zwischen juristischen Personen des Privatrechts und des öffentlichen Rechts? Was ist identisch? &lt;/p&gt;</t>
   </si>
   <si>
@@ -43,7 +229,7 @@
     <t>&lt;p&gt;Die Privatrechtsordnung erlaubt, dass juristische Personen von der Rechtsordnung als Rechtsträger behandelt wären, als wären sie Menschen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was sind juristische Personen? Wie wird entschieden, welche juristischen Personen es gibt? &lt;/p&gt;</t>
+    <t>&lt;p&gt;Was sind juristische Personen? &lt;/p&gt;&lt;p&gt;Wie werden sie noch genannt?&lt;/p&gt;&lt;p&gt;Wie wird entschieden, welche juristischen Personen es gibt?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;= virtuelle Menschen&lt;/li&gt;&lt;li&gt;Auch Rechtsperson oder Körperschaft genannt&lt;/li&gt;&lt;li&gt;Gesetzgebung entscheidet ob und welche juristischen Personen es gibt.&lt;/li&gt;&lt;/ul&gt;</t>
@@ -64,13 +250,13 @@
     <t>&lt;p&gt;Wer ist der gesetzliche Vertreter für ein Kind?&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Eltern (§ 167 ABGB)&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Eltern (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/167" rel="noopener noreferrer" target="_blank"&gt;§ 167 ABGB&lt;/a&gt;)&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Ist jeder Mensch handlungsfähig?&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Nein (§&amp;nbsp;21 ABGB), wer nicht handlungsfähig ist, braucht einen Vertreter der für ihn handelt&lt;/p&gt;</t>
+    <t>&lt;p&gt;Nein (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/21" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;21 ABGB&lt;/a&gt;), wer nicht handlungsfähig ist, braucht einen Vertreter der für ihn handelt&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Was ist die Handlungsfähigkeit?&lt;/p&gt;</t>
@@ -79,10 +265,10 @@
     <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, durch eigenes Handeln Rechte zu erwerben und Pflichten zu begründen.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was ist die Rechtsfähigkeit? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, Träger privater Rechte und Pflichten zu sei (z.B.: Eigentümer von Geld und Vermögen)&lt;/li&gt;&lt;li&gt;Jeder Mensch ist von Geburt bis zum Tod rechtsfähig.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Was ist die Rechtsfähigkeit? Wer hat sie wie lange? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, Träger privater Rechte und Pflichten zu sein (z.B.: Eigentümer von Geld und Vermögen)&lt;/li&gt;&lt;li&gt;Jeder Mensch ist von Geburt bis zum Tod rechtsfähig.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Einzelne Grundrechte&lt;/p&gt;</t>
@@ -91,12 +277,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Recht auf persönliche Freiheit&lt;/li&gt;&lt;li&gt;Hausrecht&lt;/li&gt;&lt;li&gt;Versammlungsfreiheit&lt;/li&gt;&lt;li&gt;Meinungsfreiheit&lt;/li&gt;&lt;li&gt;...&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Grundrechtsquellen: Grundrechte im B-VG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Recht auf den gesetzlichen Richter&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Recht der Richter auf Unabhängigkeit&lt;/li&gt;&lt;li&gt;Recht der Gemeinden auf Selbstverwaltung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Was ist das &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Recht auf den gesetzlichen Richter?&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -145,6 +325,12 @@
     <t>&lt;p&gt;Präsenz 1/2, Konsens 2/3 (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel99" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 99 Abs. 2 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;Zuständigkeit&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die &lt;strong&gt;Möglichkeit&lt;/strong&gt; einer Organisation in einer Sache zu handeln&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Was sind die Arten der Leitung der Verwaltung?&lt;/p&gt;</t>
   </si>
   <si>
@@ -157,6 +343,48 @@
     <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;3 formale Merkmale (nicht vorhanden: Absolut nichtig)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine Verwaltungsbehörde handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss an einen individuellen Adressaten gerichtet sein&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine behördliche Anordnung enthalten&lt;/li&gt;&lt;li&gt;Gesetzgeber kann weitere Merkmale hinzufügen, Auswirkung des Fehlens legt Gesetzgeber fest (z.B.: relativ nichtig)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;Aufgabe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Organisation &lt;strong&gt;soll&lt;/strong&gt; in einer Sache handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Pflichtaufgabe: muss Handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliche Aufgabe: im Interesse der Allgemeinheit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Aufgabe&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Öffentliche Aufgabe, die der Gesetzgeber dem Staat zuweist&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsaufgabe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Aufgabe der Verwaltung einer Gebietskörperschaft&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Behörde&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsorgane mit Rechtssetzungsbefugnissen (handeln hoheitlich)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einer Behörde zugeordneter bürokratischer Hilfsapparat, handelt nicht selbst hoheitlich. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Approbationsbefugnis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Innerbehördliches Mandat&lt;/li&gt;&lt;li&gt;Organwalter kann Aufgaben an das Amt übertragen&lt;/li&gt;&lt;li&gt;Approbationsbefugte Beamte können damit "im Auftrag" der Behörde Bescheide oder Verordnungen erlassen, der Organwalter ist jedoch immer weisungsbefugt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Formen des Verwaltungshandelns&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bescheid&lt;/li&gt;&lt;li&gt;Verordnung&lt;/li&gt;&lt;li&gt;Maßnahme&lt;/li&gt;&lt;li&gt;Schlicht-hoheitliches Handeln&lt;/li&gt;&lt;li&gt;(Verwaltungsrechtlicher Vertrag)&lt;/li&gt;&lt;li&gt;Privatrechtliches Handeln&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Eingriffsvorbehalt vs. Ausgestaltungsvorbehalt bei Freiheitsrechten&lt;/p&gt;</t>
   </si>
   <si>
@@ -349,6 +577,18 @@
     <t>&lt;p&gt;&lt;strong&gt;1789&lt;/strong&gt;: Deklaration der Menschen- und Bürgerrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1867&lt;/strong&gt;: Staatsgrundgesetz (Dezemberverfassung) &lt;/p&gt;&lt;p&gt;&lt;strong&gt;1948&lt;/strong&gt;: Allgemeine Erklärung der Menschenrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1950&lt;/strong&gt;: Europäische Menschenrechtskonvention&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;Arten von Bescheiden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Leistungsbescheid&lt;/strong&gt;: ordnet Tun oder Unterlassen an, &lt;strong&gt;vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gestaltungsbescheid&lt;/strong&gt;: Gestaltet eine Rechtslage neu, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Feststellungsbescheid&lt;/strong&gt;: verbindliche Feststellung einer unklaren Rechtslage, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (Art. 139 B-VG)&lt;/li&gt;&lt;li&gt;Generelle (abstrakte oder konkrete) Anordnung einer Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Erst mit Kundmachung gültig&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Gemeindewachkörper &lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -373,12 +613,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Bewaffnete Formationen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank"&gt;Art. 78d Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundespolizei: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Justizwache: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gemeindewachkörper: &lt;strong&gt;Gemeinde&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Organisation und Führung der Bundespolizei und die Org. sonstiger Wachkörper (Ausnahme: Gemeindewachkörper) ist Bundessache&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Sicherheitsbehörden des Bundes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt; richten die Sicherheitsbehörden ein&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/spg/paragraf/2" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;2 Abs. 2 SPG&lt;/a&gt; definiert Aufgaben der Sicherheitsverwaltung&lt;/li&gt;&lt;li&gt;2/3 Ebenen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;BM für Inneres&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landespolizeidirektion &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li&gt;Mischform aus mittelbarer und unmittelbarer Bundesverwaltung, weil auf unterer Ebene teilweise Bezirksverwaltungsbehörden als Landesbehörden eingebunden sind&lt;/li&gt;&lt;li&gt;Bundesheer: militärische Formation des Bundes, zählt zur unmittelbaren Bundesverwaltung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: &lt;/span&gt;Bezirksverwaltungsbehörde&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -457,12 +691,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Landesverwaltung in Verwaltungssprengel territorial gegliedert&lt;/li&gt;&lt;li&gt;Land in Bezirke gegliedert, 2 Arten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Bezirk&lt;/strong&gt;, der mehrere Gemeinden erfasst&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Statutarstadt&lt;/strong&gt;, die alleine ein Bezirk ist&lt;/li&gt;&lt;li&gt;Bezirksverwaltungsbehörden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirkshauptmann (monokratisch), Amt: Bezirkshauptmannschaft&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bürgermeister, Amt: Magistrat&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Landesverwaltung: Landesregierung (Zuständigkeit, Zusammensetzung, Entscheidungsfindung, Wahl, Regierungsart, Amt)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der Landesverwaltung, zuständig für hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 11-15 B-VG&lt;/a&gt;) und nicht hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;) Verwaltung&lt;/li&gt;&lt;li&gt;Besteht aus Landeshauptmann und weiteren Landesräten  (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank"&gt;Art. 101 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Entscheidet als Kollegialorgan, Landesräte können teilweise auch als Einzelorgane tätig werden (Ämter der Landesregierungen)&lt;/li&gt;&lt;li&gt;Parlamentarisches System: Landtag wählt Regierung&lt;/li&gt;&lt;li&gt;Meist Mehrheitsregierung, außer in OÖ, NÖ und W → Proporzregierung=Konzentrationsregierung&lt;/li&gt;&lt;li&gt;Amt der Landesregierung: Hilfsapparat der Regierung &lt;strong&gt;&lt;em&gt;und &lt;/em&gt;&lt;/strong&gt;des Landeshauptmanns.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Sicherheitsverwaltung&lt;/p&gt;</t>
   </si>
   <si>
@@ -505,12 +733,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Allzuständigkeit der Staatsgewalt, erledigt von allgemeinen staatlichen Verwaltungsorganen&lt;/li&gt;&lt;li&gt;der Länder: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz) &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landesregierungen (2. Instanz)&lt;/li&gt;&lt;li&gt;der Bund:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landeshauptmann (2. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundesminister (3. Instanz) &lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Weisungsfreie Vollziehung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Unabhängige &lt;strong&gt;Richter &lt;/strong&gt;(Art. 87 Abs. 1 B-VG)&lt;/li&gt;&lt;li&gt;weisungsfreier Teil der &lt;strong&gt;Justizverwaltung &lt;/strong&gt;(Art. 87 Abs. 2 B-VG): Richtersenate und Kommissionen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gemeindeselbstverwaltung&lt;/strong&gt;: Gemeinderat und Bürgermeister.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Weisungsfrei, unterliegen nur Aufsicht der Bundes/Landesbehörden.&lt;/li&gt;&lt;li&gt;Einfacher Bundes/Landesgesetzgeber kann weitere Verwaltungsorgane bei Rechtfertigung weisungsfrei stellen (Art. 20 Abs. 2 B-VG)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Organ&lt;/p&gt;</t>
   </si>
   <si>
@@ -541,108 +763,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Wirkt nach innen, regelt die interne Verwaltungsorganisation&lt;/li&gt;&lt;li&gt;muss nicht kundgemacht werden (Abgrenzung zur Weisung schweirig)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Rechtsverordnung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach außen&lt;/li&gt;&lt;li&gt;Legt Rechte und Pflichten für Bürger fest&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Ortspolizeiliche Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Von Gemeinden erlassen &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(Art. 118 Abs. 6)&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;im eigenen Wirkungsbereich&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;nur zur Abwehr drohender oder bestehender Missstände&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dürfen nicht gegen Bundes- oder Landesrecht verstoßen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ergehen unmittelbar aus Bundesverfassung (ohne weitere Gesetze)&lt;/li&gt;&lt;li&gt;Gesetzesergänzend, gesetzesvertretend oder gesetzesändernd.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Präzisiert ein Gesetz (Art. 18 Abs. 2 B-VG)&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Arten von Verordnungen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ortspolizeiliche Verordnung&lt;/li&gt;&lt;li&gt;Rechtsverordnung&lt;/li&gt;&lt;li&gt;Verwaltungsverordnung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (Art. 139 B-VG)&lt;/li&gt;&lt;li&gt;Generelle (abstrakte oder konkrete) Anordnung einer Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Erst mit Kundmachung gültig&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Arten von Bescheiden&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Leistungsbescheid&lt;/strong&gt;: ordnet Tun oder Unterlassen an, &lt;strong&gt;vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gestaltungsbescheid&lt;/strong&gt;: Gestaltet eine Rechtslage neu, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Feststellungsbescheid&lt;/strong&gt;: verbindliche Feststellung einer unklaren Rechtslage, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Formen des Verwaltungshandelns&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bescheid&lt;/li&gt;&lt;li&gt;Verordnung&lt;/li&gt;&lt;li&gt;Maßnahme&lt;/li&gt;&lt;li&gt;Schlicht-hoheitliches Handeln&lt;/li&gt;&lt;li&gt;(Verwaltungsrechtlicher Vertrag)&lt;/li&gt;&lt;li&gt;Privatrechtliches Handeln&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Approbationsbefugnis&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Innerbehördliches Mandat&lt;/li&gt;&lt;li&gt;Organwalter kann Aufgaben an das Amt übertragen&lt;/li&gt;&lt;li&gt;Approbationsbefugte Beamte können damit "im Auftrag" der Behörde Bescheide oder Verordnungen erlassen, der Organwalter ist jedoch immer weisungsbefugt.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Amt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einer Behörde zugeordneter bürokratischer Hilfsapparat, handelt nicht selbst hoheitlich. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Behörde&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsorgane mit Rechtssetzungsbefugnissen (handeln hoheitlich)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsaufgabe&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Staatliche Aufgabe der Verwaltung einer Gebietskörperschaft&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Staatliche Aufgabe&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Öffentliche Aufgabe, die der Gesetzgeber dem Staat zuweist&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aufgabe&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Organisation &lt;strong&gt;soll&lt;/strong&gt; in einer Sache handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Pflichtaufgabe: muss Handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliche Aufgabe: im Interesse der Allgemeinheit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Zuständigkeit&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die &lt;strong&gt;Möglichkeit&lt;/strong&gt; einer Organisation in einer Sache zu handeln&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organwalter (Definition, Zuordnung, Arten)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Den abstrakten Organen werden konkrete Menschen zugeordnet. &lt;/li&gt;&lt;li&gt;Gesetzessprache verwendet Organ und Organwalter oft synonym&lt;/li&gt;&lt;li&gt;Immer einer Gebietskörperschaft zugeordnet&lt;/li&gt;&lt;li&gt;Arten (Gesamtbegriff &lt;strong&gt;öffentliche Bedienstete&lt;/strong&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Beamte = ernannte berufsmäßige Organe&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertragsbedienstete = vertraglich bestellte Organe&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organisation&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abstrakte Konstrukte der Rechtsordnung denen bestimmte Aufgaben zukommen, bestehen meist aus vielen Organen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;z.B.: Gebietskörperschaft, Verwaltungsorganisation, Gerichtsorganisation&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;3 Rechtsordnungen&lt;/p&gt;</t>
   </si>
   <si>
@@ -817,7 +937,7 @@
     <t>&lt;ul&gt;&lt;li&gt;Gegen zu hohe Staatsverschuldung&lt;/li&gt;&lt;li&gt;Nachhaltig geordnete Haushalte: ausgewogenes Wirtschaftswachstum, wettbewerbsfähige soziale Marktwirtschaft, Preisstabilität, hohes Beschäftigungsniveau und sozialer Fortschritt (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel13" rel="noopener noreferrer" target="_blank"&gt;Art. 13 Abs. 2 b-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Demokratie&lt;/p&gt;</t>
+    <t>&lt;p&gt;Demokratie in Österreich (gesetzl. Grundlage)&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;"Herrschaft des Volkes". &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel1" rel="noopener noreferrer" target="_blank"&gt;Art. 1 B-VG&lt;/a&gt;: "Österreich ist eine demokratische Republik. Ihr Recht geht vom Volk aus." (seit 1918); wichtigstes Grundprinzip der Verfassung;&lt;/p&gt;</t>
@@ -874,7 +994,7 @@
     <t>&lt;p&gt;Republik und Bundespräsident&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;von lat. res publica&lt;/p&gt;&lt;p&gt;Staatsoberhaupt: (Bundes)Präsident (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel60" rel="noopener noreferrer" target="_blank"&gt;Art. 60ff B-VG&lt;/a&gt;)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vom Volk gewählt&lt;/li&gt;&lt;li&gt;Dem Volk verantwortlich&lt;/li&gt;&lt;li&gt;Funktionsperiode: 2x 6 Jahre&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;von lat. res publica&lt;/p&gt;&lt;p&gt;Österreich ist eine demokratische Republik (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel1" rel="noopener noreferrer" target="_blank"&gt;Art. 1 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;Staatsoberhaupt: (Bundes)Präsident (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel60" rel="noopener noreferrer" target="_blank"&gt;Art. 60ff B-VG&lt;/a&gt;)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vom Volk gewählt&lt;/li&gt;&lt;li&gt;Dem Volk verantwortlich&lt;/li&gt;&lt;li&gt;Funktionsperiode: 2x 6 Jahre&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Unterscheidung von Rechtsnormen&lt;/p&gt;</t>
@@ -958,7 +1078,7 @@
     <t>&lt;p&gt;Justizverwaltung&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Handlungen außerhalb der rechtsprechenden Tätigkeit&lt;/li&gt;&lt;li&gt;Organisatorisches Umfeld der Richter&lt;/li&gt;&lt;li&gt;= weisungs&lt;strong&gt;abhängige&lt;/strong&gt; Vollziehung&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Ausnahme: Verwaltung die (durch das Gesetz) Richtersenaten oder Kommissionen zugewiesen sind, diese sind weisungsfrei.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;Handlungen außerhalb der rechtsprechenden Tätigkeit&lt;/li&gt;&lt;li&gt;Organisatorisches Umfeld der Richter&lt;/li&gt;&lt;li&gt;= weisungs&lt;strong&gt;abhängige&lt;/strong&gt; Vollziehung&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Ausnahme: Verwaltung die (durch das Gesetz) Richtersenaten oder Kommissionen zugewiesen sind, diese sind weisungsfrei (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Verbot wechselseitiger Instanzenzüge&lt;/p&gt;</t>
@@ -1210,7 +1330,7 @@
     <t>&lt;p&gt;Bundesrat &lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;(Zweck, Leitung, Legislaturperiode, Auflösung, Mitglieder)&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Erlaubt Ländern an Bundesgesetzgebung mitzuwirken&lt;/li&gt;&lt;li&gt;Hat Präsident (wechselt halbjährlich zwischen Ländern) und 2 Vizepräsidenten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel36" rel="noopener noreferrer" target="_blank"&gt;Art. 36 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Bei Landtagswahl sendet der Landtag Mitglieder in den BR, BR hat keine Legislaturperiode, sondern wird stetig partiell erneuert.&lt;/li&gt;&lt;li&gt;Wird nicht aufgelöst, weil keine Legislaturperiode&lt;/li&gt;&lt;li&gt;61 Mitglieder (Bundesräte), g&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;rößtes Bundesland 12, Rest&lt;/span&gt; im Verhältnis zur Bürgerzahl, mindestens 3&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;Erlaubt Ländern an Bundesgesetzgebung mitzuwirken&lt;/li&gt;&lt;li&gt;Hat Präsident (wechselt halbjährlich zwischen Ländern) und 2 Vizepräsidenten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel36" rel="noopener noreferrer" target="_blank"&gt;Art. 36 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Bei Landtagswahl sendet der Landtag Mitglieder in den BR, BR hat keine Legislaturperiode, sondern wird stetig partiell erneuert. &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel35" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 35 Abs. 1 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Wird nicht aufgelöst, weil keine Legislaturperiode&lt;/li&gt;&lt;li&gt;61 Mitglieder (Bundesräte), g&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;rößtes Bundesland 12, Rest&lt;/span&gt; im Verhältnis zur Bürgerzahl, mindestens 3 &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel34" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 34 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Schlichte Parlamentsbeschlüsse&lt;/p&gt;</t>
@@ -1282,7 +1402,7 @@
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundesgesetzgebung: Kundmachung&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Abschluss des Gesetzgebungsverfahren&lt;/li&gt;&lt;li&gt;BK gibt Gesetze im Bundesgesetzblatt elektronisch kund&lt;/li&gt;&lt;li&gt;Geregelt in Bundesgesetzblattgesetz&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel49" rel="noopener noreferrer" target="_blank"&gt;Art. 49 B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Abschluss des Gesetzgebungsverfahren&lt;/li&gt;&lt;li&gt;BK gibt Gesetze im Bundesgesetzblatt elektronisch kund&lt;/li&gt;&lt;li&gt;Geregelt in Bundesgesetzblattgesetz&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Legisvakanz&lt;/p&gt;</t>
@@ -1342,13 +1462,13 @@
     <t>&lt;p&gt;Inkompatibilität der Ämter&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Bestimmte Ämter können neben&lt;/p&gt;&lt;ul&gt;&lt;li&gt;d&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;em Mandat &lt;/span&gt;eines allgemeinen Vertretungskörpers&lt;/li&gt;&lt;li&gt;Mitglied des EU Parlaments&lt;/li&gt;&lt;li&gt;Mitglied der Regierung&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;nicht ausgeübt werden.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;NR, BR und EU-Parlament schließen sich aus (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel59" rel="noopener noreferrer" target="_blank"&gt;Art. 59 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Mandatar eines allg. Vertretungskörpers darf nicht &lt;strong&gt;BP &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel61" rel="noopener noreferrer" target="_blank"&gt;Art. 61 Abs. 1 iVm&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel23" rel="noopener noreferrer" target="_blank"&gt;Art. 23b Abs. 3 B-VG&lt;/a&gt;), &lt;strong&gt;Rechnungshofpräsident &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel122" rel="noopener noreferrer" target="_blank"&gt;Art. 122 Abs. 5 B-VG&lt;/a&gt;), &lt;strong&gt;Volksanwalt &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel148" rel="noopener noreferrer" target="_blank"&gt;Art. 148g Abs. 5 B-VG&lt;/a&gt;) sein&lt;/li&gt;&lt;li&gt;Mitglied der Bundes/Landesregierung darf nicht Volksanwalt sein&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Mandatar eines allg. Vertretungskörpers bzw. Regierungsmitglieder dürfen nicht &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Richter &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;am &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;OGH &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel92" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Art. 92 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;), bei einem &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;VwG &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;oder &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;VwGH &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel134" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Art. 134 Abs. 5 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;) oder &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;VfGH &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel147" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Art. 147 Abs. 4 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Bestimmte Ämter können neben&lt;/p&gt;&lt;ul&gt;&lt;li&gt;d&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;em Mandat &lt;/span&gt;eines allgemeinen Vertretungskörpers&lt;/li&gt;&lt;li&gt;Mitglied des EU Parlaments&lt;/li&gt;&lt;li&gt;Mitglied der Regierung&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;nicht ausgeübt werden.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;NR, BR und EU-Parlament schließen sich aus (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel59" rel="noopener noreferrer" target="_blank"&gt;Art. 59 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Mandatar eines allg. Vertretungskörpers darf nicht &lt;strong&gt;BP &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel61" rel="noopener noreferrer" target="_blank"&gt;Art. 61 Abs. 1 iVm&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel23b" rel="noopener noreferrer" target="_blank"&gt;Art. 23b Abs. 3 B-VG&lt;/a&gt;), &lt;strong&gt;Rechnungshofpräsident &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel122" rel="noopener noreferrer" target="_blank"&gt;Art. 122 Abs. 5 B-VG&lt;/a&gt;), &lt;strong&gt;Volksanwalt &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel148g" rel="noopener noreferrer" target="_blank"&gt;Art. 148g Abs. 5 B-VG&lt;/a&gt;) sein&lt;/li&gt;&lt;li&gt;Mitglied der Bundes/Landesregierung darf nicht &lt;strong&gt;Volksanwalt &lt;/strong&gt;sein &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel148g" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 148g Abs. 5 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;) &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Mandatar eines allg. Vertretungskörpers bzw. Regierungsmitglieder dürfen nicht &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Richter &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;am &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;OGH &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel92" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 92 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;), bei einem &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;VwG &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;oder &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;VwGH &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel134" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 134 Abs. 5 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;) oder &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;VfGH &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel147" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 147 Abs. 4 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Landtag (Wahl, Auflösung, Abgeordnetenrechte und Einschränkungen, Tätigkeit)&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;5-6 Jährige Legislaturperiode&lt;/li&gt;&lt;li&gt;Wahl&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Von Landesbürger gewählt (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel6" rel="noopener noreferrer" target="_blank"&gt;Art. 6 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gleiche Wahlrechtsgrundsätze wie NR (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel595" rel="noopener noreferrer" target="_blank"&gt;Art. 95 Abs. 1 B-VG&lt;/a&gt;);&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Land darf Alter herab, aber nicht hinauf setzen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel95" rel="noopener noreferrer" target="_blank"&gt;Art. 95 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;BP kann Landtag auf Vorschlag der Bundesregierung mit Zustimmung des BR auflösen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel100" rel="noopener noreferrer" target="_blank"&gt;Art. 100 Abs. 1 B-VG&lt;/a&gt;) oder Selbstauflösung&lt;/li&gt;&lt;li&gt;freies Mandat, Immunität, Inkompatibilität wie bei NR&lt;/li&gt;&lt;li&gt;B-VG enthält Grundsätze über Landesgesetzgebung, wird durch Landesgesetze genauer spezifiziert.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;5-6 Jährige Legislaturperiode&lt;/li&gt;&lt;li&gt;Wahl&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Von Landesbürger gewählt (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel6" rel="noopener noreferrer" target="_blank"&gt;Art. 6 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gleiche Wahlrechtsgrundsätze wie NR (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel95" rel="noopener noreferrer" target="_blank"&gt;Art. 95 Abs. 1 B-VG&lt;/a&gt;);&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Land darf Alter herab, aber nicht hinauf setzen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel95" rel="noopener noreferrer" target="_blank"&gt;Art. 95 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;BP kann Landtag auf Vorschlag der Bundesregierung mit Zustimmung des BR auflösen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel100" rel="noopener noreferrer" target="_blank"&gt;Art. 100 Abs. 1 B-VG&lt;/a&gt;) oder Selbstauflösung&lt;/li&gt;&lt;li&gt;freies Mandat, Immunität, Inkompatibilität wie bei NR&lt;/li&gt;&lt;li&gt;B-VG enthält Grundsätze über Landesgesetzgebung, wird durch Landesgesetze genauer spezifiziert.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Weg der Landesgesetzgebung&lt;/p&gt;</t>
@@ -1366,7 +1486,7 @@
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundespräsidenten&lt;/span&gt; und Gewaltenteilung&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der &lt;strong&gt;Verwaltung &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank"&gt;Art. 19 Abs. 1 B-VG&lt;/a&gt;) aber &lt;strong&gt;nicht weisungsbefugt &lt;/strong&gt;(das ist nur die Regierung).&lt;/li&gt;&lt;li&gt;BP ernennt und entlässt Regierung&lt;/li&gt;&lt;li&gt;Verwaltungsapparat des BP: &lt;strong&gt;Präsidentschaftskanzlei&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Verwaltungsakte des BP: Entschließungen&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der &lt;strong&gt;Verwaltung &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank"&gt;Art. 19 Abs. 1 B-VG&lt;/a&gt;) aber &lt;strong&gt;nicht weisungsbefugt &lt;/strong&gt;(das ist nur die Regierung).&lt;/li&gt;&lt;li&gt;BP ernennt und entlässt Regierung&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Wahl des &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundespräsidenten&lt;/span&gt;&lt;/p&gt;</t>
@@ -1378,7 +1498,7 @@
     <t>&lt;p&gt;Absetzung des Bundespräsidenten&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bundesversammlung (einfache Mehrheit) kann auf Initiative des NR (2/3 Mehrheit) eine Volksabstimmung anordnen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel60" rel="noopener noreferrer" target="_blank"&gt;Art. 60 Abs. 6 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Bundesversammlung kann BP (1/2 Präsenzquorum, 2/3 Konsensquorum)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei Verletzung der Verfassung beim VfGH anklagen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel142" rel="noopener noreferrer" target="_blank"&gt;Art. 142 Abs. 2 lit. a B-VG&lt;/a&gt;) anklagen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Antrag auf Amtsverlust wenn BP Wählbarkeit verliert (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel141" rel="noopener noreferrer" target="_blank"&gt;Art. 141 Abs. 1 lit. d B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;Bundesversammlung (einfache Mehrheit) kann auf Initiative des NR (2/3 Mehrheit) eine Volksabstimmung anordnen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel60" rel="noopener noreferrer" target="_blank"&gt;Art. 60 Abs. 6 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Bundesversammlung kann BP (1/2 Präsenzquorum, 2/3 Konsensquorum)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei Verletzung der Verfassung beim VfGH anklagen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel142" rel="noopener noreferrer" target="_blank"&gt;Art. 142 Abs. 2 lit. a B-VG&lt;/a&gt;) anklagen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Antrag auf Amtsverlust bei VfGH stellen, wenn BP Wählbarkeit verliert (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel141" rel="noopener noreferrer" target="_blank"&gt;Art. 141 Abs. 1 lit. d B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Bundespräsident: Bildung der Bundesregierung und Landesregierung &lt;/span&gt;&lt;/p&gt;</t>
@@ -1780,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B250"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -3626,6 +3746,166 @@
         <v>459</v>
       </c>
     </row>
+    <row r="231" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/flashcards/Memcode - KS Oeffentliches Recht I (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Oeffentliches Recht I (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t>Question</t>
   </si>
@@ -19,748 +19,850 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Wann ist die Zustimmung der Bundesregierung für ein Landesgesetz notwendig? Wie wird die Zustimmung eingeholt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Bundesorgane sollen bei Vollziehung mitwirken (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel97" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Art. 97 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ein eigenes Statut (Stadtrecht) ist betroffen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 116 Abs. 3 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Änderung der Organisation der Behörden der allg. staatlichen Verwaltung in den Ländern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel15" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 15 Abs. 10 B-VG)&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Der LH muss vor Kundmachung dem Bundeskanzleramt bekannt das Gesetz geben. Regierung hat 8 Wochen für Ablehnung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Organe einer Einheitsgemeinde? Was sind die Ämter dafür?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel117" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 117 Abs. 1 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gemeinderat&lt;/li&gt;&lt;li&gt;Gemeindevorstand (Stadtrat)&lt;/li&gt;&lt;li&gt;Bürgermeister&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Für alle 3: Das Gemeindeamt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche zusätzliche Funktion hat der Bürgermeister von Wien? Was bedeutet das für die Wahl?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Er ist auch Landeshauptmann&lt;/li&gt;&lt;li&gt;Eine Direktwahl durch das Volk ist nicht möglich&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche 3 Verwaltungsrollen hat die Stadt Wien?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wien ist Gemeinde, Statutarstadt und Bundesland&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Besonderheiten der Bezirksverwaltung durch eine Statutarstadt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 116 Abs. 3 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ist keine Selbstverwaltung&lt;/li&gt;&lt;li&gt;Gebunden an Weisungen der Verwaltungsorgane von Bund und Land&lt;/li&gt;&lt;li&gt;Ist ein übertragener Wirkungsbereich: Wird von Bürgermeister besorgt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet Einheitsgemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Alle Gemeinden, außer Statutarstädte, haben einen im Umfang einheitlichen Wirkungsbereich und ein einheitliches Organisationsrecht. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Gebietsgemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Auch für Überörtliche Angelegenheiten zuständig&lt;/li&gt;&lt;li&gt;Überörtlicher Selbstverwaltungskörper&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Ortsgemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Für örtliche Angelegenheiten zuständig&lt;/li&gt;&lt;li&gt;Selbstverwaltungskörper&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der übertragene Wirkungsbereich von Gemeinden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Landes- und Bundesgesetzgebung können Zuständigkeiten an die Gemeinden übertragen, dies werden vom Bürgermeister besorgt.&lt;/li&gt;&lt;li&gt;Für diese ist die Gemeinde an Landes- oder Bundesverwaltung weisungsgebunden.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer hat die Rechtsaufsicht über Gemeinden bei welchen Angelegenheiten?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Art. 10 B-VG: die Behörden der allgemeinen staatlichen Verwaltung des Bundes.&lt;/p&gt;&lt;p&gt;Art. 11, 12, 15 B-VG: d&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;ie Behörden der allgemeinen staatlichen Verwaltung des Landes.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsaufsicht der Staaten über die Gemeinden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die staatliche Verwaltung darf keine Weisungen erteilen, überprüft aber das Gemeindehandeln auf &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Gesetzeswidrigkeit &lt;/span&gt;und schreitet bei Übertretungen ein. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gemeinden sind Weisungsfrei. Was bedeutet das innerhalb der Gemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Innerhalb der Gemeinde herrscht Weisungsbindung. &lt;/li&gt;&lt;li&gt;Der Gemeinderat ist gegenüber den anderen Organen weisungsberechtigt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer wählt die Gemeinde(verwaltungs)organe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Unmittelbar das Gemeindevolk (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel117" rel="noopener noreferrer" target="_blank"&gt;Art. 117 Abs. 2,6 B-VG&lt;/a&gt;) (Sonst: Verwaltungsorgane nicht vom Volk gewählt)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wem sind die Organe der Gemeinde politisch Verantwortlich?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Den Gemeindebürgern, &lt;strong&gt;nicht&lt;/strong&gt; den obersten Verwaltungsorganen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Darf die staatliche Verwaltung den Gemeinden Weisungen erteilen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, die Gemeinden sind autonom.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;In welchen Artikeln werden Gemeindeverwaltungsangelegenheiten geregelt? &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel115" rel="noopener noreferrer" target="_blank"&gt;Art. 115ff B-VG&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hat die Gemeinde Gesetzgebende oder richterliche Zuständigkeiten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, sie ist eine Verwaltungsorganisation&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine formalgesetzliche Delegation?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Gesetz bestimmt das Handeln der Vollziehung nicht oder nur sehr ungenau, dies ist verfassungswidrig (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 18. Abs 1. B-VG&lt;/a&gt;). Der Gesetzgeber delegiert daher die Pflicht das Recht zu bestimmen an die Vollziehung.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Landesverwaltung: Landesregierung (Zuständigkeit, Zusammensetzung, Entscheidungsfindung, Wahl, Regierungsart, Amt)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der Landesverwaltung, zuständig für hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 11-15 B-VG&lt;/a&gt;) und nicht hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;) Verwaltung&lt;/li&gt;&lt;li&gt;Besteht aus Landeshauptmann und weiteren Landesräten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank"&gt;Art. 101 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Entscheidet als Kollegialorgan, Landesräte können teilweise auch als Einzelorgane tätig werden (Ämter der Landesregierungen)&lt;/li&gt;&lt;li&gt;Parlamentarisches System: Landtag wählt Regierung &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 101 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Meist Mehrheitsregierung, außer in OÖ, NÖ und W → Proporzregierung=Konzentrationsregierung&lt;/li&gt;&lt;li&gt;Amt der Landesregierung: Hilfsapparat der Regierung &lt;strong&gt;&lt;em&gt;und &lt;/em&gt;&lt;/strong&gt;des Landeshauptmanns.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen: Grundrechte im B-VG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art. 7 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Recht auf den gesetzlichen Richter (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 83 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Recht der Richter auf Unabhängigkeit (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Recht der Gemeinden auf Selbstverwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Weisungsfreie Vollziehung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Unabhängige &lt;strong&gt;Richter &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;weisungsfreier Teil der &lt;strong&gt;Justizverwaltung &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 2 B-VG&lt;/a&gt;): Richtersenate und Kommissionen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gemeindeselbstverwaltung&lt;/strong&gt;: Gemeinderat und Bürgermeister (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Weisungsfrei, unterliegen nur Aufsicht der Bundes/Landesbehörden.&lt;/li&gt;&lt;li&gt;Einfacher Bundes/Landesgesetzgeber kann weitere Verwaltungsorgane bei Rechtfertigung weisungsfrei stellen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel20" rel="noopener noreferrer" target="_blank"&gt;Art. 20 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie regelt die (Finanz)Verfassung wie der Staat zu seinem Geld kommt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Konstruiert den Staat als Abgabestaat&lt;/li&gt;&lt;li&gt;Staat bringt das Geld zwangsweise durch hoheitliche Abgaben, Gebühren und Beiträge auf.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird das Budget bestimmt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In einem Budgetgesetz (Bundesfinanzgesetz) auf der Grundlage eines Bundesfinanzrahmengesetzes&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man das Geld- und Vermögensrelevante Handeln der Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gebarung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wo liegt die Budgethoheit, was bedeutet sie?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beim Parlament, das Parlament entscheidet, wofür die Verwaltung welche Summen ausgeben darf. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sind Gemeinden unter dem Grundrechtsschutz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, die Gemeindeautonomie (Recht auf Selbstverwaltung, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ist ausgenommen aus dem Grundrechtsschutz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Staaten (Bund und Land), die Grundrechte sind nicht dazu da den Staat vor sich selbst, Land vor dem Bund oder Bund vor dem Land zu schützen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können Gebietskörperschaften Träger von Grundrechten sein?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, juristische Personen&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; (des öffentlichen und des Privatrechts)&lt;/span&gt; können Träger von Grundrechten sein, wenn dies &lt;strong&gt;wesensmäßig &lt;/strong&gt;möglich ist.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gilt der Gleichheitssatz auch für die nicht-hoheitliche Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, Diskriminierung ist verboten, und Sachlichkeit wird verlangt. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Fiskalgeltung der Grundrechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Bindung des Staates an die Grundrechte im Rahmen der Privatwirtschaftsverwaltung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Verwaltung kann sowohl hoheitlich als auch privatrechtlich Handeln. Gilt der Grundrechtsschutz auch gegen die nicht-hoheitlichen Handlungen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man Verwaltungsakte des BP?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Entschließungen&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Verwaltungsapparat des BP?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Präsidentschaftskanzl&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;ei&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsverwaltung: Was is das Bundesheer? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;militärische Formation des Bundes, zählt zur unmittelbaren Bundesverwaltung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsbehörden des Bundes&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt; richten die Sicherheitsbehörden ein&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/spg/paragraf/2" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;2 Abs. 2 SPG&lt;/a&gt; definiert Aufgaben der Sicherheitsverwaltung&lt;/li&gt;&lt;li&gt;2/3 Ebenen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;BM für Inneres&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landespolizeidirektion&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li&gt;Mischform aus mittelbarer und unmittelbarer Bundesverwaltung, weil auf unterer Ebene teilweise Bezirksverwaltungsbehörden als Landesbehörden eingebunden sind&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Präzisiert ein Gesetz (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 18 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kompetenzverteilung in der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Kompetenzverteilung in Art. 10 - 15 B-VG gilt &lt;strong&gt;nicht&lt;/strong&gt; für nicht-hoheitliche Verwaltung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das hoheitliche Organisationsrecht einer Gebietskörperschaft?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bestimmt die innere Willensbildung des &lt;strong&gt;privatrechtlichen&lt;/strong&gt; Handelns&lt;/li&gt;&lt;li&gt;Zuständigkeit für Kaufverträge, Willensbildung, inhaltliche Gestaltung von Verträgen ⇾ bestimmt das hoheitliche Organisationsrecht (nicht die Privatrechtsordnung)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie funktioniert das Gesetzmäßigkeitsgebot in der nicht-hoheitlichen Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Geregelt durch das Verwaltungsprivatrecht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;differenziertes Legalitätsprinzip: &lt;/strong&gt;Auch privatrechtliche Handlungen unterliegen dem Gesetzmäßigkeitsgebot,  es ist aber flexibler und weniger streng, als für hoheitliches Handeln &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Inhalt der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Privatwirtschaftsverwaltung&lt;/li&gt;&lt;li&gt;Fiskalverwaltung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer kann nicht-hoheitlich handeln, wer nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nur die juristischen Personen: Bund, Länder und Gemeinden, also nur die Verwaltung. &lt;/li&gt;&lt;li&gt;Parlamente und Gerichte handeln  immer hoheitlich&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Gebietskörperschaften sind Träger von Privatrechten?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Bund und Länder sind juristische Personen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 2 B-VG&lt;/a&gt;: Gemeinden sind juristische Personen&lt;/li&gt;&lt;li&gt;Vermögensfähig sind also der Bund, die Länder und die Gemeinden, nicht der Gesamtstaat Österreich.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Unterschiede zwischen juristischen Personen des Privatrechts und des öffentlichen Rechts? Was ist identisch? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Unterschiede:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Privatrecht: Durch Vertrag errichtet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliches Recht: Durch Gesetz errichtet&lt;/li&gt;&lt;li&gt;Beide haben dieselbe (Privat)Rechtsfähigkeit, dieselben privaten Rechte und Pflichten&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Organisationsrecht? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Regelt welche Organe eine juristische Person hat, und welche Organwalter für die jur. Person handeln.&lt;/li&gt;&lt;li&gt;Insbesondere wer intern entscheidet, und wer nach außen vertritt.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Jur. Person handelt immer nur durch vertretungsbefugte Organe.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die zwei Kernaussagen der Wesenstheorie?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Umfang der Rechte von jur. Personen im wesentlichen auf &lt;strong&gt;Vermögensrechte &lt;/strong&gt;beschränkt = &lt;strong&gt;Vermögensfähigkeit&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Jur. Personen sind rechtsfähig, benötigen aber Menschen um für sie zu handeln (&lt;strong&gt;Organisationsrecht&lt;/strong&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können juristische Personen Rechtsträger sein? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Privatrechtsordnung erlaubt, dass juristische Personen von der Rechtsordnung als Rechtsträger behandelt wären, als wären sie Menschen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind juristische Personen? &lt;/p&gt;&lt;p&gt;Wie werden sie noch genannt?&lt;/p&gt;&lt;p&gt;Wie wird entschieden, welche juristischen Personen es gibt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;= virtuelle Menschen&lt;/li&gt;&lt;li&gt;Auch Rechtsperson oder Körperschaft genannt&lt;/li&gt;&lt;li&gt;Gesetzgebung entscheidet ob und welche juristischen Personen es gibt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind natürliche Personen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;= Menschen&lt;/li&gt;&lt;li&gt;Träger von Rechten und Pflichten&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ABGB&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Allgemeines bürgerliches Gesetzbuch&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ist der gesetzliche Vertreter für ein Kind?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Eltern (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/167" rel="noopener noreferrer" target="_blank"&gt;§ 167 ABGB&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ist jeder Mensch handlungsfähig?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/21" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;21 ABGB&lt;/a&gt;), wer nicht handlungsfähig ist, braucht einen Vertreter der für ihn handelt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Handlungsfähigkeit?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, durch eigenes Handeln Rechte zu erwerben und Pflichten zu begründen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsfähigkeit? Wer hat sie wie lange? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, Träger privater Rechte und Pflichten zu sein (z.B.: Eigentümer von Geld und Vermögen)&lt;/li&gt;&lt;li&gt;Jeder Mensch ist von Geburt bis zum Tod rechtsfähig.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einzelne Grundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Recht auf persönliche Freiheit&lt;/li&gt;&lt;li&gt;Hausrecht&lt;/li&gt;&lt;li&gt;Versammlungsfreiheit&lt;/li&gt;&lt;li&gt;Meinungsfreiheit&lt;/li&gt;&lt;li&gt;...&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Recht auf den gesetzlichen Richter?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt; Justizgrundrecht, das festlegt, dass für Rechtsstreitigkeiten und Prozesse bereits im Voraus bestimmt sein muss, welches&amp;nbsp;&lt;/span&gt;Gericht&amp;nbsp;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;und welcher Richter zuständig ist (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank"&gt;Art.&amp;nbsp;83 Abs. 2&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 3&amp;nbsp;B-VG&lt;/a&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verfahrensgrundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wehren den Staat nicht ab, sondern verlangen Einhaltung der durch die Verfassung gewährleisteten Verfahrensrechte &lt;/li&gt;&lt;li&gt;Beispiele: Recht auf den gesetzlichen Richter, Recht auf faires Verfahren, keine Strafe ohne Gesetz.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Politische Grundrechte (= Teilhaberechte)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Durch die Verfassung gewährleistete Recht der Teilnahme der Menschen am Staat&lt;/li&gt;&lt;li&gt;Keine Abwehrrechte, sondern Teilhaberechte (status activus)&lt;/li&gt;&lt;li&gt;Aktive Teilhabe an der Staatswillensbildung und Staatsgewalt&lt;/li&gt;&lt;li&gt;Beispiele: Wahlrecht, Recht auf Volksbegehren, Petitionsrecht, Gründung und Betätigungsfreiheit polit. Parteien.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Soziale Grundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Österreich ist ein Sozialstaat, die Verfassung kennt aber &lt;strong&gt;keine&lt;/strong&gt; sozialen Grundrechte.&lt;/li&gt;&lt;li&gt;Begründung: könnten den Staat wirtschaftlich überfordern.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Freiheitsrechte mit staatlichen Schutzpflichten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nicht nur Abwehrrecht gegen Staat&lt;/li&gt;&lt;li&gt;Anspruch gegen den Staat, dass er den Freiraum auch vor Beschädigung durch andere Privatpersonen schützt&lt;/li&gt;&lt;li&gt;Beispiele: Recht auf Leben (Art. 2 EMRK), Verbot der Folter, ..&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Freiheitsrechte ohne Gesetzesvorbehalt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Absolut schützendes Freiheitsrecht&lt;/li&gt;&lt;li&gt;Kein Eingriff in den Schutzbereich durch einfache Gesetze zulässig&lt;/li&gt;&lt;li&gt;Beispiele: Verbot der Folter, Verbot der Todesstrafe, ... &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was sind die Organe einer Statutarstadt? Was sind die Ämter dafür?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gemeinderat&lt;/li&gt;&lt;li&gt;Stadtsenat&lt;/li&gt;&lt;li&gt;Bürgermeister&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Amt für alle 3: Magistrat&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Quoren für Landesverfassungsgesetze?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Präsenz 1/2, Konsens 2/3 (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel99" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 99 Abs. 2 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Arten der Leitung der Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Aufsicht: &lt;/strong&gt;ex post - nach der Handlung&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Rechtsaufsicht: gesetzmäßig&lt;/li&gt;&lt;li&gt;Zweckaufsicht: zweckmäßig&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Weisung: &lt;/strong&gt;ex ante - vor der Handlung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungshandeln: Bescheid&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;3 formale Merkmale (nicht vorhanden: Absolut nichtig)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine Verwaltungsbehörde handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss an einen individuellen Adressaten gerichtet sein&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine behördliche Anordnung enthalten&lt;/li&gt;&lt;li&gt;Gesetzgeber kann weitere Merkmale hinzufügen, Auswirkung des Fehlens legt Gesetzgeber fest (z.B.: relativ nichtig)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eingriffsvorbehalt vs. Ausgestaltungsvorbehalt bei Freiheitsrechten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Eingriffsvorbehalt &lt;/strong&gt;erlaubt in den Schutzbereich des Freiheitsrechts einzugreifen, und diesen durch Gesetz einzuschränken&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Ausgestaltungsvorbehalt &lt;/strong&gt;erlaubt  nur ein Freiheitsrecht näher auszugestalten, nicht in den Schutzbereich einzugreifen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was besagt die Wesensgehaltssperre?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Freiheitsrecht darf durch einen gesetzlichen Eingriff nicht hinfällig werden, ein Minimum an Freiheit muss bestehen bleiben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Wie muss der Gesetzgeber handeln, wenn der Verfassungstext keine Vorgaben für einen gesetzlichen Eingriff auf ein Freiheitsrecht hat? &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Es wird die Auslegung herangezogen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesetzgeber muss nachweislich ein konkretes öffentliches Interesse verfolgen&lt;/li&gt;&lt;li&gt;Der Eingriff muss verhältnismäßig sein (Verhältnismäßigkeitsgrundsatz), die Belastung der Freiheit darf nicht höher sein, als zur Erreichung des öffentlichen Interesses unbedingt erforderlich&lt;/li&gt;&lt;li&gt;Eingriff muss sachlich sein&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Freiheitsrechte mit Gesetzesvorbehalt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Relativ schützendes&lt;/strong&gt; Freiheitsrecht&lt;/li&gt;&lt;li&gt;Eingriff in den Schutzbereich durch einfache Gesetze möglich - unter Beachtung der &lt;strong&gt;materiellen Eingriffsschranken&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Steht unter materiellem Gesetzesvorbehalt, weil der Gesetzgeber bei seinen Regelungen inhaltlich an Vorhaben der Verfassung gebunden ist.&lt;/li&gt;&lt;li&gt;Der Verfassungstext sagt, ob ein Grundrecht unter materiellem Gesetzesvorbehalt steht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beispiele für Freiheitsrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Kunstfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Freiheitsrechte, warum heißen sie auch Abwehrrechte?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Grundrechte, durch welche die Verfassung den Menschen Freiräume gewährleistet.&lt;/li&gt;&lt;li&gt;Erlauben dem einzelnen verfassungswidrige Eingriffe des Staats in den geschützten Freiraum abzuwehren (über den dafür vorgesehenen besonderen Prozessweg) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Schützt der Gleichheitssatz vor eingriffen in den Freiraum der Menschen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, er ist kein Freiheitsrecht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Willkürverbot, was ist Willkür?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gilt für die Vollziehung&lt;/li&gt;&lt;li&gt;Verbot willkürlicher Entscheidungen&lt;/li&gt;&lt;li&gt; Willkür liegt vor, wenn eine Behörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;eine Person absichtlich benachteiligt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;ohne Rechtsgrundlage entscheidet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;die Rechtslage verkennt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gravierende Verfahrensfehler begeht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wen bindet der Gleichheitssatz, wen nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bindet den:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li&gt;einfachen Landesgesetzgeber&lt;/li&gt;&lt;li&gt;Landesverfassungsgesetzgeber&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Bindet nicht:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bundesverfassungsgesetzgeber, weil der Gleichheitssatz bloß ein Bundesverfassungsgesetz ist. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wann verletzt ein einfaches Gesetz den Gleichheitssatz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wenn es:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Unsachliche Differenzierungen vornimmt&lt;/strong&gt; (Gleiches ist gleich zu behandeln, soweit kein Grund für eine Ungleichbehandlung vorliegt)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gebotene Differenzierungen unterlässt&lt;/strong&gt; (Ungleiches darf nicht ohne Grund gleich behandelt werden)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Sachlich nicht gerechtfertigte Regelungen&lt;/strong&gt; trifft.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gleichheitsformel&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitskonform&lt;/strong&gt;, wenn sie sachlich gerechtfertigt ist. Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitswidrig&lt;/strong&gt;, wenn sie &lt;strong&gt;nicht &lt;/strong&gt;sachlich gerechtfertigt ist.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;(z.B.: Matura als Voraussetzung für Studium ist konform, da allgemeine Vorbildung notwendig ist, um sinnvoll zu studieren)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann der Gesetzgeber ungleiches gleich behandeln?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, bei unterschieden im Tatsächlichen (z.B.: unterschiedliches Einkommen) muss der Gesetzgeber auch unterschiedliche Regelungen erlassen (Gebot &lt;strong&gt;sachlicher Differenzierung&lt;/strong&gt;) &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet &lt;strong&gt;gleich&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gleiche Betroffenheit der Rechtsunterworfenen unter Berücksichtigung aller rechtlichen und tatsächlichen Wirkungen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gleichheitsrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz: &lt;a href="https://www.jusline.at/gesetz/stgg/paragraf/artikel2" rel="noopener noreferrer" target="_blank"&gt;Art 2. StGG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art 7 Abs. 1 B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Recht auf Gleichbehandlung von Fremden untereinander&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BVG über die Beseitigung aller Formen rassischer Diskriminierung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Kategorien/Arten von Grundrechten gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gleichheitsrechte (Gleichheitssatz)&lt;/li&gt;&lt;li&gt;Freiheitsrechte (= Abwehrrechte)&lt;/li&gt;&lt;li&gt;Soziale Grundrechte&lt;/li&gt;&lt;li&gt;Politische Grundrechte (= Teilhaberechte)&lt;/li&gt;&lt;li&gt;Verfahrensgrundrechte&lt;/li&gt;&lt;li&gt;Sonstige Grundrechte&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind verfassungsimmanente&amp;nbsp;Schranken? Was bedeuten Sie für Grundrechte? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einschränkung des Schutzbereichs des Grundrechts durch andere Grundrechte und objektive Verfassungsbestimmungen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Der Schutzbereich des Grundrechts geht daher nicht zwangsläufig so weit, wie die Formulierung des Textes erwarten lässt.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird mit Widersprüchen in Grundrechtsquellen umgegangen? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Dasselbe Grundrecht kann an verschiedenen Stellen der Verfassungsordnung verankert sein. Widersprüche sind nach den Regeln der &lt;strong style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Derogation &lt;/strong&gt;aufzulösen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie unterteilt die Verfassung unter objektivem Recht gewährleistete Rechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nach Adressatenkreis in Staatsbürgerrechte und Menschenrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Drittwirkung der Grundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Durch Trennung von Staat und Gesellschaft gibt es &lt;strong&gt;keine Drittwirkung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Grundrechte gelten nur gegen den Staat, nicht Mensch gegen Mensch&lt;/li&gt;&lt;li&gt;Ausnahmen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gesetzlich angeordnete Drittwirkungen (z.B.: Datenschutzgesetz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Grundrechte mit staatlicher Schutzpflicht (Recht auf Leben)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Mittelbare Drittwirkung im Zivilrecht (Auslegung, Sittenklauseln)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wo werden über Verstöße gegen Grundrechte entschieden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;OGH&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wo werden in der Regel über Verstöße gegen subjektives Recht entschieden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;im VfGH&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird der Schutzbereich eines Grundrechts festgelegt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Verfassung die ein Grundrecht normiert, legt den Schutzbereich mit dem Wortlaut des Verfassungstextes fest. Diese Begriffe sind allerdings auslegungsbedürftig (z.&amp;nbsp;B.: Eigentumsfreiheit hat den Schutzbereich "Eigentum")&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Einzelne Grundrechte in Staatsverträgen&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Rechte der Minderheiten&lt;/li&gt;&lt;li&gt;Religionsfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Grundrechte in einfachen Gesetzen&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Recht auf Zivildienst&lt;/li&gt;&lt;li&gt;Recht auf Datenschutz&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Quellen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Grundrechtskataloge&lt;/li&gt;&lt;li&gt;Grundrechtsgesetze&lt;/li&gt;&lt;li&gt;Grundrechte im B-VG&lt;/li&gt;&lt;li&gt;Grundrechte in einfachen Gesetzen&lt;/li&gt;&lt;li&gt;Einzelne Grundrechte in Staatsverträgen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtsgesetze&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Hausrechts Gesetz &lt;/li&gt;&lt;li&gt;Beschluss der provisorischen Nationalversammlung über die Aufhebung der Zensur 1918&lt;/li&gt;&lt;li&gt;PersFrG (Bundesverfassungsgesetz zum Schutz der persönlichen Freiheit)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtskataloge&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;StGG 1867&lt;/li&gt;&lt;li&gt;EMRK + ZP&lt;/li&gt;&lt;li&gt;BVG Kinderrechte&lt;/li&gt;&lt;li&gt;EU Grundrechtecharta&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gegen wen schützen Grundrechte, gegen wen nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Grundrechte schützen gegen Staat und Staatsgewalt&lt;/li&gt;&lt;li&gt;Schützen auch gegen den Gesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen Landesverfassungsgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Landesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen die staatl. Vollziehung (Verwaltung und Gerichtsbarkeit)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Aber: &lt;/strong&gt;Bundesverfassungsgesetze können Grundrechte einschränken. (z.&amp;nbsp;B.: Wehrpflicht für Männer widerspricht dem Gleichheitssatz, ist aber durch B-VG diskriminierend festgelegt) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Objektives Recht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mensch hat keinen durchsetzbaren Anspruch auf Einhaltung der Gesetze&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subjektives Recht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Grundrechte sind gegen den Staat durchsetzbare Individualrechte&lt;/li&gt;&lt;li&gt;Mensch hat Anspruch auf Einhaltung der Gesetze (Verwaltung, Gerichtsbarkeit, Gesetzgebung verfolgen Verletzung der Grundrechte)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Grundrechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Alle den Menschen durch formelle Verfassungsgesetze gewährleistete Recht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Geschichte der Grund- und Freiheitsrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;1789&lt;/strong&gt;: Deklaration der Menschen- und Bürgerrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1867&lt;/strong&gt;: Staatsgrundgesetz (Dezemberverfassung) &lt;/p&gt;&lt;p&gt;&lt;strong&gt;1948&lt;/strong&gt;: Allgemeine Erklärung der Menschenrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1950&lt;/strong&gt;: Europäische Menschenrechtskonvention&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Gemeindewachkörper &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118 Abs. 8 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118a B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Gemeinde&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Aufgaben im kommunalen Bereich&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Justizwache &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/stvg/paragraf/13a" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;13a Strafvollzugsgesetz&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;﻿Bund&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Bewachung der Strafgefangenen&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;Bundespolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 10 Abs. 1 Z. 14 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, &lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 78d B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Bund&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Innere Sicherheit&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Unmittelbare Bundesverwaltung, BM für Inneres an der Spitze&lt;/li&gt;&lt;li&gt;im Bereich jeder Landespolizeidirektion sind Bezirkskommanden bzw. Stadtpolizeikommanden eingerichtet&lt;/li&gt;&lt;li&gt;Wachkörper Bundespolizei ist von Sicherheitsbehörden des Bundes zu unterscheiden!&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wachkörper&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bewaffnete Formationen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank"&gt;Art. 78d Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundespolizei: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Justizwache: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gemeindewachkörper: &lt;strong&gt;Gemeinde&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Organisation und Führung der Bundespolizei und die Org. sonstiger Wachkörper (Ausnahme: Gemeindewachkörper) ist Bundessache&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: &lt;/span&gt;Bezirksverwaltungsbehörde&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bezirkshauptmannschaft/Bürgermeister besorgt prinzipiell Sicherheitsverwaltung auf Bundesebene&lt;/li&gt;&lt;li&gt;Als Verwaltungsbehörde aber nicht auf Sicherheitsaufgaben spezialisiert.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: Landespolizeidirektion&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78b" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgba(0, 0, 0, 0);"&gt;Art. 78b Abs. 1 B-VG&lt;/a&gt;) für jedes Bundesland:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Landespolizeidirektor weisungsgebunden an BM&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM muss jede wichtige Weisung an den LH mitteilen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM kann Landespolizeidirektor nur mit Einvernehmen des LH bestellen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78c" rel="noopener noreferrer" target="_blank"&gt;Art. 78c B-VG&lt;/a&gt; ermächtigt einfachen Bundesgesetzgeber die Landespolizeidirektion zur Sicherheitsbehörde 1. Instanz zu bestimmen, &lt;a href="https://www.jusline.at/gesetz/spg/paragraf/8" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;8 SPG&lt;/a&gt; legt dafür einige Gebiete fest.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsbehörden: BM für Inneres&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 78a Abs. 1 B-VG&lt;/a&gt;): Generaldirektion für öffentliche Sicherheit sorgt für Sicherheitsverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;SPG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitspolizeigesetz&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abgabebehörden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Auftragsverwaltung des Bundes: für nicht-hoheitliche Verwaltung ist theoretisch nur der BM zuständig (z.&amp;nbsp;B.: Bundesvermögen, Geschäfte des Bundes)&lt;/li&gt;&lt;li&gt;BM kann einzelne Geschäfte durch hoheitlichen Auftrag dem LH übertragen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel104" rel="noopener noreferrer" target="_blank"&gt;Art. 104 Abs. 2&lt;/a&gt;) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Unmittelbare Bundesverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 102 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ausnahme&lt;/li&gt;&lt;li&gt;Bund erledigt Aufgaben durch eigene Bundesbehörden&lt;/li&gt;&lt;li&gt;Bund darf dennoch mittelbare Bundesverwaltung nutzen &lt;/li&gt;&lt;li&gt;Mit Zustimmung der Länder, darf Bund auch Materien regeln, die nicht in Art. 102 Abs. 2 stehen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 4 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mittelbare Bundesverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Das oberste Organ ist ein BM (oder der BK), als funktionelles und organisatorisches Organ des Bundes&lt;/li&gt;&lt;li&gt;Das mittlere Organ ist der Landeshauptmann (als Einzelorgan). &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organisatorisch ein Landesorgan, funktionell aber im Auftrag des Bundes&lt;/li&gt;&lt;li class="ql-indent-1"&gt;An Weisungen des BM gebunden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Amt der Landesregierung&lt;/li&gt;&lt;li&gt;Das untere Organ ist die Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organwalter (Bezirkshauptmann/Bürgermeister) an Weisung des LH gebunden (In Bundesverwaltung, sonst an Landesregierung)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Bezirkshauptmannschaft/Magistrat&lt;/li&gt;&lt;li&gt;Unterste Organe: Gemeindeorgane&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Staatssekretäre &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Werden zwar in Art. 19 B-VG als oberste Organe der Verwaltung genannt, sind jedoch BM unterstellt und weisungsgebunden (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 78 Abs. 3 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Aufgabe ist Unterstützung und Vertretung des BM, sie sind nicht Teil der Bundesregierung&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ämter der Bundesregierung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bundeskanzleramt für BK&lt;/li&gt;&lt;li&gt;Bundesministerien für die BM&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bundesregierung: &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;BK, VK und BMs als Einzelorgane&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Oberste Organe der Verwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank"&gt;Art. 19 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;BM für Finanzen und für Inneres sind in der Verfassung, andere werden durch Bundesministeriengesetz 1986 bestimmt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundesregierung &lt;/span&gt;als Kollegialorgan&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;= Ministerrat&lt;/li&gt;&lt;li&gt;Beschlüsse müssen einstimmig sein&lt;/li&gt;&lt;li&gt;Aufgabe sind Regierungsakte wie&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge an BP (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel67" rel="noopener noreferrer" target="_blank"&gt;Art. 67 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gesetzesvorlagen an das Parlament (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel41" rel="noopener noreferrer" target="_blank"&gt;Art. 41 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge für Ernennung von Verfassungsrichtern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel147" rel="noopener noreferrer" target="_blank"&gt;Art. 147 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zusammensetzung der Bundesregierung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Besteht aus BK, Vizekanzler und Bundesministern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 19 Abs. 1 B-VG&lt;/a&gt;,&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel69" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt; Art. 69 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Landesverwaltung unterhalb der Regierung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Landesverwaltung in Verwaltungssprengel territorial gegliedert&lt;/li&gt;&lt;li&gt;Land in Bezirke gegliedert, 2 Arten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Bezirk&lt;/strong&gt;, der mehrere Gemeinden erfasst&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Statutarstadt&lt;/strong&gt;, die alleine ein Bezirk ist&lt;/li&gt;&lt;li&gt;Bezirksverwaltungsbehörden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirkshauptmann (monokratisch), Amt: Bezirkshauptmannschaft&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bürgermeister, Amt: Magistrat&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsbehörden des Bundes (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ortspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Örtliche Verwaltungspolizei und örtliche Sicherheitspolizei gemeinsam&lt;/li&gt;&lt;li&gt;bei gesetzlicher Lücke zur Beseitigung konkreter Gefahren und Missstände, wenn diese das "örtliche Gemeinschaftsleben" stören &lt;/li&gt;&lt;li&gt;Gemeinde darf gesetzesergänzende Verordnungen erlassen (ortspolizeiliche Verordnungen &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank"&gt;Art. 118 Abs. 6 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Örtliche Sicherheitspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aus dem Kompetenztatbestand ausgenommen → Aufteilung in überörtliche und örtliche Sicherheitspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10 Abs. 1 Z. 7 B-VG&lt;/a&gt; Aufrechterhaltung der öffentlichen Ruhe, Ordnung und Sicherheit (soweit keiner konkreten Sachmaterie zugewiesen)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Örtliche Verwaltungspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Alle in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10-15 B-VG&lt;/a&gt; enthaltenen Angelegenheiten der Verwaltungspolizei, die im &lt;em&gt;örtlichen Interesse&lt;/em&gt; gelegen sind, fallen in den Wirkungsbereich der Gemeinden&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Staatliches Handeln zur Abwehr und Beseitigung konkreter Gefahren und Missstände&lt;/li&gt;&lt;li&gt;Annexmaterie zu den Kompetenzen in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank"&gt;Art. 10-15 B-VG&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Allgemeine staatliche Verwaltung (Aufstellung in Bund und Ländern)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Allzuständigkeit der Staatsgewalt, erledigt von allgemeinen staatlichen Verwaltungsorganen&lt;/li&gt;&lt;li&gt;der Länder: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz) &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landesregierungen (2. Instanz)&lt;/li&gt;&lt;li&gt;der Bund:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landeshauptmann (2. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundesminister (3. Instanz) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Organ&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abstrakt, dem Organ sind &lt;strong&gt;Organzuständigkeiten &lt;/strong&gt;zugeordnet, diese sind teil der Zuständigkeit der &lt;strong&gt;Organisation&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Privatrechtliches Handeln &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gebietskörperschaften können als juristische Personen auch privatrechtlich handeln -&amp;gt; Fiskalverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Schlicht-hoheitliches Handeln&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hoheitliches Handeln, dass nicht auf dem Erlass von Rechtsnormen beruht.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polizeistreife&lt;/li&gt;&lt;li&gt;Verkehrskontrolle&lt;/li&gt;&lt;li&gt;Urkundenausstellung&lt;/li&gt;&lt;li&gt;Auskunft durch Behörde&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Maßnahme&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ausübung unmittelbarer verwaltungsbehördlicher Befehls- und Zwangsgewalt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;individueller Akt direkt auf gesetzlicher Grundlage z.B.: Festnahme&lt;/li&gt;&lt;li&gt;Wird wie Rechtsnorm mit Zwang durchgesetzt.&lt;/li&gt;&lt;li&gt;Anfechtung ungerechter Behandlung nicht möglich (anders als bei individueller Rechtsnorm = Bescheid) → Rechtsschutzlücke → Maßnahmebeschwerde vor Verwaltungsgericht (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 Z. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsverordnung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach innen, regelt die interne Verwaltungsorganisation&lt;/li&gt;&lt;li&gt;muss nicht kundgemacht werden (Abgrenzung zur Weisung schweirig)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rechtsverordnung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach außen&lt;/li&gt;&lt;li&gt;Legt Rechte und Pflichten für Bürger fest&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Ortspolizeiliche Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Von Gemeinden erlassen &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(Art. 118 Abs. 6)&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;im eigenen Wirkungsbereich&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;nur zur Abwehr drohender oder bestehender Missstände&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dürfen nicht gegen Bundes- oder Landesrecht verstoßen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Ergehen unmittelbar aus Bundesverfassung (ohne weitere Gesetze)&lt;/li&gt;&lt;li&gt;Gesetzesergänzend, gesetzesvertretend oder gesetzesändernd.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Rechtsverordnung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach außen&lt;/li&gt;&lt;li&gt;Legt Rechte und Pflichten für Bürger fest&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Ortspolizeiliche Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Von Gemeinden erlassen &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(Art. 118 Abs. 6)&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;im eigenen Wirkungsbereich&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;nur zur Abwehr drohender oder bestehender Missstände&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dürfen nicht gegen Bundes- oder Landesrecht verstoßen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Arten von Verordnungen&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ortspolizeiliche Verordnung&lt;/li&gt;&lt;li&gt;Rechtsverordnung&lt;/li&gt;&lt;li&gt;Verwaltungsverordnung&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Landesverwaltung: Landesregierung (Zuständigkeit, Zusammensetzung, Entscheidungsfindung, Wahl, Regierungsart, Amt)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der Landesverwaltung, zuständig für hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 11-15 B-VG&lt;/a&gt;) und nicht hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;) Verwaltung&lt;/li&gt;&lt;li&gt;Besteht aus Landeshauptmann und weiteren Landesräten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank"&gt;Art. 101 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Entscheidet als Kollegialorgan, Landesräte können teilweise auch als Einzelorgane tätig werden (Ämter der Landesregierungen)&lt;/li&gt;&lt;li&gt;Parlamentarisches System: Landtag wählt Regierung &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 101 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Meist Mehrheitsregierung, außer in OÖ, NÖ und W → Proporzregierung=Konzentrationsregierung&lt;/li&gt;&lt;li&gt;Amt der Landesregierung: Hilfsapparat der Regierung &lt;strong&gt;&lt;em&gt;und &lt;/em&gt;&lt;/strong&gt;des Landeshauptmanns.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen: Grundrechte im B-VG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art. 7 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Recht auf den gesetzlichen Richter (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 83 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Recht der Richter auf Unabhängigkeit (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Recht der Gemeinden auf Selbstverwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Weisungsfreie Vollziehung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Unabhängige &lt;strong&gt;Richter &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;weisungsfreier Teil der &lt;strong&gt;Justizverwaltung &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 2 B-VG&lt;/a&gt;): Richtersenate und Kommissionen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gemeindeselbstverwaltung&lt;/strong&gt;: Gemeinderat und Bürgermeister (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Weisungsfrei, unterliegen nur Aufsicht der Bundes/Landesbehörden.&lt;/li&gt;&lt;li&gt;Einfacher Bundes/Landesgesetzgeber kann weitere Verwaltungsorgane bei Rechtfertigung weisungsfrei stellen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel20" rel="noopener noreferrer" target="_blank"&gt;Art. 20 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie regelt die (Finanz)Verfassung wie der Staat zu seinem Geld kommt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Konstruiert den Staat als Abgabestaat&lt;/li&gt;&lt;li&gt;Staat bringt das Geld zwangsweise durch hoheitliche Abgaben, Gebühren und Beiträge auf.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie wird das Budget bestimmt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In einem Budgetgesetz (Bundesfinanzgesetz) auf der Grundlage eines Bundesfinanzrahmengesetzes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie nennt man das Geld- und Vermögensrelevante Handeln der Verwaltung?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gebarung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wo liegt die Budgethoheit, was bedeutet sie?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beim Parlament, das Parlament entscheidet, wofür die Verwaltung welche Summen ausgeben darf. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sind Gemeinden unter dem Grundrechtsschutz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, die Gemeindeautonomie (Recht auf Selbstverwaltung, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer ist ausgenommen aus dem Grundrechtsschutz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Staaten (Bund und Land), die Grundrechte sind nicht dazu da den Staat vor sich selbst, Land vor dem Bund oder Bund vor dem Land zu schützen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Können Gebietskörperschaften Träger von Grundrechten sein?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, juristische Personen&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; (des öffentlichen und des Privatrechts)&lt;/span&gt; können Träger von Grundrechten sein, wenn dies &lt;strong&gt;wesensmäßig &lt;/strong&gt;möglich ist.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gilt der Gleichheitssatz auch für die nicht-hoheitliche Verwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, Diskriminierung ist verboten, und Sachlichkeit wird verlangt. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Fiskalgeltung der Grundrechte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Bindung des Staates an die Grundrechte im Rahmen der Privatwirtschaftsverwaltung.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Verwaltung kann sowohl hoheitlich als auch privatrechtlich Handeln. Gilt der Grundrechtsschutz auch gegen die nicht-hoheitlichen Handlungen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie nennt man Verwaltungsakte des BP?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Entschließungen&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist der Verwaltungsapparat des BP?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Präsidentschaftskanzl&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;ei&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist eine formalgesetzliche Delegation?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ein Gesetz bestimmt das Handeln der Vollziehung nicht oder nur sehr ungenau, dies ist verfassungswidrig (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 18. Abs 1. B-VG&lt;/a&gt;). Der Gesetzgeber delegiert daher die Pflicht das Recht zu bestimmen an die Vollziehung.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (Art. 139 B-VG)&lt;/li&gt;&lt;li&gt;Generelle (abstrakte oder konkrete) Anordnung einer Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Erst mit Kundmachung gültig&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Arten von Bescheiden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Leistungsbescheid&lt;/strong&gt;: ordnet Tun oder Unterlassen an, &lt;strong&gt;vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gestaltungsbescheid&lt;/strong&gt;: Gestaltet eine Rechtslage neu, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Feststellungsbescheid&lt;/strong&gt;: verbindliche Feststellung einer unklaren Rechtslage, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Formen des Verwaltungshandelns&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bescheid&lt;/li&gt;&lt;li&gt;Verordnung&lt;/li&gt;&lt;li&gt;Maßnahme&lt;/li&gt;&lt;li&gt;Schlicht-hoheitliches Handeln&lt;/li&gt;&lt;li&gt;(Verwaltungsrechtlicher Vertrag)&lt;/li&gt;&lt;li&gt;Privatrechtliches Handeln&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Approbationsbefugnis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Innerbehördliches Mandat&lt;/li&gt;&lt;li&gt;Organwalter kann Aufgaben an das Amt übertragen&lt;/li&gt;&lt;li&gt;Approbationsbefugte Beamte können damit "im Auftrag" der Behörde Bescheide oder Verordnungen erlassen, der Organwalter ist jedoch immer weisungsbefugt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einer Behörde zugeordneter bürokratischer Hilfsapparat, handelt nicht selbst hoheitlich. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Behörde&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsorgane mit Rechtssetzungsbefugnissen (handeln hoheitlich)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsaufgabe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Aufgabe der Verwaltung einer Gebietskörperschaft&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Aufgabe&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Öffentliche Aufgabe, die der Gesetzgeber dem Staat zuweist&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aufgabe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Organisation &lt;strong&gt;soll&lt;/strong&gt; in einer Sache handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Pflichtaufgabe: muss Handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliche Aufgabe: im Interesse der Allgemeinheit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zuständigkeit&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die &lt;strong&gt;Möglichkeit&lt;/strong&gt; einer Organisation in einer Sache zu handeln&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Organwalter (Definition, Zuordnung, Arten)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Den abstrakten Organen werden konkrete Menschen zugeordnet. &lt;/li&gt;&lt;li&gt;Gesetzessprache verwendet Organ und Organwalter oft synonym&lt;/li&gt;&lt;li&gt;Immer einer Gebietskörperschaft zugeordnet&lt;/li&gt;&lt;li&gt;Arten (Gesamtbegriff &lt;strong&gt;öffentliche Bedienstete&lt;/strong&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Beamte = ernannte berufsmäßige Organe&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertragsbedienstete = vertraglich bestellte Organe&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Organisation&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Abstrakte Konstrukte der Rechtsordnung denen bestimmte Aufgaben zukommen, bestehen meist aus vielen Organen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;z.B.: Gebietskörperschaft, Verwaltungsorganisation, Gerichtsorganisation&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsverwaltung: Was is das Bundesheer? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;militärische Formation des Bundes, zählt zur unmittelbaren Bundesverwaltung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsbehörden des Bundes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt; richten die Sicherheitsbehörden ein&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/spg/paragraf/2" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;2 Abs. 2 SPG&lt;/a&gt; definiert Aufgaben der Sicherheitsverwaltung&lt;/li&gt;&lt;li&gt;2/3 Ebenen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;BM für Inneres&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landespolizeidirektion&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li&gt;Mischform aus mittelbarer und unmittelbarer Bundesverwaltung, weil auf unterer Ebene teilweise Bezirksverwaltungsbehörden als Landesbehörden eingebunden sind&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organwalter (Definition, Zuordnung, Arten)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Den abstrakten Organen werden konkrete Menschen zugeordnet. &lt;/li&gt;&lt;li&gt;Gesetzessprache verwendet Organ und Organwalter oft synonym&lt;/li&gt;&lt;li&gt;Immer einer Gebietskörperschaft zugeordnet&lt;/li&gt;&lt;li&gt;Arten (Gesamtbegriff &lt;strong&gt;öffentliche Bedienstete&lt;/strong&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Beamte = ernannte berufsmäßige Organe&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertragsbedienstete = vertraglich bestellte Organe&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Präzisiert ein Gesetz (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 18 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kompetenzverteilung in der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Kompetenzverteilung in Art. 10 - 15 B-VG gilt &lt;strong&gt;nicht&lt;/strong&gt; für nicht-hoheitliche Verwaltung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist das hoheitliche Organisationsrecht einer Gebietskörperschaft?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bestimmt die innere Willensbildung des &lt;strong&gt;privatrechtlichen&lt;/strong&gt; Handelns&lt;/li&gt;&lt;li&gt;Zuständigkeit für Kaufverträge, Willensbildung, inhaltliche Gestaltung von Verträgen ⇾ bestimmt das hoheitliche Organisationsrecht (nicht die Privatrechtsordnung)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie funktioniert das Gesetzmäßigkeitsgebot in der nicht-hoheitlichen Verwaltung?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Geregelt durch das Verwaltungsprivatrecht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;differenziertes Legalitätsprinzip: &lt;/strong&gt;Auch privatrechtliche Handlungen unterliegen dem Gesetzmäßigkeitsgebot,  es ist aber flexibler und weniger streng, als für hoheitliches Handeln &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist der Inhalt der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Privatwirtschaftsverwaltung&lt;/li&gt;&lt;li&gt;Fiskalverwaltung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer kann nicht-hoheitlich handeln, wer nicht?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Nur die juristischen Personen: Bund, Länder und Gemeinden, also nur die Verwaltung. &lt;/li&gt;&lt;li&gt;Parlamente und Gerichte handeln  immer hoheitlich&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Gebietskörperschaften sind Träger von Privatrechten?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Bund und Länder sind juristische Personen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 2 B-VG&lt;/a&gt;: Gemeinden sind juristische Personen&lt;/li&gt;&lt;li&gt;Vermögensfähig sind also der Bund, die Länder und die Gemeinden, nicht der Gesamtstaat Österreich.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Unterschiede zwischen juristischen Personen des Privatrechts und des öffentlichen Rechts? Was ist identisch? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Unterschiede:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Privatrecht: Durch Vertrag errichtet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliches Recht: Durch Gesetz errichtet&lt;/li&gt;&lt;li&gt;Beide haben dieselbe (Privat)Rechtsfähigkeit, dieselben privaten Rechte und Pflichten&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist ein Organisationsrecht? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Regelt welche Organe eine juristische Person hat, und welche Organwalter für die jur. Person handeln.&lt;/li&gt;&lt;li&gt;Insbesondere wer intern entscheidet, und wer nach außen vertritt.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Jur. Person handelt immer nur durch vertretungsbefugte Organe.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die zwei Kernaussagen der Wesenstheorie?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Umfang der Rechte von jur. Personen im wesentlichen auf &lt;strong&gt;Vermögensrechte &lt;/strong&gt;beschränkt = &lt;strong&gt;Vermögensfähigkeit&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Jur. Personen sind rechtsfähig, benötigen aber Menschen um für sie zu handeln (&lt;strong&gt;Organisationsrecht&lt;/strong&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Können juristische Personen Rechtsträger sein? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Privatrechtsordnung erlaubt, dass juristische Personen von der Rechtsordnung als Rechtsträger behandelt wären, als wären sie Menschen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind juristische Personen? &lt;/p&gt;&lt;p&gt;Wie werden sie noch genannt?&lt;/p&gt;&lt;p&gt;Wie wird entschieden, welche juristischen Personen es gibt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;= virtuelle Menschen&lt;/li&gt;&lt;li&gt;Auch Rechtsperson oder Körperschaft genannt&lt;/li&gt;&lt;li&gt;Gesetzgebung entscheidet ob und welche juristischen Personen es gibt.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind natürliche Personen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;= Menschen&lt;/li&gt;&lt;li&gt;Träger von Rechten und Pflichten&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ABGB&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Allgemeines bürgerliches Gesetzbuch&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer ist der gesetzliche Vertreter für ein Kind?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Eltern (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/167" rel="noopener noreferrer" target="_blank"&gt;§ 167 ABGB&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ist jeder Mensch handlungsfähig?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/21" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;21 ABGB&lt;/a&gt;), wer nicht handlungsfähig ist, braucht einen Vertreter der für ihn handelt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Handlungsfähigkeit?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, durch eigenes Handeln Rechte zu erwerben und Pflichten zu begründen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Rechtsfähigkeit? Wer hat sie wie lange? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, Träger privater Rechte und Pflichten zu sein (z.B.: Eigentümer von Geld und Vermögen)&lt;/li&gt;&lt;li&gt;Jeder Mensch ist von Geburt bis zum Tod rechtsfähig.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einzelne Grundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Recht auf persönliche Freiheit&lt;/li&gt;&lt;li&gt;Hausrecht&lt;/li&gt;&lt;li&gt;Versammlungsfreiheit&lt;/li&gt;&lt;li&gt;Meinungsfreiheit&lt;/li&gt;&lt;li&gt;...&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist das &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Recht auf den gesetzlichen Richter?&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt; Justizgrundrecht, das festlegt, dass für Rechtsstreitigkeiten und Prozesse bereits im Voraus bestimmt sein muss, welches&amp;nbsp;&lt;/span&gt;Gericht&amp;nbsp;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;und welcher Richter zuständig ist (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank"&gt;Art.&amp;nbsp;83 Abs. 2&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 3&amp;nbsp;B-VG&lt;/a&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verfahrensgrundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wehren den Staat nicht ab, sondern verlangen Einhaltung der durch die Verfassung gewährleisteten Verfahrensrechte &lt;/li&gt;&lt;li&gt;Beispiele: Recht auf den gesetzlichen Richter, Recht auf faires Verfahren, keine Strafe ohne Gesetz.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Politische Grundrechte (= Teilhaberechte)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Durch die Verfassung gewährleistete Recht der Teilnahme der Menschen am Staat&lt;/li&gt;&lt;li&gt;Keine Abwehrrechte, sondern Teilhaberechte (status activus)&lt;/li&gt;&lt;li&gt;Aktive Teilhabe an der Staatswillensbildung und Staatsgewalt&lt;/li&gt;&lt;li&gt;Beispiele: Wahlrecht, Recht auf Volksbegehren, Petitionsrecht, Gründung und Betätigungsfreiheit polit. Parteien.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Soziale Grundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Österreich ist ein Sozialstaat, die Verfassung kennt aber &lt;strong&gt;keine&lt;/strong&gt; sozialen Grundrechte.&lt;/li&gt;&lt;li&gt;Begründung: könnten den Staat wirtschaftlich überfordern.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Freiheitsrechte mit staatlichen Schutzpflichten&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Nicht nur Abwehrrecht gegen Staat&lt;/li&gt;&lt;li&gt;Anspruch gegen den Staat, dass er den Freiraum auch vor Beschädigung durch andere Privatpersonen schützt&lt;/li&gt;&lt;li&gt;Beispiele: Recht auf Leben (Art. 2 EMRK), Verbot der Folter, ..&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Freiheitsrechte ohne Gesetzesvorbehalt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Absolut schützendes Freiheitsrecht&lt;/li&gt;&lt;li&gt;Kein Eingriff in den Schutzbereich durch einfache Gesetze zulässig&lt;/li&gt;&lt;li&gt;Beispiele: Verbot der Folter, Verbot der Todesstrafe, ... &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wann ist die Zustimmung der Bundesregierung für ein Landesgesetz notwendig? Wie wird die Zustimmung eingeholt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Bundesorgane sollen bei Vollziehung mitwirken (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel97" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Art. 97 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ein eigenes Statut (Stadtrecht) ist betroffen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 116 Abs. 3 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Änderung der Organisation der Behörden der allg. staatlichen Verwaltung in den Ländern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel15" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 15 Abs. 10 B-VG)&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Der LH muss vor Kundmachung dem Bundeskanzleramt bekannt das Gesetz geben. Regierung hat 8 Wochen für Ablehnung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Quoren für Landesverfassungsgesetze?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Präsenz 1/2, Konsens 2/3 (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel99" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 99 Abs. 2 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Zuständigkeit&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die &lt;strong&gt;Möglichkeit&lt;/strong&gt; einer Organisation in einer Sache zu handeln&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Arten der Leitung der Verwaltung?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Aufsicht: &lt;/strong&gt;ex post - nach der Handlung&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Rechtsaufsicht: gesetzmäßig&lt;/li&gt;&lt;li&gt;Zweckaufsicht: zweckmäßig&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Weisung: &lt;/strong&gt;ex ante - vor der Handlung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungshandeln: Bescheid&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;3 formale Merkmale (nicht vorhanden: Absolut nichtig)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine Verwaltungsbehörde handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss an einen individuellen Adressaten gerichtet sein&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine behördliche Anordnung enthalten&lt;/li&gt;&lt;li&gt;Gesetzgeber kann weitere Merkmale hinzufügen, Auswirkung des Fehlens legt Gesetzgeber fest (z.B.: relativ nichtig)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aufgabe&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Organisation &lt;strong&gt;soll&lt;/strong&gt; in einer Sache handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Pflichtaufgabe: muss Handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliche Aufgabe: im Interesse der Allgemeinheit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Staatliche Aufgabe&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Öffentliche Aufgabe, die der Gesetzgeber dem Staat zuweist&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsaufgabe&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Staatliche Aufgabe der Verwaltung einer Gebietskörperschaft&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Behörde&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsorgane mit Rechtssetzungsbefugnissen (handeln hoheitlich)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Amt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einer Behörde zugeordneter bürokratischer Hilfsapparat, handelt nicht selbst hoheitlich. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Approbationsbefugnis&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Innerbehördliches Mandat&lt;/li&gt;&lt;li&gt;Organwalter kann Aufgaben an das Amt übertragen&lt;/li&gt;&lt;li&gt;Approbationsbefugte Beamte können damit "im Auftrag" der Behörde Bescheide oder Verordnungen erlassen, der Organwalter ist jedoch immer weisungsbefugt.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Formen des Verwaltungshandelns&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bescheid&lt;/li&gt;&lt;li&gt;Verordnung&lt;/li&gt;&lt;li&gt;Maßnahme&lt;/li&gt;&lt;li&gt;Schlicht-hoheitliches Handeln&lt;/li&gt;&lt;li&gt;(Verwaltungsrechtlicher Vertrag)&lt;/li&gt;&lt;li&gt;Privatrechtliches Handeln&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eingriffsvorbehalt vs. Ausgestaltungsvorbehalt bei Freiheitsrechten&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Eingriffsvorbehalt &lt;/strong&gt;erlaubt in den Schutzbereich des Freiheitsrechts einzugreifen, und diesen durch Gesetz einzuschränken&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Ausgestaltungsvorbehalt &lt;/strong&gt;erlaubt  nur ein Freiheitsrecht näher auszugestalten, nicht in den Schutzbereich einzugreifen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was besagt die Wesensgehaltssperre?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ein Freiheitsrecht darf durch einen gesetzlichen Eingriff nicht hinfällig werden, ein Minimum an Freiheit muss bestehen bleiben.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Wie muss der Gesetzgeber handeln, wenn der Verfassungstext keine Vorgaben für einen gesetzlichen Eingriff auf ein Freiheitsrecht hat? &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Es wird die Auslegung herangezogen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesetzgeber muss nachweislich ein konkretes öffentliches Interesse verfolgen&lt;/li&gt;&lt;li&gt;Der Eingriff muss verhältnismäßig sein (Verhältnismäßigkeitsgrundsatz), die Belastung der Freiheit darf nicht höher sein, als zur Erreichung des öffentlichen Interesses unbedingt erforderlich&lt;/li&gt;&lt;li&gt;Eingriff muss sachlich sein&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Freiheitsrechte mit Gesetzesvorbehalt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Relativ schützendes&lt;/strong&gt; Freiheitsrecht&lt;/li&gt;&lt;li&gt;Eingriff in den Schutzbereich durch einfache Gesetze möglich - unter Beachtung der &lt;strong&gt;materiellen Eingriffsschranken&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Steht unter materiellem Gesetzesvorbehalt, weil der Gesetzgeber bei seinen Regelungen inhaltlich an Vorhaben der Verfassung gebunden ist.&lt;/li&gt;&lt;li&gt;Der Verfassungstext sagt, ob ein Grundrecht unter materiellem Gesetzesvorbehalt steht&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beispiele für Freiheitsrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Kunstfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Freiheitsrechte, warum heißen sie auch Abwehrrechte?&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Grundrechte, durch welche die Verfassung den Menschen Freiräume gewährleistet.&lt;/li&gt;&lt;li&gt;Erlauben dem einzelnen verfassungswidrige Eingriffe des Staats in den geschützten Freiraum abzuwehren (über den dafür vorgesehenen besonderen Prozessweg) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Schützt der Gleichheitssatz vor eingriffen in den Freiraum der Menschen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein, er ist kein Freiheitsrecht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Willkürverbot, was ist Willkür?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gilt für die Vollziehung&lt;/li&gt;&lt;li&gt;Verbot willkürlicher Entscheidungen&lt;/li&gt;&lt;li&gt; Willkür liegt vor, wenn eine Behörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;eine Person absichtlich benachteiligt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;ohne Rechtsgrundlage entscheidet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;die Rechtslage verkennt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gravierende Verfahrensfehler begeht&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wen bindet der Gleichheitssatz, wen nicht?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bindet den:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li&gt;einfachen Landesgesetzgeber&lt;/li&gt;&lt;li&gt;Landesverfassungsgesetzgeber&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Bindet nicht:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bundesverfassungsgesetzgeber, weil der Gleichheitssatz bloß ein Bundesverfassungsgesetz ist. &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wann verletzt ein einfaches Gesetz den Gleichheitssatz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wenn es:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Unsachliche Differenzierungen vornimmt&lt;/strong&gt; (Gleiches ist gleich zu behandeln, soweit kein Grund für eine Ungleichbehandlung vorliegt)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gebotene Differenzierungen unterlässt&lt;/strong&gt; (Ungleiches darf nicht ohne Grund gleich behandelt werden)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Sachlich nicht gerechtfertigte Regelungen&lt;/strong&gt; trifft.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gleichheitsformel&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitskonform&lt;/strong&gt;, wenn sie sachlich gerechtfertigt ist. Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitswidrig&lt;/strong&gt;, wenn sie &lt;strong&gt;nicht &lt;/strong&gt;sachlich gerechtfertigt ist.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;(z.B.: Matura als Voraussetzung für Studium ist konform, da allgemeine Vorbildung notwendig ist, um sinnvoll zu studieren)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kann der Gesetzgeber ungleiches gleich behandeln?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein, bei unterschieden im Tatsächlichen (z.B.: unterschiedliches Einkommen) muss der Gesetzgeber auch unterschiedliche Regelungen erlassen (Gebot &lt;strong&gt;sachlicher Differenzierung&lt;/strong&gt;) &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was bedeutet &lt;strong&gt;gleich&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gleiche Betroffenheit der Rechtsunterworfenen unter Berücksichtigung aller rechtlichen und tatsächlichen Wirkungen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gleichheitsrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz: &lt;a href="https://www.jusline.at/gesetz/stgg/paragraf/artikel2" rel="noopener noreferrer" target="_blank"&gt;Art 2. StGG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art 7 Abs. 1 B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Recht auf Gleichbehandlung von Fremden untereinander&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BVG über die Beseitigung aller Formen rassischer Diskriminierung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Kategorien/Arten von Grundrechten gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gleichheitsrechte (Gleichheitssatz)&lt;/li&gt;&lt;li&gt;Freiheitsrechte (= Abwehrrechte)&lt;/li&gt;&lt;li&gt;Soziale Grundrechte&lt;/li&gt;&lt;li&gt;Politische Grundrechte (= Teilhaberechte)&lt;/li&gt;&lt;li&gt;Verfahrensgrundrechte&lt;/li&gt;&lt;li&gt;Sonstige Grundrechte&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind verfassungsimmanente&amp;nbsp;Schranken? Was bedeuten Sie für Grundrechte? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einschränkung des Schutzbereichs des Grundrechts durch andere Grundrechte und objektive Verfassungsbestimmungen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Der Schutzbereich des Grundrechts geht daher nicht zwangsläufig so weit, wie die Formulierung des Textes erwarten lässt.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie wird mit Widersprüchen in Grundrechtsquellen umgegangen? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Dasselbe Grundrecht kann an verschiedenen Stellen der Verfassungsordnung verankert sein. Widersprüche sind nach den Regeln der &lt;strong style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Derogation &lt;/strong&gt;aufzulösen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie unterteilt die Verfassung unter objektivem Recht gewährleistete Rechte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nach Adressatenkreis in Staatsbürgerrechte und Menschenrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Drittwirkung der Grundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Durch Trennung von Staat und Gesellschaft gibt es &lt;strong&gt;keine Drittwirkung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Grundrechte gelten nur gegen den Staat, nicht Mensch gegen Mensch&lt;/li&gt;&lt;li&gt;Ausnahmen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gesetzlich angeordnete Drittwirkungen (z.B.: Datenschutzgesetz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Grundrechte mit staatlicher Schutzpflicht (Recht auf Leben)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Mittelbare Drittwirkung im Zivilrecht (Auslegung, Sittenklauseln)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wo werden über Verstöße gegen Grundrechte entschieden?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;OGH&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wo werden in der Regel über Verstöße gegen subjektives Recht entschieden?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;im VfGH&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie wird der Schutzbereich eines Grundrechts festgelegt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Verfassung die ein Grundrecht normiert, legt den Schutzbereich mit dem Wortlaut des Verfassungstextes fest. Diese Begriffe sind allerdings auslegungsbedürftig (z.&amp;nbsp;B.: Eigentumsfreiheit hat den Schutzbereich "Eigentum")&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Einzelne Grundrechte in Staatsverträgen&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Rechte der Minderheiten&lt;/li&gt;&lt;li&gt;Religionsfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Grundrechte in einfachen Gesetzen&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Recht auf Zivildienst&lt;/li&gt;&lt;li&gt;Recht auf Datenschutz&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Quellen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Grundrechtskataloge&lt;/li&gt;&lt;li&gt;Grundrechtsgesetze&lt;/li&gt;&lt;li&gt;Grundrechte im B-VG&lt;/li&gt;&lt;li&gt;Grundrechte in einfachen Gesetzen&lt;/li&gt;&lt;li&gt;Einzelne Grundrechte in Staatsverträgen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtsgesetze&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Hausrechts Gesetz &lt;/li&gt;&lt;li&gt;Beschluss der provisorischen Nationalversammlung über die Aufhebung der Zensur 1918&lt;/li&gt;&lt;li&gt;PersFrG (Bundesverfassungsgesetz zum Schutz der persönlichen Freiheit)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtskataloge&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;StGG 1867&lt;/li&gt;&lt;li&gt;EMRK + ZP&lt;/li&gt;&lt;li&gt;BVG Kinderrechte&lt;/li&gt;&lt;li&gt;EU Grundrechtecharta&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gegen wen schützen Grundrechte, gegen wen nicht?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Grundrechte schützen gegen Staat und Staatsgewalt&lt;/li&gt;&lt;li&gt;Schützen auch gegen den Gesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen Landesverfassungsgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Landesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen die staatl. Vollziehung (Verwaltung und Gerichtsbarkeit)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Aber: &lt;/strong&gt;Bundesverfassungsgesetze können Grundrechte einschränken. (z.&amp;nbsp;B.: Wehrpflicht für Männer widerspricht dem Gleichheitssatz, ist aber durch B-VG diskriminierend festgelegt) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Objektives Recht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Mensch hat keinen durchsetzbaren Anspruch auf Einhaltung der Gesetze&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Subjektives Recht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Grundrechte sind gegen den Staat durchsetzbare Individualrechte&lt;/li&gt;&lt;li&gt;Mensch hat Anspruch auf Einhaltung der Gesetze (Verwaltung, Gerichtsbarkeit, Gesetzgebung verfolgen Verletzung der Grundrechte)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Grundrechte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Alle den Menschen durch formelle Verfassungsgesetze gewährleistete Recht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Geschichte der Grund- und Freiheitsrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;1789&lt;/strong&gt;: Deklaration der Menschen- und Bürgerrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1867&lt;/strong&gt;: Staatsgrundgesetz (Dezemberverfassung) &lt;/p&gt;&lt;p&gt;&lt;strong&gt;1948&lt;/strong&gt;: Allgemeine Erklärung der Menschenrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1950&lt;/strong&gt;: Europäische Menschenrechtskonvention&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Arten von Bescheiden&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Leistungsbescheid&lt;/strong&gt;: ordnet Tun oder Unterlassen an, &lt;strong&gt;vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gestaltungsbescheid&lt;/strong&gt;: Gestaltet eine Rechtslage neu, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Feststellungsbescheid&lt;/strong&gt;: verbindliche Feststellung einer unklaren Rechtslage, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (Art. 139 B-VG)&lt;/li&gt;&lt;li&gt;Generelle (abstrakte oder konkrete) Anordnung einer Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Erst mit Kundmachung gültig&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Gemeindewachkörper &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118 Abs. 8 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118a B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Gemeinde&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Aufgaben im kommunalen Bereich&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Justizwache &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/stvg/paragraf/13a" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;13a Strafvollzugsgesetz&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;﻿Bund&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Bewachung der Strafgefangenen&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;Bundespolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 10 Abs. 1 Z. 14 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, &lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 78d B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Bund&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Innere Sicherheit&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Unmittelbare Bundesverwaltung, BM für Inneres an der Spitze&lt;/li&gt;&lt;li&gt;im Bereich jeder Landespolizeidirektion sind Bezirkskommanden bzw. Stadtpolizeikommanden eingerichtet&lt;/li&gt;&lt;li&gt;Wachkörper Bundespolizei ist von Sicherheitsbehörden des Bundes zu unterscheiden!&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wachkörper&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bewaffnete Formationen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank"&gt;Art. 78d Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundespolizei: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Justizwache: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gemeindewachkörper: &lt;strong&gt;Gemeinde&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Organisation und Führung der Bundespolizei und die Org. sonstiger Wachkörper (Ausnahme: Gemeindewachkörper) ist Bundessache&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: &lt;/span&gt;Bezirksverwaltungsbehörde&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bezirkshauptmannschaft/Bürgermeister besorgt prinzipiell Sicherheitsverwaltung auf Bundesebene&lt;/li&gt;&lt;li&gt;Als Verwaltungsbehörde aber nicht auf Sicherheitsaufgaben spezialisiert.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: Landespolizeidirektion&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78b" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgba(0, 0, 0, 0);"&gt;Art. 78b Abs. 1 B-VG&lt;/a&gt;) für jedes Bundesland:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Landespolizeidirektor weisungsgebunden an BM&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM muss jede wichtige Weisung an den LH mitteilen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM kann Landespolizeidirektor nur mit Einvernehmen des LH bestellen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78c" rel="noopener noreferrer" target="_blank"&gt;Art. 78c B-VG&lt;/a&gt; ermächtigt einfachen Bundesgesetzgeber die Landespolizeidirektion zur Sicherheitsbehörde 1. Instanz zu bestimmen, &lt;a href="https://www.jusline.at/gesetz/spg/paragraf/8" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;8 SPG&lt;/a&gt; legt dafür einige Gebiete fest.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsbehörden: BM für Inneres&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 78a Abs. 1 B-VG&lt;/a&gt;): Generaldirektion für öffentliche Sicherheit sorgt für Sicherheitsverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;SPG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitspolizeigesetz&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abgabebehörden&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Auftragsverwaltung des Bundes: für nicht-hoheitliche Verwaltung ist theoretisch nur der BM zuständig (z.&amp;nbsp;B.: Bundesvermögen, Geschäfte des Bundes)&lt;/li&gt;&lt;li&gt;BM kann einzelne Geschäfte durch hoheitlichen Auftrag dem LH übertragen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel104" rel="noopener noreferrer" target="_blank"&gt;Art. 104 Abs. 2&lt;/a&gt;) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Unmittelbare Bundesverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 102 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ausnahme&lt;/li&gt;&lt;li&gt;Bund erledigt Aufgaben durch eigene Bundesbehörden&lt;/li&gt;&lt;li&gt;Bund darf dennoch mittelbare Bundesverwaltung nutzen &lt;/li&gt;&lt;li&gt;Mit Zustimmung der Länder, darf Bund auch Materien regeln, die nicht in Art. 102 Abs. 2 stehen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 4 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Mittelbare Bundesverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Das oberste Organ ist ein BM (oder der BK), als funktionelles und organisatorisches Organ des Bundes&lt;/li&gt;&lt;li&gt;Das mittlere Organ ist der Landeshauptmann (als Einzelorgan). &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organisatorisch ein Landesorgan, funktionell aber im Auftrag des Bundes&lt;/li&gt;&lt;li class="ql-indent-1"&gt;An Weisungen des BM gebunden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Amt der Landesregierung&lt;/li&gt;&lt;li&gt;Das untere Organ ist die Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organwalter (Bezirkshauptmann/Bürgermeister) an Weisung des LH gebunden (In Bundesverwaltung, sonst an Landesregierung)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Bezirkshauptmannschaft/Magistrat&lt;/li&gt;&lt;li&gt;Unterste Organe: Gemeindeorgane&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Staatssekretäre &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Werden zwar in Art. 19 B-VG als oberste Organe der Verwaltung genannt, sind jedoch BM unterstellt und weisungsgebunden (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 78 Abs. 3 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Aufgabe ist Unterstützung und Vertretung des BM, sie sind nicht Teil der Bundesregierung&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ämter der Bundesregierung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bundeskanzleramt für BK&lt;/li&gt;&lt;li&gt;Bundesministerien für die BM&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bundesregierung: &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;BK, VK und BMs als Einzelorgane&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Oberste Organe der Verwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank"&gt;Art. 19 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;BM für Finanzen und für Inneres sind in der Verfassung, andere werden durch Bundesministeriengesetz 1986 bestimmt&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundesregierung &lt;/span&gt;als Kollegialorgan&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;= Ministerrat&lt;/li&gt;&lt;li&gt;Beschlüsse müssen einstimmig sein&lt;/li&gt;&lt;li&gt;Aufgabe sind Regierungsakte wie&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge an BP (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel67" rel="noopener noreferrer" target="_blank"&gt;Art. 67 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gesetzesvorlagen an das Parlament (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel41" rel="noopener noreferrer" target="_blank"&gt;Art. 41 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge für Ernennung von Verfassungsrichtern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel147" rel="noopener noreferrer" target="_blank"&gt;Art. 147 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Zusammensetzung der Bundesregierung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Besteht aus BK, Vizekanzler und Bundesministern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 19 Abs. 1 B-VG&lt;/a&gt;,&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel69" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt; Art. 69 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Landesverwaltung unterhalb der Regierung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Landesverwaltung in Verwaltungssprengel territorial gegliedert&lt;/li&gt;&lt;li&gt;Land in Bezirke gegliedert, 2 Arten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Bezirk&lt;/strong&gt;, der mehrere Gemeinden erfasst&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Statutarstadt&lt;/strong&gt;, die alleine ein Bezirk ist&lt;/li&gt;&lt;li&gt;Bezirksverwaltungsbehörden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirkshauptmann (monokratisch), Amt: Bezirkshauptmannschaft&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bürgermeister, Amt: Magistrat&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsbehörden des Bundes (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ortspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Örtliche Verwaltungspolizei und örtliche Sicherheitspolizei gemeinsam&lt;/li&gt;&lt;li&gt;bei gesetzlicher Lücke zur Beseitigung konkreter Gefahren und Missstände, wenn diese das "örtliche Gemeinschaftsleben" stören &lt;/li&gt;&lt;li&gt;Gemeinde darf gesetzesergänzende Verordnungen erlassen (ortspolizeiliche Verordnungen &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank"&gt;Art. 118 Abs. 6 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Örtliche Sicherheitspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aus dem Kompetenztatbestand ausgenommen → Aufteilung in überörtliche und örtliche Sicherheitspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10 Abs. 1 Z. 7 B-VG&lt;/a&gt; Aufrechterhaltung der öffentlichen Ruhe, Ordnung und Sicherheit (soweit keiner konkreten Sachmaterie zugewiesen)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Örtliche Verwaltungspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Alle in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10-15 B-VG&lt;/a&gt; enthaltenen Angelegenheiten der Verwaltungspolizei, die im &lt;em&gt;örtlichen Interesse&lt;/em&gt; gelegen sind, fallen in den Wirkungsbereich der Gemeinden&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Staatliches Handeln zur Abwehr und Beseitigung konkreter Gefahren und Missstände&lt;/li&gt;&lt;li&gt;Annexmaterie zu den Kompetenzen in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank"&gt;Art. 10-15 B-VG&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Allgemeine staatliche Verwaltung (Aufstellung in Bund und Ländern)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Allzuständigkeit der Staatsgewalt, erledigt von allgemeinen staatlichen Verwaltungsorganen&lt;/li&gt;&lt;li&gt;der Länder: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz) &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landesregierungen (2. Instanz)&lt;/li&gt;&lt;li&gt;der Bund:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landeshauptmann (2. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundesminister (3. Instanz) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organ&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abstrakt, dem Organ sind &lt;strong&gt;Organzuständigkeiten &lt;/strong&gt;zugeordnet, diese sind teil der Zuständigkeit der &lt;strong&gt;Organisation&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Privatrechtliches Handeln &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gebietskörperschaften können als juristische Personen auch privatrechtlich handeln -&amp;gt; Fiskalverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Schlicht-hoheitliches Handeln&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Hoheitliches Handeln, dass nicht auf dem Erlass von Rechtsnormen beruht.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polizeistreife&lt;/li&gt;&lt;li&gt;Verkehrskontrolle&lt;/li&gt;&lt;li&gt;Urkundenausstellung&lt;/li&gt;&lt;li&gt;Auskunft durch Behörde&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Maßnahme&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ausübung unmittelbarer verwaltungsbehördlicher Befehls- und Zwangsgewalt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;individueller Akt direkt auf gesetzlicher Grundlage z.B.: Festnahme&lt;/li&gt;&lt;li&gt;Wird wie Rechtsnorm mit Zwang durchgesetzt.&lt;/li&gt;&lt;li&gt;Anfechtung ungerechter Behandlung nicht möglich (anders als bei individueller Rechtsnorm = Bescheid) → Rechtsschutzlücke → Maßnahmebeschwerde vor Verwaltungsgericht (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 Z. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsverordnung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach innen, regelt die interne Verwaltungsorganisation&lt;/li&gt;&lt;li&gt;muss nicht kundgemacht werden (Abgrenzung zur Weisung schweirig)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;3 Rechtsordnungen&lt;/p&gt;</t>
@@ -1900,7 +2002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B267"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -3906,6 +4008,142 @@
         <v>499</v>
       </c>
     </row>
+    <row r="251" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/flashcards/Memcode - KS Oeffentliches Recht I (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Oeffentliches Recht I (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="784">
   <si>
     <t>Question</t>
   </si>
@@ -19,64 +19,1588 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Justizwache &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/stvg/paragraf/13a" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;13a Strafvollzugsgesetz&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;﻿Bund&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Bewachung der Strafgefangenen&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Devolutionsantrag?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gegen Säumnis bei nicht rechtzeitig erlassenen Bescheiden (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/73" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§&amp;nbsp;73 Abs. 2 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/73" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§&amp;nbsp;73 Abs. 1 AVG&lt;/a&gt; verpflichtet den Bescheid innerhalb von sechs Monaten zu erlassen (&lt;strong&gt;Entscheidungspflicht&lt;/strong&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Anonymverfügung?&lt;/p&gt;&lt;p&gt;Was sind die Voraussetzungen? &lt;/p&gt;&lt;p&gt;Wann tritt sie außer Kraft?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/vstg/paragraf/49a" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;49a VStG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ermöglicht gegen Personen, die nicht unbedingt Straftäter sind, aber in Nahbeziehung zur Tat stehen, Geldstrafen bis 365&amp;nbsp;€ zu verhängen.&lt;/li&gt;&lt;li&gt;Voraussetzungen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dienstliche Wahrnehmung durch ein Organ der öffentlichen Aufsicht&lt;/li&gt;&lt;li class="ql-indent-1"&gt;oder automatische Überwachung (Radarfoto)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Täter muss unbekannt sein&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Tat darf keine Bedachtnahme auf die Person des Täters erfordern.&lt;/li&gt;&lt;li&gt;Tritt außer kraft, wenn der Adressat die Bezahlung verweigert. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Organstrafverfügung?&lt;/p&gt;&lt;p&gt;Wann tritt sie außer Kraft? &lt;/p&gt;&lt;p&gt;Gilt sie als Bescheid? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/vstg/paragraf/50" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;50 VStG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Auch Organmandat genannt&lt;/li&gt;&lt;li&gt;Besonders geschulte Organe können Geldstrafen bis 90&amp;nbsp;€ für Verwaltungsübertretungen einheben.&lt;/li&gt;&lt;li&gt;Tritt außer Kraft, wenn Adressat Bezahlung verweigert.&lt;/li&gt;&lt;li&gt;Gilt nicht als Bescheid, weil von Organ erlassen, nicht von Behörde&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Strafverfügung?&lt;/p&gt;&lt;p&gt;Was sind die Voraussetzungen für den Entfall des Ermittlungsverfahrens?&lt;/p&gt;&lt;p&gt;Wann tritt sie außer Kraft?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Mandatsbescheid der Verwaltungsstrafbehörde &lt;a href="https://www.jusline.at/gesetz/vstg/paragraf/47" rel="noopener noreferrer" target="_blank"&gt;(§ 47ff VStG&lt;/a&gt;), auch Strafmandat genannt.&lt;/li&gt;&lt;li&gt;Voraussetzungen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Geldstrafe bis zu 600&amp;nbsp;€&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bestimmte staatl. Organe haben die Verwaltungsstraftat angezeigt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Verwaltungsübertretung wurde automatisch überwacht&lt;/li&gt;&lt;li&gt;Einspruch binnen 2 Wochen möglich → tritt sofort außer Kraft.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;VwGVG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsgerichtsverfahrensgesetz&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Verschlechterungsverbot? Wofür gilt es, wofür nicht? Was sind die rechtlichen Grundlagen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;In Folge eines Rechtsmittels darf keine höhere Strafe verhängt werden, als im angefochtenen Bescheid&lt;/li&gt;&lt;li&gt;Gilt für Verwaltungsstrafen (&lt;a href="https://www.jusline.at/gesetz/vstg/paragraf/49" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;49 Abs. 2 VStG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/vwgvg/paragraf/42" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;42 VwGVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Gilt nicht für Organstrafverfügung und die Anonymverfügung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche abgekürzten Verfahren erlaubt das VStG (wie der Mandatsbescheid im AVG)?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Strafverfügung&lt;/li&gt;&lt;li&gt;Organstrafverfügung&lt;/li&gt;&lt;li&gt;Anonymverfügung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man betroffene Menschen im rechtsstaatlichen Verfahren? Was ist die rechtliche Grundlage?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Partei (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/8" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;8 AVG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungshandeln: Bescheid&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;3 &lt;strong&gt;konstitutive &lt;/strong&gt;Merkmale (nicht vorhanden: Absolut nichtig)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine Verwaltungsbehörde handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss an einen individuellen Adressaten gerichtet sein&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine behördliche Anordnung enthalten&lt;/li&gt;&lt;li&gt;Gesetzgeber kann weitere Merkmale hinzufügen, Auswirkung des Fehlens legt Gesetzgeber fest (z.B.: relativ nichtig)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsgrundlage für die Zuständigkeit im Verwaltungsstrafverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/vstg/paragraf/26" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;26 Abs. 1 VStG&lt;/a&gt;und&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; &lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/vstg/paragraf/27" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§&amp;nbsp;27 Abs. 1 VStG&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die rechtliche Grundlage für den Einsatz des AVG im Verwaltungsstrafrecht? Wie heißt das Ergebnis des Verfahrens?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;AVG gilt auch im Verwaltungsstrafverfahren (&lt;a href="https://www.jusline.at/gesetz/vstg/paragraf/24" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;24 VStG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Ergebnis: Strafbescheid der &lt;strong&gt;Straferkenntnis &lt;/strong&gt;genannt wird.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aus welchen 3 Teilen besteht das Verwaltungsstrafrecht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verwaltungsübertretungen geregelt in den Materiengesetzen (Annexmaterie)&lt;/li&gt;&lt;li&gt;Allgemeines Verwaltungsstrafrecht geregelt im VStG&lt;/li&gt;&lt;li&gt;Verwaltungsstrafverfahren geregelt im VStG (Bedarfskompetenzen des Bundes)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer entscheidet wer eine Straftat ahndet? Welche Limitierungen gibt es für Verwaltungsbehörden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der einfache Gesetzgeber entscheidet ob ordentliches Gericht oder Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Verwaltungsbehörden dürfen Freiheitsstrafen nur bis zu 6 Wochen pro Tat verhängen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer regelt das Verwaltungsstrafrecht? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Regelt die Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Behörde entscheidet sowohl über Einleitung des Verwaltungsstrafverfahrens als auch im Verfahren selbst.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer regelt das Justizstrafrecht? Was ist die Rechtsgrundlage?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Regelt das ordentliche Gericht&lt;/li&gt;&lt;li&gt;Anklageprozess nach &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel90" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 90 Abs. 2 B-VG&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Außerordentliche Rechtsmittel im AVG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nur bei Vorliegen besonderer Umstände&lt;/li&gt;&lt;li&gt;Wiedereinsetzung in den vorigen Stand &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/71" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§&amp;nbsp;71 AVG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wiederaufnahme des Verfahrens (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/69" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§&amp;nbsp;69 AVG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;AVG: Berufung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/63" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;63 AVG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Gegen Bescheide im eigenen Wirkungsbereich der Gemeinde in denen ein zweistufiger administrativer Instanzenzug besteht (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank"&gt;Art. 118 Abs. 4 zweiter Satz  BVG&lt;/a&gt;&lt;span style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Binnen 2 Wochen&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Hat aufschiebende Wirkung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Verwaltungsverfahren ist erst mit Zustellung des Bescheids der letzten administrativen Instanz (Gemeinderat, Stadtsenat) bestandskräftig&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;AVG: Vorstellung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gegen einen Mandatsbescheid binnen zwei Wochen ab Zustellung (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/57" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;57 Abs. 2 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Richtet sich an die Verwaltungsbehörde, die den Bescheid erlassen hat.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind ordentliche Rechtsmittel nach AVG? Welche 3 gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rechtsmittel die im Verwaltungsverfahren &lt;strong&gt;vor &lt;/strong&gt;der Bescheidbeschwerde ergriffen werden müssen.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vorstellung&lt;/li&gt;&lt;li&gt;Berufung&lt;/li&gt;&lt;li&gt;Vorlageantrag&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Bescheidbeschwerde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Rechtsmittel um einen Bescheid beim Verwaltungsgericht anzufechten&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Rechtsmittel nach dem AVG?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann der Adressat zur Überprüfung eines Bescheids ergreifen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;VStG 1991: Name, Zweck&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verwaltungsstrafgesetz&lt;/li&gt;&lt;li&gt;Regelt mit Bescheid Verwaltungsübertretungen mit Geld und Freiheitsstrafen&lt;/li&gt;&lt;li&gt;Enthält die Bestimmungen des AVG&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Fiskalgeltung der Grundrechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Bindung des Staates an die Grundrechte im Rahmen der Privatwirtschaftsverwaltung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gilt der Gleichheitssatz auch für die nicht-hoheitliche Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, Diskriminierung ist verboten, und Sachlichkeit wird verlangt. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ist ausgenommen aus dem Grundrechtsschutz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Staaten (Bund und Land), die Grundrechte sind nicht dazu da den Staat vor sich selbst, Land vor dem Bund oder Bund vor dem Land zu schützen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man das Geld- und Vermögensrelevante Handeln der Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gebarung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wo liegt die Budgethoheit, was bedeutet sie?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beim Parlament, das Parlament entscheidet, wofür die Verwaltung welche Summen ausgeben darf. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können Gebietskörperschaften Träger von Grundrechten sein?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, juristische Personen&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; (des öffentlichen und des Privatrechts)&lt;/span&gt; können Träger von Grundrechten sein, wenn dies &lt;strong&gt;wesensmäßig &lt;/strong&gt;möglich ist.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sind Gemeinden unter dem Grundrechtsschutz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, die Gemeindeautonomie (Recht auf Selbstverwaltung, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Weisungsfreie Vollziehung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Unabhängige &lt;strong&gt;Richter &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;weisungsfreier Teil der &lt;strong&gt;Justizverwaltung &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 2 B-VG&lt;/a&gt;): Richtersenate und Kommissionen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gemeindeselbstverwaltung&lt;/strong&gt;: Gemeinderat und Bürgermeister (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Weisungsfrei, unterliegen nur Aufsicht der Bundes/Landesbehörden.&lt;/li&gt;&lt;li&gt;Einfacher Bundes/Landesgesetzgeber kann weitere Verwaltungsorgane bei Rechtfertigung weisungsfrei stellen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel20" rel="noopener noreferrer" target="_blank"&gt;Art. 20 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen: Grundrechte im B-VG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art. 7 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Recht auf den gesetzlichen Richter (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 83 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Recht der Richter auf Unabhängigkeit (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Recht der Gemeinden auf Selbstverwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Landesverwaltung: Landesregierung (Zuständigkeit, Zusammensetzung, Entscheidungsfindung, Wahl, Regierungsart, Amt)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der Landesverwaltung, zuständig für hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 11-15 B-VG&lt;/a&gt;) und nicht hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;) Verwaltung&lt;/li&gt;&lt;li&gt;Besteht aus Landeshauptmann und weiteren Landesräten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank"&gt;Art. 101 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Entscheidet als Kollegialorgan, Landesräte können teilweise auch als Einzelorgane tätig werden (Ämter der Landesregierungen)&lt;/li&gt;&lt;li&gt;Parlamentarisches System: Landtag wählt Regierung &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 101 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Meist Mehrheitsregierung, außer in OÖ, NÖ und W → Proporzregierung=Konzentrationsregierung&lt;/li&gt;&lt;li&gt;Amt der Landesregierung: Hilfsapparat der Regierung &lt;strong&gt;&lt;em&gt;und &lt;/em&gt;&lt;/strong&gt;des Landeshauptmanns.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer hat die Rechtsaufsicht über Gemeinden bei welchen Angelegenheiten?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Art. 10 B-VG: die Behörden der allgemeinen staatlichen Verwaltung des Bundes.&lt;/p&gt;&lt;p&gt;Art. 11, 12, 15 B-VG: d&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;ie Behörden der allgemeinen staatlichen Verwaltung des Landes.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der übertragene Wirkungsbereich von Gemeinden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Landes- und Bundesgesetzgebung können Zuständigkeiten an die Gemeinden übertragen, dies werden vom Bürgermeister besorgt.&lt;/li&gt;&lt;li&gt;Für diese ist die Gemeinde an Landes- oder Bundesverwaltung weisungsgebunden.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Ortsgemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Für örtliche Angelegenheiten zuständig&lt;/li&gt;&lt;li&gt;Selbstverwaltungskörper&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet Einheitsgemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Alle Gemeinden, außer Statutarstädte, haben einen im Umfang einheitlichen Wirkungsbereich und ein einheitliches Organisationsrecht. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Besonderheiten der Bezirksverwaltung durch eine Statutarstadt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 116 Abs. 3 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ist keine Selbstverwaltung&lt;/li&gt;&lt;li&gt;Gebunden an Weisungen der Verwaltungsorgane von Bund und Land&lt;/li&gt;&lt;li&gt;Ist ein übertragener Wirkungsbereich: Wird von Bürgermeister besorgt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche 3 Verwaltungsrollen hat die Stadt Wien?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wien ist Gemeinde, Statutarstadt und Bundesland&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche zusätzliche Funktion hat der Bürgermeister von Wien? Was bedeutet das für die Wahl?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Er ist auch Landeshauptmann&lt;/li&gt;&lt;li&gt;Eine Direktwahl durch das Volk ist nicht möglich&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Organe einer Einheitsgemeinde? Was sind die Ämter dafür?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel117" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 117 Abs. 1 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gemeinderat&lt;/li&gt;&lt;li&gt;Gemeindevorstand (Stadtrat)&lt;/li&gt;&lt;li&gt;Bürgermeister&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Für alle 3: Das Gemeindeamt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was sind die Organe einer Statutarstadt? Was sind die Ämter dafür?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel117" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 117 Abs. 1 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gemeinderat&lt;/li&gt;&lt;li&gt;Stadtsenat&lt;/li&gt;&lt;li&gt;Bürgermeister&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Amt für alle 3: Magistrat&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine formalgesetzliche Delegation?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Gesetz bestimmt das Handeln der Vollziehung nicht oder nur sehr ungenau, dies ist verfassungswidrig (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 18. Abs 1. B-VG&lt;/a&gt;). Der Gesetzgeber delegiert daher die Pflicht das Recht zu bestimmen an die Vollziehung.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Womit endet das Ermittlungsverfahren der Verwaltungsbehörde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beurteilung des festgestellten Sachverhalts und Erlassen des &lt;strong&gt;Bescheids&lt;/strong&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 4 deklarativen Merkmale des Bescheids?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ausdrückliche Bezeichnung (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/82" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;84 Abs. 1 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Begründung (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/60" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;60 AVG&lt;/a&gt;) &lt;/li&gt;&lt;li&gt;Rechtsmittelbelehrung (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/61" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;61 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Ort und Datum&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Rechtsgrundlagen für den elektronisch erstellten Bescheid?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Genehmigung (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/18" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;18 Abs. 3 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Schriftliche Ausfertigung (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/18" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;18 Abs. 4 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;elektronische Ausfertigung (&lt;a href="https://www.jusline.at/gesetz/e-govg/paragraf/19" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;19 E-GovG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;E-GovG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;E-Government-Gesetz&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Rechtsgrundlagen für mündliche Bescheide?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Mit Verkündung an den Adressaten rechtswirksam (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/62" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;62 Abs. 1 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Behördliche Niederschrift über Inhalt und Verkündigung notwendig (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/62" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;62 Abs. 2 AVG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was sind die Rechtsgrundlagen für schriftliche Bescheide?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Rechtswirksam ab schriftlicher Ausstellung (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/62" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;62 Abs. 1 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Zustellung erfolgt gemäß &lt;a href="https://www.jusline.at/gesetz/avg/paragraf/21" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;21 AVG&lt;/a&gt; nach dem Zustellgesetz&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein ordentliches Ermittlungsverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Verfahren, welches die Verwaltungsbehörde verpflichtet, vor Erlass des Bescheids den Sachverhalt nach den Grundsätzen des Verwaltungsverfahrens zu ermitteln.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In welchem Fall darf ein Bescheid &lt;strong&gt;ohne&lt;/strong&gt; ordentliches Ermittlungsverfahren erlassen werden? &lt;/p&gt;&lt;p&gt;Wie nennt man so einen Bescheid? &lt;/p&gt;&lt;p&gt;Wie kann der Adressat dagegen vorgehen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bei Gefahr im Verzug, sowie bei statutarisch oder tarifmäßig feststehenden Geldleistungen (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/57" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;57 Abs. 1 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Wird &lt;strong&gt;Mandatsbescheid &lt;/strong&gt;genannt&lt;/li&gt;&lt;li&gt;Rechtsmittel dagegen: die &lt;strong&gt;Vorstellung&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Bestandskraft eines Bescheides?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Bescheid kann von Verwaltungsbehörden nicht mehr abgeändert werden.&lt;/li&gt;&lt;li&gt;Ein erlassener Bescheid soll unabänderlich sein und Bestand haben (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/68" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;68 Abs. 1 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Ein bestandskräftiger Bescheid kann rechtswidrig sein, ist aber im Sinne des &lt;strong&gt;Fehlerkalküls &lt;/strong&gt;dennoch verbindlich.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Konflikt zwischen &lt;strong&gt;Rechtsrichtigkeit &lt;/strong&gt;und &lt;strong&gt;Rechtssicherheit&lt;/strong&gt;, wie wird er gelöst? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Rechtsrichtigkeit &lt;/strong&gt;besagt, dass ein rechtswidriger Bescheid aufgehoben werden soll, &lt;strong&gt;Rechtssicherheit &lt;/strong&gt;besagt aber, dass ein Adressat auf den Bestand eines Bescheides vertrauen darf, auch wenn er rechtswidrig ist.&lt;/li&gt;&lt;li&gt;Lösung: Bescheide, &lt;strong&gt;aus denen niemandem ein Recht erwachsen ist&lt;/strong&gt;, sind von der Bestandskraft ausgenommen (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/68" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;68 Abs. 2 AVG&lt;/a&gt;) &lt;/li&gt;&lt;li&gt;Sonst Aufhebung nur wo öffentliches Interesse gegen den Bestand des rechtswidrigen Bescheids spricht (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/68" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;68 Abs. 3, 4 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Leben oder Gesundheit gefährdende Missstände&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Schwere volkswirtschaftliche Schädigungen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Strafgesetzwidriger Erfolg  &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtskraft eines Bescheids?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Bescheid kann von Verwaltungsgerichten nicht mehr abgeändert werden. &lt;/li&gt;&lt;li&gt;Rechtskräftig sind auch verwaltungsgerichtliche Erkenntnisse und Beschlüsse, die nicht mehr im gerichtlichen Rechtsweg angefochten werden können.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;BFG &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bundesfinanzgericht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Objektives Recht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verpflichtet die Vollziehung gesetzlich zu einem bestimmten Verhalten&lt;/li&gt;&lt;li&gt;Mensch hat aber keinen durchsetzbaren Anspruch auf einen Prozess um die Vollziehung zur Einhaltung dieser Gesetze zu zwingen. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ernennt die Landes(verwaltungs)richter?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Landesregierung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel134" rel="noopener noreferrer" target="_blank"&gt;Art. 134 Abs. 2 B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Gebietsgemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Auch für Überörtliche Angelegenheiten zuständig&lt;/li&gt;&lt;li&gt;Überörtlicher Selbstverwaltungskörper&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was umfasst die Gerichtsbarkeit des öffentlichen Rechts?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Außerordentliche Gerichtsbarkeit&lt;/li&gt;&lt;li&gt;Verwaltungsgerichte für Verwaltungssachen&lt;/li&gt;&lt;li&gt;Verfassungsgerichtshof, der besondere Verfassungsfragen und politische Streitigkeiten entscheidet&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wem obliegt die Organisation der ordentlichen Gerichtsbarkeit?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nur dem Bund (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel82" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 82 Abs.1 B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wem obliegt die Organisation der Gerichtsbarkeit des öffentlichen Rechts?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Für Verwaltungsgerichte der Länder dem Land&lt;/li&gt;&lt;li&gt;Für Verwaltungsgerichte des Bundes dem Bund&lt;/li&gt;&lt;li&gt;Für den Verfassungsgerichtshof dem Bund&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 2 Ebenen der Verwaltungsgerichtsbarkeit?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Verwaltungsgerichte erster Instanz&lt;/li&gt;&lt;li&gt;Verwaltungsgerichtshof (oder: Verfassungsgerichtshof)&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Verwaltungsgerichte gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Je Land ein Landesverwaltungsgericht&lt;/li&gt;&lt;li&gt;ein Bundesverwaltungsgericht&lt;/li&gt;&lt;li&gt;ein Bundesfinanzgericht&lt;/li&gt;&lt;li&gt;der Verwaltungsgerichtshof&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Gerichtshöfe?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gerichte, die Streitigkeiten letztinstanzlich entscheiden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 3 Höchstgerichte der Gerichtsbarkeit? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Oberster Gerichtshof&lt;/li&gt;&lt;li&gt;Verwaltungsgerichtshof&lt;/li&gt;&lt;li&gt;Verfassungsgerichtshof&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können Höchstgerichte die Entscheidungen anderer Höchstgerichte ändern?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, sie können sie weder aufheben noch abändern.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ernennt die Bundesrichter?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Bundespräsident (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel65" rel="noopener noreferrer" target="_blank"&gt;Art. 65 Abs. 2 lit. a B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Gerichtskanzlei?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Büroapparat des Richters&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Rechtsmittelverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Überprüfung und Korrektur der Entscheidungen von Richtern einer unteren Ebene durch Richter einer höheren Ebene&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Rechtspfleger?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nicht-richterliche Bedienstete&lt;/li&gt;&lt;li&gt;Erledigen unter Weisung des Richters untergeordnete Rechtssachen&lt;/li&gt;&lt;li&gt;Der einfache Gesetzgeber bestimmt in welchen Angelegenheiten Rechtspfleger tätig sind.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Begriffe räumen eindeutig subjektive Rechte ein?&lt;/p&gt;&lt;p&gt;Was passiert bei Unklarheit?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Mit "Recht" oder "Anspruch"&lt;/li&gt;&lt;li&gt;Bei Unklarheit ist die Frage, ob objektives, oder auch subjektives Recht eingeräumt wird. Dies ist durch Auslegung des Gesetzestextes zu klären. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Abschnitte der Rechtswege im öffentlichen Recht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Verwaltungsbehörden&lt;/li&gt;&lt;li&gt;Gerichtsbarkeit des öffentlichen Rechts&lt;/li&gt;&lt;li&gt;EGMR (international) &lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Worum geht es bei den Rechtswegen im öffentlichen Recht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Um die Durchsetzung subjektiver Rechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rechtswege im öR: Verwaltungsbehörden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rechtsweg für einfachgesetzliche subjektive Rechte beginnt vor den Verwaltungsbehörden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die strafgesetzliche Verantwortung der Organwalter?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Sie unterliegen allen Tatbeständen des Justiz- und Verwaltungsstrafrechts&lt;/li&gt;&lt;li&gt;Zusätzlich Amtsdelikte, die nur von ihnen begangen werden können&lt;/li&gt;&lt;li&gt;Persönlich mit Geld/Freiheitsstrafe bedroht&lt;/li&gt;&lt;li&gt;Bestraft wird nur der Organwalter, nicht der Staat.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Disziplinarstrafrecht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Sonderverwaltungsstrafrecht für öffentlich-rechtliche Beamte von Gebietskörperschaften&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Persönlichen Verantwortungen haben Organwalter?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Strafgesetzliche Verantwortung&lt;/li&gt;&lt;li&gt;Finanzielle Verantwortung&lt;/li&gt;&lt;li&gt;Politische und rechtliche Verantwortung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die finanzielle Verantwortung der Organwalter? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Organwalterhaftung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel23" rel="noopener noreferrer" target="_blank"&gt;Art. 23 Abs. 3 B-VG&lt;/a&gt; und &lt;a href="https://www.jusline.at/gesetz/orghg" rel="noopener noreferrer" target="_blank"&gt;Organhaftpflichtgesetz&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Haften persönlich für Schaden den sie rechtswidrig "in Vollziehung der Gesetze" einer Gebietskörperschaft (oder anderen Person des öR) zugefügt haben.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist politische und rechtliche Verantwortung der Organwalter? Wem gegenüber gibt es diese jeweils?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Politische Organwalter, besonders Regierungsmitglieder, unterliegen dem Parlament einer auf Amtsverlust ausgerichteten persönlichen, politischen und rechtlichen Verantwortung&lt;/li&gt;&lt;li&gt;Bundespräsident ist politisch dem &lt;strong&gt;Bundesvolk &lt;/strong&gt;verantwortlich, und &lt;strong&gt;rechtlich &lt;/strong&gt;der Bundesversammlung&lt;/li&gt;&lt;li&gt;Gemeinderat ist politisch dem Gemeindevolk verantwortlich&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Grundsatz der Leitung? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Vollziehung der Gebietskörperschaften sind hierarchisch organisiert&lt;/li&gt;&lt;li&gt;Obere Organe leiten untere durch Weisung und Aufsicht (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel20" rel="noopener noreferrer" target="_blank"&gt;Art. 20  Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Zweck der Leitung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Erfüllen der behördlichen Aufsichtspflicht&lt;/li&gt;&lt;li&gt;Herstellung der Gesetzmäßigkeit des Handelns untergeordneter Organe&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wem kommt die Aufsichtspflicht meist zu?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Den Vollziehungsspitzen (Regierungen und Regierungsmitglieder) &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wann werden objektive Rechtsschutzeinrichtgen wirksam? Können Betroffene dies anregen? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wenn die staatlichen Institutionen sie auch tatsächlich Wahrnehmen&lt;/li&gt;&lt;li&gt;Die Anregung der Betroffenen ist nur ein Vorschlag/Empfehlung/Bitte&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Petitionsrecht (&lt;a href="https://www.jusline.at/gesetz/stgg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 12 StGG&lt;/a&gt;): mit jedem Anliegen an jedes staatliche Organ wenden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Aber: Recht auf Erledigung ist nicht damit verbunden&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was umfasst die Kontrolle (des Staates) durch Öffentlichkeit und Medien?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Freie Gesellschaft kontrolliert selbst den Staat&lt;/li&gt;&lt;li&gt;Die durch Wahlen politisch legitimierten Staatsorgane hängen von der öffentlichen Meinung ab&lt;/li&gt;&lt;li&gt;Freie Medien recherchieren das Verhalten der staatlichen Organe und machen Berichterstattung an die Öffentlichkeit&lt;/li&gt;&lt;li&gt;Pressefreiheit, Rundfunkfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird ein subjektives Recht auch genannt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Anspruch&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird ein subjektives Recht genannt, das sich gegen den Staat/die Verwaltung richtet?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein subjektives öffentliches Recht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wodurch können subjektive öffentliche Rechte eingeräumt werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Einfachgesetzlich&lt;/li&gt;&lt;li&gt;Verfassungsgesetzlich&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Wegen des Verfassungsranges besondere Bedeutung, darum auch &lt;strong&gt;Grundrechte &lt;/strong&gt;genannt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Warum unterscheidet man objektives und subjektives Recht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Weil die Rechtsordnung nur in bestimmten Fällen Betroffenen ein subjektives Recht einräumt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Rechtsreflex?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(238, 238, 238); color: rgb(51, 51, 51);"&gt;Wenn dem Bürger durch staatliches Handeln zwar ein tatsächlicher Vorteil entsteht, der Bürger aber &lt;/span&gt;&lt;strong style="background-color: rgb(238, 238, 238); color: rgb(51, 51, 51);"&gt;keinen rechtlich durchsetzbaren&lt;/strong&gt;&lt;span style="background-color: rgb(238, 238, 238); color: rgb(51, 51, 51);"&gt; Anspruch auf Erfüllung dieser Staatspflicht hat → Objektives Recht. &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wodurch entscheidet sich, ob jemand ein subjektives Recht hat? Wie weit reicht es? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Entscheidet immer der Gesetzgeber&lt;/li&gt;&lt;li&gt;Gesetzgeber entscheidet auch den Inhalt des Rechts und wie weit es reicht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Beschwerde/ein Revisionspunkt? Wofür wird sie benötigt? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Behauptung der Verletzung konkreter subjektiver Rechte&lt;/li&gt;&lt;li&gt;Verwendet um einen Bescheid einer Verwaltungsbehörde vor einem Verwaltungsgericht (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 B-VG&lt;/a&gt;) anzufechten&lt;/li&gt;&lt;li&gt;oder eine Erkenntnis eines Verwaltungsgerichtes vor dem Verwaltungsgerichtshof (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel133" rel="noopener noreferrer" target="_blank"&gt;Art. 133 Abs. 1 B-VG&lt;/a&gt;) anzufechten&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wovon macht das B-VG die Zulässigkeit von einem Rechtsweg gegen den Staat abhängig?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ob die Gesetze dem Betroffenen ein &lt;strong&gt;subjektives Recht&lt;/strong&gt; auf ein bestimmtes Tun oder Unterlassen &lt;strong&gt;der staatlichen Organe&lt;/strong&gt; einräumen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Rechtswege im öR: Gerichtsbarkeit des öffentlichen Rechts&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ist der Verwaltungsrechtsweg für &lt;strong&gt;einfachgesetzliche &lt;/strong&gt;Rechte erschöpft oder ein &lt;strong&gt;verfassungsgesetzliches &lt;/strong&gt;Recht verletzt geht die Beschwerde je nach Zuständigkeit an:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landesverwaltungsgericht&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundesverwaltungsgericht&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundesfinanzgericht&lt;/li&gt;&lt;li&gt;Bei negativer Erkenntnis/Beschluss:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;einfachgesetzliches Recht: &lt;strong&gt;Revision &lt;/strong&gt;beim VwGH&lt;/li&gt;&lt;li class="ql-indent-1"&gt;verfassungsgesetzliches Recht: &lt;strong&gt;Beschwerde &lt;/strong&gt;beim VfGH&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amtshaftung: Hoheitliches Vollziehungshandeln.&lt;/p&gt;&lt;p&gt;Was ist ausgenommen? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Amtshaftung nur für&lt;strong&gt; hoheitliches Vollziehungshandeln &lt;/strong&gt;von Verwaltung und Gerichtsbarkeit&lt;/li&gt;&lt;li&gt;Nicht-hoheitliches Handeln ausgenommen, hier haftet Gebietskörperschaft nach dem AGBG.&lt;/li&gt;&lt;li&gt;Ausgenommen sind auch Schäden durch &lt;strong&gt;gesetzwidrige Urteile oder Erkenntnisse&lt;/strong&gt; eines &lt;strong&gt;Höchstgerichts &lt;/strong&gt;(VwGH, VfGH, OGH)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;LvwG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Landesverwaltungsgericht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;BvwG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bundesverwaltungsgericht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Rechtswege im öR: EGMR&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Möglichkeit auf internationaler Ebene gegen Handeln staatlicher Organe vorzugehen&lt;/li&gt;&lt;li&gt;Benötigt in der EMRK verankertes subjektives Recht&lt;/li&gt;&lt;li&gt;Nationale (Verfassungs)Rechte können bei EGMR nicht geltend gemacht werden.&lt;/li&gt;&lt;li&gt;Direkter Rechtsweg nicht möglich -&amp;gt; zuerst nationale Verwaltungsbehörden und Gerichte&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Rechtsschutzthemen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Rechtswidriges Handeln&lt;/li&gt;&lt;li&gt;Säumnis&lt;/li&gt;&lt;li&gt;Schaden&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Rechtsschutzthemen: Rechtswidriges Handeln&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Organe können rechtswidrig Handeln, was auf dem öffentlich-rechtlichen Rechtsweg&lt;strong&gt; bekämpft &lt;/strong&gt;werden soll&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rechtsschutzthemen: Säumnis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Organe können auch rechtswidrig säumig sein, also ein durch die Rechtsordnung gebotenes hoheitliches Handeln nicht setzen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Ziel des Rechtsschutzes in so einem Fall ist das &lt;strong&gt;Erzwingen &lt;/strong&gt;des gebotenen Handelns.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Amtshaftung? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Gebietskörperschaften (Bund, Länder und Gemeinden) müssen grundsätzlich für den Schaden, den ihre Organwalter wem immer zugefügt haben, Schadenersatz leisten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel23" rel="noopener noreferrer" target="_blank"&gt;Art. 23 Abs. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/ahg" rel="noopener noreferrer" target="_blank"&gt;AHG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;AHG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amtshaftungsgesetz&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundsätze der Amtshaftung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Hoheitliches Vollziehungshandeln&lt;/li&gt;&lt;li&gt;Kein legislatives Unrecht&lt;/li&gt;&lt;li&gt;Verschulden&lt;/li&gt;&lt;li&gt;(Amtshaftungs)Regress&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amtshaftung: Regress&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel23" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 23 Abs. 2 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gebietskörperschaft haftet für Ihre Organe &lt;/li&gt;&lt;li&gt;Gebietskörperschaft nimmt dafür beim Organwalter Regress&lt;/li&gt;&lt;li&gt;Der Organwalter ist der Gebietskörperschaft, eingeschränkt auf Vorsatz und grobe Fahrlässigkeit seines Verhaltens, regresspflichtig&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amtshaftung: Verschulden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Schadenersatz setzt &lt;strong&gt;schuldhaft &lt;/strong&gt;rechtswidriges Verhalten vorraus.&lt;/li&gt;&lt;li&gt;Verschulden bedeutet Vorsatz oder Fahrlässigkeit&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Keine Amtshaftung wenn dem Handeln des Organwalters eine vertretbare Rechtsauffassung zugrunde liegt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amtshaftung: Kein legislatives Unrecht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Für Schäden aus verfassungswidrigem Handeln des Gesetzgebers kein Schadenersatz&lt;/li&gt;&lt;li&gt;Von der Amtshaftung ausgenommen&lt;/li&gt;&lt;li&gt;Betroffene grundsätzlich entschädigungslos&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Rechtsschutzthemen: Schaden&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nach Beseitigung des rechtswidrigen Handelns bzw. Erzwingen des säumigen Handelns, kann der Betroffene noch immer einen finanziellen Schaden haben.&lt;/li&gt;&lt;li&gt;Ein solcher Schaden wird Regeln der &lt;strong&gt;Amtshaftung &lt;/strong&gt;vor einem Zivilgericht behandelt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatshaftung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;= unionsrechtliche Haftung für Schäden&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Keinerlei Haftungsauschluss im Unionsrecht (Auch nicht Parlament, Höchstgerichte, nicht-hoheitliche Verwaltung ... )&lt;/li&gt;&lt;li&gt;Schadensersatz auch für legislatives Unrecht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;AVG 1991: Name, Zweck&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Allgemeines Verwaltungsverfahrensgesetz 1991&lt;/li&gt;&lt;li&gt;Schreibt den Verwaltungsbehörden ein ordentliches Ermittlungsverfahren vor&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subjektives Recht auf Amtshaftung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Amtshaftungsansprüche gegen Verwaltungsorgane und Gerichtsorgane, bei &lt;strong&gt;Zivilgerichten nach AVG&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Staatshaftungsansprüche gegen Gesetzgeber und Höchstgerichte sind besondere Geldansprüche, &lt;strong&gt;weder vor Zivilgerichten noch vor Verwaltungsbehörden&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Einzuklagen unmittelbar durch &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel137" rel="noopener noreferrer" target="_blank"&gt;Art 137 B-VG&lt;/a&gt; beim Verfassungsgerichtshof (=Staatshaftungsklage)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ordentliche Gerichtsbarkeit - Gesetzliche Grundlage&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel82" rel="noopener noreferrer" target="_blank"&gt;Art. 82 bis 94 B-VG&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;4 Ebenen der ordentlichen Gerichtsbarkeit&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Bezirksgerichte&lt;/li&gt;&lt;li&gt;Landesgerichte&lt;/li&gt;&lt;li&gt;Oberlandesgerichte&lt;/li&gt;&lt;li&gt;Oberster Gerichtshof&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Laienrichter&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fachlich ungebildete Laien aus dem Volk&lt;/li&gt;&lt;li&gt;Urteilen auch im Strafprozess&lt;/li&gt;&lt;li&gt;Werden &lt;strong&gt;nicht &lt;/strong&gt;vom Volk gewählt&lt;/li&gt;&lt;li&gt;Die Bundesverfassung sieht für das Strafrecht Geschworene und Schöffen vor.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können Laienrichter an Verwaltungprozessen teilnehmen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das B-VG ermächtigt den einfachen Bundes- und Landesgesetzgeber, eine Mitwirkung &lt;strong&gt;fachkundiger &lt;/strong&gt;Laienrichter an Verwaltungsprozessen vorzusehen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Geschworenengerichte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Entscheiden bei besonders schweren und politischen Delikten&lt;/li&gt;&lt;li&gt;Bestehen aus 3 Berufsrichtern und 8 Laienrichtern (Geschworene)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Schöffengerichte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Entscheiden über schwere Delikte&lt;/li&gt;&lt;li&gt;Bestehen aus einem Berufsrichter und 2 Laienrichtern (Schöffen) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welcher Gerichtsbarkeit gehören Staatsanwälte an?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sie sind Organe der ordentlichen Gerichtsbarkeit&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sind Staatsanwälte weisungsgebunden oder weisungsfrei?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Weisungsgebunden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Aufgabe der Staatsanwälte? Was die des Strafgerichts?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatsanwälte: Sie besorgen die Ermittlungs- und Anklagefunktion im gerichtlichen Strafverfahren&lt;/p&gt;&lt;p&gt;Strafgericht: Urteilt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In welche Ebenen sind die Staatsanwälte gegliedert?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Generalprokuratur (&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Unterhalb der Ministerebene)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Oberstaatsanwaltschaften&lt;/li&gt;&lt;li&gt;Staatsanwaltschaften&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Verwaltungsgerichtshof (Rechtsgrundlage, Sitz, Mitglieder, Richter, Senate, Verfahrensführung)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel133" rel="noopener noreferrer" target="_blank"&gt;Art. 133ff B-VG&lt;/a&gt;, Verwaltungsgerichtshofgesetz 1985&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Sitz in Wien&lt;/li&gt;&lt;li&gt;Besteht aus Präsident, Vizepräsident und sonstigen Mitgliedern&lt;/li&gt;&lt;li&gt;Richter sind Berufsrichter mit richterlichen Privilegien&lt;/li&gt;&lt;li&gt;Senate bestehen aus 3, 5 oder 9 Richtern&lt;/li&gt;&lt;li&gt;Das Verfahren führt ein Berichter&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Der Verfassungsgerichtshof (Rechtsgrundlage, Sitz, Mitglieder, Richter, Senate, Verfahrensführung)&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel137" rel="noopener noreferrer" target="_blank"&gt;Art. 137-148 B-VG&lt;/a&gt;, Verfassungsgerichtshofgesetz 1953&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Sitz in Wien&lt;/li&gt;&lt;li&gt;Besteht aus Präsident, Vizepräsident, 12 Mitgliedern und 6 Ersatzmitgliedern&lt;/li&gt;&lt;li&gt;Richter haben richterliche Privilegien, sind aber nicht hauptberuflich am Gerichtshof tätig.&lt;/li&gt;&lt;li&gt;Entscheidet im Plenum, eine Senatsgliederung ist nicht vorgesehen.&lt;/li&gt;&lt;li&gt;Das Verfahren führt ein Referent&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wann sind Einzelrichter weisungsgebunden, wann nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bei Erledigung einer rechtsprechenden Aufgabe: Weisungsfrei&lt;/li&gt;&lt;li&gt;Bei Erledigung einer Justizverwaltungsaufgabe: Weisungsgebunden an die Justizverwaltungsbehörde&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wann sind Richtersenate weisungsgebunden, wann nicht?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sind immer weisungsfrei, unabhängig von der Aufgabe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine &lt;strong&gt;Erkenntnis &lt;/strong&gt;in der Gerichtsbarkeit des öffentlichen Rechts?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Gericht der Gerichtsbarkeit des &lt;strong&gt;öffentlichen Rechts&lt;/strong&gt;, das einen Rechtsstreit in der Sache entscheidet, fällt eine Erkenntnis im Namen der Republik&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was ist eine Beschluss in der Gerichtsbarkeit des öffentlichen Rechts?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gericht des&lt;strong&gt; öffentlichen Rechts&lt;/strong&gt; entscheidet nicht in der Sache, sondern trifft nur eine Anordnung zum Verfahren&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;EGMR&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Europäischer Gerichtshof für Menschenrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Europäischer Gerichtshof für Menschrechte (Gesetzliche Grundlage, Sitz, EMRK Rechtsverletzung, Tätigkeit)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Internationaler Gerichtshof, durch EMRK eingerichtet&lt;/li&gt;&lt;li&gt;Sitz in Straßburg&lt;/li&gt;&lt;li&gt;Rechtsverletzung: Individualbeschwerde nach &lt;a href="https://www.jusline.at/gesetz/emrk/paragraf/artikel34" rel="noopener noreferrer" target="_blank"&gt;Art. 34 EMRK&lt;/a&gt; (innerhalb von 6 Monaten)&lt;/li&gt;&lt;li&gt;Überprüft nationales Staatshandeln, kann es aber nicht aufheben. Kann Schadenersatz zusprechen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;EuGH&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gerichtshof der Europäischen Union&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gerichtshof der Europäischen Union&amp;nbsp;(Gesetzliche Grundlage, &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sitz,&lt;/span&gt; Gliederung, Tätigkeit)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Durch den EU-Vertrag eingerichtet&lt;/li&gt;&lt;li&gt;Sitz in Luxemburg&lt;/li&gt;&lt;li&gt;Gegliedert in Gerichtshof, Gericht und in Fachgerichte&lt;/li&gt;&lt;li&gt;Vorabentscheidung durch den Gerichtshof sichert einheitliche Anwendung von Unionsrecht.&lt;/li&gt;&lt;li&gt;Hat ein nationales Gericht zweifel an der Auslegung oder Gültigkeit, wird diese Frage dem EuGH zur Vorabentscheidung vorgelegt. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was umfasst das Verwaltungsverfahrensrecht im weiten Sinne?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Alle Regeln mit denen der Gesetzgeber die Vorgehensweise der Verwaltungsorgane bei der Umsetzung der Gesetze bestimmt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was umfasst das Verwaltungsverfahrensrecht im engen Sinne?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nur die Verfahrensregeln, die der Gesetzgeber den Verwaltungsbehörden für das Erlassen eines Bescheids vorgibt.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein anderer Begriff für Verwaltungsverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bescheidverfahren&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Verwaltungsverfahrensgesetze gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;AVG&lt;/li&gt;&lt;li&gt;VStG&lt;/li&gt;&lt;li&gt;VVG&lt;/li&gt;&lt;li&gt;EGVG&lt;/li&gt;&lt;li&gt;Außerdem:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Besondere Verwaltungsverfahrensgesetze&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Einzelne Verfahrensbestimmungen in Materiengesetzen des Bundes und der Länder&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;EGVG 1991: Name, Zweck&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Einführungsgesetz zu den Verwaltungsverfahrensgesetzen&lt;/li&gt;&lt;li&gt;Bestimmt in welchen Verwaltungsverfahren welche Verwaltungsverfahrensgesetze eingesetzt werden.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;VVG 1991: Name, Zweck&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verwaltungsvollstreckungsgesetz&lt;/li&gt;&lt;li&gt;Regelt die zwangsweise Vollstreckung von Leistungsbescheiden&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die gesetzlichen Grundlagen für die Verwaltungsverfahren in den kompetenzrechtlichen Sachmaterien?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Kompetenzrechtlich eine Annexmaterie zu den Sachmaterien des Bundes und der Länder&lt;/li&gt;&lt;li&gt;Wichtigste Verwaltungsverfahrensgesetze von Bund zur Vereinheitlichung erlassen (Bedarfskompetenzen, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 11 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Sonderverfahrensregeln in den Materiengesetzen (Erlaubte Abweichungen nach &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 11 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was ist die örtliche Zuständigkeit in Verwaltungsverfahren?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Kompetenz einer Behörde bestimmte Angelegenheiten in Hinblick auf ein bestimmtes Territorium zu entscheiden. &lt;/p&gt;&lt;p&gt;Dafür werden örtliche Anknüpfungspunkte festgelegt (Hauptwohnsitz, Lage des Grundstücks, ... )&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind organisatorische Instanzen in Verwaltungsverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zeigen welche Verwaltungsorgane der Verwaltungsorganisation angehören, sowie die Hierarchie und Weisungszusammenhänge.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Ermittlungsverfahren im Verwaltungsverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/37" rel="noopener noreferrer" target="_blank"&gt;§ 37 bis 55 AVG&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Das Verwaltungsverfahrensrecht legt fest, wie die Verwaltungsbehörde bei der Ermittlung des Sachverhalts und der rechtlichen Beurteilung vorzugehen hat.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundsätze des Verwaltungsverfahrens&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Einleitung von Amts wegen oder auf Antrag&lt;/li&gt;&lt;li&gt;Materielle Wahrheit und Amtswegigkeit&lt;/li&gt;&lt;li&gt;Unbeschränktheit der Beweismittel&lt;/li&gt;&lt;li&gt;Rechtliches Gehör&lt;/li&gt;&lt;li&gt;Freie Beweiswürdigung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundsätze des Verwaltungsverfahrens: Einleitung von Amts wegen oder auf Antrag&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Es gilt der Grundsatz der Amtswegigkeit (&lt;strong&gt;Offizialmaxime&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;Die Verwaltungsbehörde bestimmt den Gang des Verfahrens, sie ist nicht von Anträgen oder Zustimmungen der Parteien abhängig&lt;/li&gt;&lt;li&gt;Auch die Einleitung des Verfahrens erfolgt grundsätzlich von Amts wegen (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/39" rel="noopener noreferrer" target="_blank"&gt;§ 39 Abs. 2 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Abweichend wird auch vorgesehen, dass ein Verfahren nur auf Antrag einer Partei eingeleitet wird.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundsätze des Verwaltungsverfahrens: Materielle Wahrheit und Amtswegigkeit&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nach dem Grundsatz der Materiellen Wahrheit muss der Sachverhalt von Amts wegen ermittelt und festgestellt werden (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/37" rel="noopener noreferrer" target="_blank"&gt;§ 37 AVG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/avg/paragraf/39" rel="noopener noreferrer" target="_blank"&gt;§ 39 Abs. 2 AVG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundsätze des Verwaltungsverfahrens: &lt;/span&gt;Unbeschränktheit der Beweismittel&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/46" rel="noopener noreferrer" target="_blank"&gt;§ 46 AVG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Urkunden, Zeugen, Gutachten, der Augenschein, ...&lt;/li&gt;&lt;li&gt;Auch rechtswidrig beschaffene Beweismittel sind grundsätzlich zu verwerten&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundsätze des Verwaltungsverfahrens: &lt;/span&gt;Rechtliches Gehör&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/45" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;§ 45 Abs. 3 AVG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Muss jeder Partei gewährt werden&lt;/li&gt;&lt;li&gt;Die Parteien müssen die Möglichkeit haben, an der Ermittlung des Sachverhalts teilzunehmen und ihre rechtlichen Interessen wahrzunehmen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundsätze des Verwaltungsverfahrens: Freie Beweiswürdigung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/45" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§ 45 Abs. 2 AVG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Im Fall widersprechender Beweisergebnisse wird nach diesem Grundsatz vorgegangen&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Verwaltungsbehörde ist nicht an förmliche Beweisregeln gebunden&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Verwaltungsbehörde ist frei, ein Beweisergebnis als wahr festzustellen, muss dies aber nachvollziehbar und plausibel begründen (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/60" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§ 60 AVG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die sachliche Zuständigkeit in Verwaltungsverfahren?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Kompetenz einer Behörde, bestimmte Verwaltungssachen zu Entscheiden &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Was sind administrative Instanzen in Verwaltungsverfahren? Wodurch werden sie bestimmt? &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die für die Durchführung eines konkreten Verwaltungsverfahrens zuständige Verwaltungsbehörde. &lt;/li&gt;&lt;li&gt;Bestimmt vom Materiengesetzgeber&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Geschichte der Grund- und Freiheitsrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;1789&lt;/strong&gt;: Deklaration der Menschen- und Bürgerrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1867&lt;/strong&gt;: Staatsgrundgesetz (Dezemberverfassung) &lt;/p&gt;&lt;p&gt;&lt;strong&gt;1948&lt;/strong&gt;: Allgemeine Erklärung der Menschenrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1950&lt;/strong&gt;: Europäische Menschenrechtskonvention&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Grundrechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Alle den Menschen durch formelle Verfassungsgesetze gewährleistete Recht.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subjektives Recht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verpflichtet die Vollziehung gesetzlich zu einem bestimmten Verhalten&lt;/li&gt;&lt;li&gt;Mensch hat das Recht, den Staat in einem Prozess vor Gericht zur Einhaltung dieser Gesetze zu zwingen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Landesverwaltung unterhalb der Regierung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Landesverwaltung in Verwaltungssprengel territorial gegliedert&lt;/li&gt;&lt;li&gt;Land in Bezirke gegliedert, 2 Arten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Bezirk&lt;/strong&gt;, der mehrere Gemeinden erfasst&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Statutarstadt&lt;/strong&gt;, die alleine ein Bezirk ist&lt;/li&gt;&lt;li&gt;Bezirksverwaltungsbehörden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirkshauptmann (monokratisch), Amt: Bezirkshauptmannschaft&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bürgermeister, Amt: Magistrat&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gegen wen schützen Grundrechte, gegen wen nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Grundrechte schützen gegen Staat und Staatsgewalt&lt;/li&gt;&lt;li&gt;Schützen auch gegen den Gesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen Landesverfassungsgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Landesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen die staatl. Vollziehung (Verwaltung und Gerichtsbarkeit)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Aber: &lt;/strong&gt;Bundesverfassungsgesetze können Grundrechte einschränken. (z.&amp;nbsp;B.: Wehrpflicht für Männer widerspricht dem Gleichheitssatz, ist aber durch B-VG diskriminierend festgelegt) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtskataloge&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;StGG 1867&lt;/li&gt;&lt;li&gt;EMRK + ZP&lt;/li&gt;&lt;li&gt;BVG Kinderrechte&lt;/li&gt;&lt;li&gt;EU Grundrechtecharta&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtsgesetze&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Hausrechts Gesetz &lt;/li&gt;&lt;li&gt;Beschluss der provisorischen Nationalversammlung über die Aufhebung der Zensur 1918&lt;/li&gt;&lt;li&gt;PersFrG (Bundesverfassungsgesetz zum Schutz der persönlichen Freiheit)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundrechtsquellen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Quellen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Grundrechtskataloge&lt;/li&gt;&lt;li&gt;Grundrechtsgesetze&lt;/li&gt;&lt;li&gt;Grundrechte im B-VG&lt;/li&gt;&lt;li&gt;Grundrechte in einfachen Gesetzen&lt;/li&gt;&lt;li&gt;Einzelne Grundrechte in Staatsverträgen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zusammensetzung der Bundesregierung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Besteht aus BK, Vizekanzler und Bundesministern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 19 Abs. 1 B-VG&lt;/a&gt;,&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel69" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt; Art. 69 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundesregierung &lt;/span&gt;als Kollegialorgan&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;= Ministerrat&lt;/li&gt;&lt;li&gt;Beschlüsse müssen einstimmig sein&lt;/li&gt;&lt;li&gt;Aufgabe sind Regierungsakte wie&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge an BP (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel67" rel="noopener noreferrer" target="_blank"&gt;Art. 67 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gesetzesvorlagen an das Parlament (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel41" rel="noopener noreferrer" target="_blank"&gt;Art. 41 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge für Ernennung von Verfassungsrichtern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel147" rel="noopener noreferrer" target="_blank"&gt;Art. 147 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Grundrechte in einfachen Gesetzen&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Recht auf Zivildienst&lt;/li&gt;&lt;li&gt;Recht auf Datenschutz&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Einzelne Grundrechte in Staatsverträgen&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Rechte der Minderheiten&lt;/li&gt;&lt;li&gt;Religionsfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bundesregierung: &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;BK, VK und BMs als Einzelorgane&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Oberste Organe der Verwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank"&gt;Art. 19 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;BM für Finanzen und für Inneres sind in der Verfassung, andere werden durch Bundesministeriengesetz 1986 bestimmt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ämter der Bundesregierung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bundeskanzleramt für BK&lt;/li&gt;&lt;li&gt;Bundesministerien für die BM&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Staatssekretäre &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Werden zwar in Art. 19 B-VG als oberste Organe der Verwaltung genannt, sind jedoch BM unterstellt und weisungsgebunden (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 78 Abs. 3 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Aufgabe ist Unterstützung und Vertretung des BM, sie sind nicht Teil der Bundesregierung&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mittelbare Bundesverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Das oberste Organ ist ein BM (oder der BK), als funktionelles und organisatorisches Organ des Bundes&lt;/li&gt;&lt;li&gt;Das mittlere Organ ist der Landeshauptmann (als Einzelorgan). &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organisatorisch ein Landesorgan, funktionell aber im Auftrag des Bundes&lt;/li&gt;&lt;li class="ql-indent-1"&gt;An Weisungen des BM gebunden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Amt der Landesregierung&lt;/li&gt;&lt;li&gt;Das untere Organ ist die Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organwalter (Bezirkshauptmann/Bürgermeister) an Weisung des LH gebunden (In Bundesverwaltung, sonst an Landesregierung)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Bezirkshauptmannschaft/Magistrat&lt;/li&gt;&lt;li&gt;Unterste Organe: Gemeindeorgane&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Unmittelbare Bundesverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 102 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ausnahme&lt;/li&gt;&lt;li&gt;Bund erledigt Aufgaben durch eigene Bundesbehörden&lt;/li&gt;&lt;li&gt;Bund darf dennoch mittelbare Bundesverwaltung nutzen &lt;/li&gt;&lt;li&gt;Mit Zustimmung der Länder, darf Bund auch Materien regeln, die nicht in Art. 102 Abs. 2 stehen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 4 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abgabebehörden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Auftragsverwaltung des Bundes: für nicht-hoheitliche Verwaltung ist theoretisch nur der BM zuständig (z.&amp;nbsp;B.: Bundesvermögen, Geschäfte des Bundes)&lt;/li&gt;&lt;li&gt;BM kann einzelne Geschäfte durch hoheitlichen Auftrag dem LH übertragen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel104" rel="noopener noreferrer" target="_blank"&gt;Art. 104 Abs. 2&lt;/a&gt;) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;SPG&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitspolizeigesetz&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsbehörden: BM für Inneres&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 78a Abs. 1 B-VG&lt;/a&gt;): Generaldirektion für öffentliche Sicherheit sorgt für Sicherheitsverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: Landespolizeidirektion&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78b" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgba(0, 0, 0, 0);"&gt;Art. 78b Abs. 1 B-VG&lt;/a&gt;) für jedes Bundesland:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Landespolizeidirektor weisungsgebunden an BM&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM muss jede wichtige Weisung an den LH mitteilen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM kann Landespolizeidirektor nur mit Einvernehmen des LH bestellen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78c" rel="noopener noreferrer" target="_blank"&gt;Art. 78c B-VG&lt;/a&gt; ermächtigt einfachen Bundesgesetzgeber die Landespolizeidirektion zur Sicherheitsbehörde 1. Instanz zu bestimmen, &lt;a href="https://www.jusline.at/gesetz/spg/paragraf/8" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;8 SPG&lt;/a&gt; legt dafür einige Gebiete fest.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: &lt;/span&gt;Bezirksverwaltungsbehörde&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bezirkshauptmannschaft/Bürgermeister besorgt prinzipiell Sicherheitsverwaltung auf Bundesebene&lt;/li&gt;&lt;li&gt;Als Verwaltungsbehörde aber nicht auf Sicherheitsaufgaben spezialisiert.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird das Budget bestimmt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In einem Budgetgesetz (Bundesfinanzgesetz) auf der Grundlage eines Bundesfinanzrahmengesetzes&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird der Schutzbereich eines Grundrechts festgelegt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Verfassung die ein Grundrecht normiert, legt den Schutzbereich mit dem Wortlaut des Verfassungstextes fest. Diese Begriffe sind allerdings auslegungsbedürftig (z.&amp;nbsp;B.: Eigentumsfreiheit hat den Schutzbereich "Eigentum")&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wo werden in der Regel über Verstöße gegen subjektives Recht entschieden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;im VfGH&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wo werden über Verstöße gegen Grundrechte entschieden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;OGH&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Drittwirkung der Grundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Durch Trennung von Staat und Gesellschaft gibt es &lt;strong&gt;keine Drittwirkung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Grundrechte gelten nur gegen den Staat, nicht Mensch gegen Mensch&lt;/li&gt;&lt;li&gt;Ausnahmen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gesetzlich angeordnete Drittwirkungen (z.B.: Datenschutzgesetz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Grundrechte mit staatlicher Schutzpflicht (Recht auf Leben)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Mittelbare Drittwirkung im Zivilrecht (Auslegung, Sittenklauseln)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie unterteilt die Verfassung unter objektivem Recht gewährleistete Rechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nach Adressatenkreis in Staatsbürgerrechte und Menschenrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie regelt die (Finanz)Verfassung wie der Staat zu seinem Geld kommt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Konstruiert den Staat als Abgabestaat&lt;/li&gt;&lt;li&gt;Staat bringt das Geld zwangsweise durch hoheitliche Abgaben, Gebühren und Beiträge auf.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsfähigkeit? Wer hat sie wie lange? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, Träger privater Rechte und Pflichten zu sein (z.B.: Eigentümer von Geld und Vermögen)&lt;/li&gt;&lt;li&gt;Jeder Mensch ist von Geburt bis zum Tod rechtsfähig.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Handlungsfähigkeit?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, durch eigenes Handeln Rechte zu erwerben und Pflichten zu begründen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ist jeder Mensch handlungsfähig?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/21" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;21 ABGB&lt;/a&gt;), wer nicht handlungsfähig ist, braucht einen Vertreter der für ihn handelt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ist der gesetzliche Vertreter für ein Kind?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Eltern (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/167" rel="noopener noreferrer" target="_blank"&gt;§ 167 ABGB&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ABGB&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Allgemeines bürgerliches Gesetzbuch&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind natürliche Personen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;= Menschen&lt;/li&gt;&lt;li&gt;Träger von Rechten und Pflichten&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind juristische Personen? &lt;/p&gt;&lt;p&gt;Wie werden sie noch genannt?&lt;/p&gt;&lt;p&gt;Wie wird entschieden, welche juristischen Personen es gibt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;= virtuelle Menschen&lt;/li&gt;&lt;li&gt;Auch Rechtsperson oder Körperschaft genannt&lt;/li&gt;&lt;li&gt;Gesetzgebung entscheidet ob und welche juristischen Personen es gibt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können juristische Personen Rechtsträger sein? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Privatrechtsordnung erlaubt, dass juristische Personen von der Rechtsordnung als Rechtsträger behandelt wären, als wären sie Menschen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die zwei Kernaussagen der Wesenstheorie?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Umfang der Rechte von jur. Personen im wesentlichen auf &lt;strong&gt;Vermögensrechte &lt;/strong&gt;beschränkt = &lt;strong&gt;Vermögensfähigkeit&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Jur. Personen sind rechtsfähig, benötigen aber Menschen um für sie zu handeln (&lt;strong&gt;Organisationsrecht&lt;/strong&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Organisationsrecht? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Regelt welche Organe eine juristische Person hat, und welche Organwalter für die jur. Person handeln.&lt;/li&gt;&lt;li&gt;Insbesondere wer intern entscheidet, und wer nach außen vertritt.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Jur. Person handelt immer nur durch vertretungsbefugte Organe.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Unterschiede zwischen juristischen Personen des Privatrechts und des öffentlichen Rechts? Was ist identisch? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Unterschiede:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Privatrecht: Durch Vertrag errichtet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliches Recht: Durch Gesetz errichtet&lt;/li&gt;&lt;li&gt;Beide haben dieselbe (Privat)Rechtsfähigkeit, dieselben privaten Rechte und Pflichten&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Quoren für Landesverfassungsgesetze?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Präsenz 1/2, Konsens 2/3 (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel99" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 99 Abs. 2 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Wann ist die Zustimmung der Bundesregierung für ein Landesgesetz notwendig? Wie wird die Zustimmung eingeholt?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Bundesorgane sollen bei Vollziehung mitwirken (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel97" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Art. 97 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ein eigenes Statut (Stadtrecht) ist betroffen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 116 Abs. 3 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Änderung der Organisation der Behörden der allg. staatlichen Verwaltung in den Ländern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel15" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 15 Abs. 10 B-VG)&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Der LH muss vor Kundmachung dem Bundeskanzleramt bekannt das Gesetz geben. Regierung hat 8 Wochen für Ablehnung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was sind die Organe einer Einheitsgemeinde? Was sind die Ämter dafür?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel117" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 117 Abs. 1 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gemeinderat&lt;/li&gt;&lt;li&gt;Gemeindevorstand (Stadtrat)&lt;/li&gt;&lt;li&gt;Bürgermeister&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Für alle 3: Das Gemeindeamt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche zusätzliche Funktion hat der Bürgermeister von Wien? Was bedeutet das für die Wahl?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Er ist auch Landeshauptmann&lt;/li&gt;&lt;li&gt;Eine Direktwahl durch das Volk ist nicht möglich&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche 3 Verwaltungsrollen hat die Stadt Wien?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wien ist Gemeinde, Statutarstadt und Bundesland&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Besonderheiten der Bezirksverwaltung durch eine Statutarstadt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 116 Abs. 3 B-VG&lt;/a&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ist keine Selbstverwaltung&lt;/li&gt;&lt;li&gt;Gebunden an Weisungen der Verwaltungsorgane von Bund und Land&lt;/li&gt;&lt;li&gt;Ist ein übertragener Wirkungsbereich: Wird von Bürgermeister besorgt&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was bedeutet Einheitsgemeinde?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Alle Gemeinden, außer Statutarstädte, haben einen im Umfang einheitlichen Wirkungsbereich und ein einheitliches Organisationsrecht. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist eine Gebietsgemeinde?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Auch für Überörtliche Angelegenheiten zuständig&lt;/li&gt;&lt;li&gt;Überörtlicher Selbstverwaltungskörper&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist eine Ortsgemeinde?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Für örtliche Angelegenheiten zuständig&lt;/li&gt;&lt;li&gt;Selbstverwaltungskörper&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist der übertragene Wirkungsbereich von Gemeinden?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Landes- und Bundesgesetzgebung können Zuständigkeiten an die Gemeinden übertragen, dies werden vom Bürgermeister besorgt.&lt;/li&gt;&lt;li&gt;Für diese ist die Gemeinde an Landes- oder Bundesverwaltung weisungsgebunden.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer hat die Rechtsaufsicht über Gemeinden bei welchen Angelegenheiten?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Art. 10 B-VG: die Behörden der allgemeinen staatlichen Verwaltung des Bundes.&lt;/p&gt;&lt;p&gt;Art. 11, 12, 15 B-VG: d&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;ie Behörden der allgemeinen staatlichen Verwaltung des Landes.&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Freiheitsrechte ohne Gesetzesvorbehalt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Absolut schützendes Freiheitsrecht&lt;/li&gt;&lt;li&gt;Kein Eingriff in den Schutzbereich durch einfache Gesetze zulässig&lt;/li&gt;&lt;li&gt;Beispiele: Verbot der Folter, Verbot der Todesstrafe, ... &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Freiheitsrechte mit staatlichen Schutzpflichten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nicht nur Abwehrrecht gegen Staat&lt;/li&gt;&lt;li&gt;Anspruch gegen den Staat, dass er den Freiraum auch vor Beschädigung durch andere Privatpersonen schützt&lt;/li&gt;&lt;li&gt;Beispiele: Recht auf Leben (Art. 2 EMRK), Verbot der Folter, ..&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Soziale Grundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Österreich ist ein Sozialstaat, die Verfassung kennt aber &lt;strong&gt;keine&lt;/strong&gt; sozialen Grundrechte.&lt;/li&gt;&lt;li&gt;Begründung: könnten den Staat wirtschaftlich überfordern.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Politische Grundrechte (= Teilhaberechte)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Durch die Verfassung gewährleistete Recht der Teilnahme der Menschen am Staat&lt;/li&gt;&lt;li&gt;Keine Abwehrrechte, sondern Teilhaberechte (status activus)&lt;/li&gt;&lt;li&gt;Aktive Teilhabe an der Staatswillensbildung und Staatsgewalt&lt;/li&gt;&lt;li&gt;Beispiele: Wahlrecht, Recht auf Volksbegehren, Petitionsrecht, Gründung und Betätigungsfreiheit polit. Parteien.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verfahrensgrundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wehren den Staat nicht ab, sondern verlangen Einhaltung der durch die Verfassung gewährleisteten Verfahrensrechte &lt;/li&gt;&lt;li&gt;Beispiele: Recht auf den gesetzlichen Richter, Recht auf faires Verfahren, keine Strafe ohne Gesetz.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Recht auf den gesetzlichen Richter?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt; Justizgrundrecht, das festlegt, dass für Rechtsstreitigkeiten und Prozesse bereits im Voraus bestimmt sein muss, welches&amp;nbsp;&lt;/span&gt;Gericht&amp;nbsp;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;und welcher Richter zuständig ist (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank"&gt;Art.&amp;nbsp;83 Abs. 2&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 3&amp;nbsp;B-VG&lt;/a&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einzelne Grundrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Recht auf persönliche Freiheit&lt;/li&gt;&lt;li&gt;Hausrecht&lt;/li&gt;&lt;li&gt;Versammlungsfreiheit&lt;/li&gt;&lt;li&gt;Meinungsfreiheit&lt;/li&gt;&lt;li&gt;...&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Allgemeine staatliche Verwaltung (Aufstellung in Bund und Ländern)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Allzuständigkeit der Staatsgewalt, erledigt von allgemeinen staatlichen Verwaltungsorganen&lt;/li&gt;&lt;li&gt;der Länder: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz) &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landesregierungen (2. Instanz)&lt;/li&gt;&lt;li&gt;der Bund:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landeshauptmann (2. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundesminister (3. Instanz) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Staatliches Handeln zur Abwehr und Beseitigung konkreter Gefahren und Missstände&lt;/li&gt;&lt;li&gt;Annexmaterie zu den Kompetenzen in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank"&gt;Art. 10-15 B-VG&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Örtliche Verwaltungspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Alle in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10-15 B-VG&lt;/a&gt; enthaltenen Angelegenheiten der Verwaltungspolizei, die im &lt;em&gt;örtlichen Interesse&lt;/em&gt; gelegen sind, fallen in den Wirkungsbereich der Gemeinden&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10 Abs. 1 Z. 7 B-VG&lt;/a&gt; Aufrechterhaltung der öffentlichen Ruhe, Ordnung und Sicherheit (soweit keiner konkreten Sachmaterie zugewiesen)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Gebietskörperschaften sind Träger von Privatrechten?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Bund und Länder sind juristische Personen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 2 B-VG&lt;/a&gt;: Gemeinden sind juristische Personen&lt;/li&gt;&lt;li&gt;Vermögensfähig sind also der Bund, die Länder und die Gemeinden, nicht der Gesamtstaat Österreich.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Örtliche Sicherheitspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aus dem Kompetenztatbestand ausgenommen → Aufteilung in überörtliche und örtliche Sicherheitspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer kann nicht-hoheitlich handeln, wer nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nur die juristischen Personen: Bund, Länder und Gemeinden, also nur die Verwaltung. &lt;/li&gt;&lt;li&gt;Parlamente und Gerichte handeln  immer hoheitlich&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ortspolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Örtliche Verwaltungspolizei und örtliche Sicherheitspolizei gemeinsam&lt;/li&gt;&lt;li&gt;bei gesetzlicher Lücke zur Beseitigung konkreter Gefahren und Missstände, wenn diese das "örtliche Gemeinschaftsleben" stören &lt;/li&gt;&lt;li&gt;Gemeinde darf gesetzesergänzende Verordnungen erlassen (ortspolizeiliche Verordnungen &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank"&gt;Art. 118 Abs. 6 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Inhalt der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Privatwirtschaftsverwaltung&lt;/li&gt;&lt;li&gt;Fiskalverwaltung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsbehörden des Bundes (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie funktioniert das Gesetzmäßigkeitsgebot in der nicht-hoheitlichen Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Geregelt durch das Verwaltungsprivatrecht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;differenziertes Legalitätsprinzip: &lt;/strong&gt;Auch privatrechtliche Handlungen unterliegen dem Gesetzmäßigkeitsgebot,  es ist aber flexibler und weniger streng, als für hoheitliches Handeln &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das hoheitliche Organisationsrecht einer Gebietskörperschaft?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bestimmt die innere Willensbildung des &lt;strong&gt;privatrechtlichen&lt;/strong&gt; Handelns&lt;/li&gt;&lt;li&gt;Zuständigkeit für Kaufverträge, Willensbildung, inhaltliche Gestaltung von Verträgen ⇾ bestimmt das hoheitliche Organisationsrecht (nicht die Privatrechtsordnung)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kompetenzverteilung in der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Kompetenzverteilung in Art. 10 - 15 B-VG gilt &lt;strong&gt;nicht&lt;/strong&gt; für nicht-hoheitliche Verwaltung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wachkörper&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bewaffnete Formationen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank"&gt;Art. 78d Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundespolizei: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Justizwache: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gemeindewachkörper: &lt;strong&gt;Gemeinde&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Organisation und Führung der Bundespolizei und die Org. sonstiger Wachkörper (Ausnahme: Gemeindewachkörper) ist Bundessache&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird mit Widersprüchen in Grundrechtsquellen umgegangen? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Dasselbe Grundrecht kann an verschiedenen Stellen der Verfassungsordnung verankert sein. Widersprüche sind nach den Regeln der &lt;strong style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Derogation &lt;/strong&gt;aufzulösen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;Bundespolizei&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 10 Abs. 1 Z. 14 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, &lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 78d B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Bund&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Innere Sicherheit&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Unmittelbare Bundesverwaltung, BM für Inneres an der Spitze&lt;/li&gt;&lt;li&gt;im Bereich jeder Landespolizeidirektion sind Bezirkskommanden bzw. Stadtpolizeikommanden eingerichtet&lt;/li&gt;&lt;li&gt;Wachkörper Bundespolizei ist von Sicherheitsbehörden des Bundes zu unterscheiden!&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;AVG: Vorlageantrag&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Erlaubt der Verwaltungsbehörde erster Instanz eigenen Bescheid binnen zwei Monaten mittles Berufungsvorentscheidung abzuändern (&lt;a href="https://www.jusline.at/gesetz/avg/paragraf/64a" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;64a Abs. 1 AVG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Verlangt die Partei binnen zwei Wochen nach Zustellung der Berufungsvorentscheidung eine Entscheidung durch die Berufungsbehörde (&lt;strong&gt;Vorlageantrag &lt;/strong&gt;nach &lt;a href="https://www.jusline.at/gesetz/avg/paragraf/64a" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;§&amp;nbsp;64a Abs. 2 AVG&lt;/a&gt;), dann tritt die Berufungsvorentscheidung sofort außer kraft.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Gemeindewachkörper &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118 Abs. 8 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118a B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Gemeinde&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Aufgaben im kommunalen Bereich&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind verfassungsimmanente&amp;nbsp;Schranken? Was bedeuten Sie für Grundrechte? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einschränkung des Schutzbereichs des Grundrechts durch andere Grundrechte und objektive Verfassungsbestimmungen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Der Schutzbereich des Grundrechts geht daher nicht zwangsläufig so weit, wie die Formulierung des Textes erwarten lässt.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Kategorien/Arten von Grundrechten gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gleichheitsrechte (Gleichheitssatz)&lt;/li&gt;&lt;li&gt;Freiheitsrechte (= Abwehrrechte)&lt;/li&gt;&lt;li&gt;Soziale Grundrechte&lt;/li&gt;&lt;li&gt;Politische Grundrechte (= Teilhaberechte)&lt;/li&gt;&lt;li&gt;Verfahrensgrundrechte&lt;/li&gt;&lt;li&gt;Sonstige Grundrechte&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gleichheitsrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz: &lt;a href="https://www.jusline.at/gesetz/stgg/paragraf/artikel2" rel="noopener noreferrer" target="_blank"&gt;Art 2. StGG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art 7 Abs. 1 B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Recht auf Gleichbehandlung von Fremden untereinander&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BVG über die Beseitigung aller Formen rassischer Diskriminierung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet &lt;strong&gt;gleich&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gleiche Betroffenheit der Rechtsunterworfenen unter Berücksichtigung aller rechtlichen und tatsächlichen Wirkungen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann der Gesetzgeber ungleiches gleich behandeln?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, bei unterschieden im Tatsächlichen (z.B.: unterschiedliches Einkommen) muss der Gesetzgeber auch unterschiedliche Regelungen erlassen (Gebot &lt;strong&gt;sachlicher Differenzierung&lt;/strong&gt;) &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gleichheitsformel&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitskonform&lt;/strong&gt;, wenn sie sachlich gerechtfertigt ist. Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitswidrig&lt;/strong&gt;, wenn sie &lt;strong&gt;nicht &lt;/strong&gt;sachlich gerechtfertigt ist.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;(z.B.: Matura als Voraussetzung für Studium ist konform, da allgemeine Vorbildung notwendig ist, um sinnvoll zu studieren)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wann verletzt ein einfaches Gesetz den Gleichheitssatz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wenn es:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Unsachliche Differenzierungen vornimmt&lt;/strong&gt; (Gleiches ist gleich zu behandeln, soweit kein Grund für eine Ungleichbehandlung vorliegt)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gebotene Differenzierungen unterlässt&lt;/strong&gt; (Ungleiches darf nicht ohne Grund gleich behandelt werden)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Sachlich nicht gerechtfertigte Regelungen&lt;/strong&gt; trifft.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wen bindet der Gleichheitssatz, wen nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bindet den:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li&gt;einfachen Landesgesetzgeber&lt;/li&gt;&lt;li&gt;Landesverfassungsgesetzgeber&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Bindet nicht:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bundesverfassungsgesetzgeber, weil der Gleichheitssatz bloß ein Bundesverfassungsgesetz ist. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Willkürverbot, was ist Willkür?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gilt für die Vollziehung&lt;/li&gt;&lt;li&gt;Verbot willkürlicher Entscheidungen&lt;/li&gt;&lt;li&gt; Willkür liegt vor, wenn eine Behörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;eine Person absichtlich benachteiligt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;ohne Rechtsgrundlage entscheidet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;die Rechtslage verkennt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gravierende Verfahrensfehler begeht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Schützt der Gleichheitssatz vor eingriffen in den Freiraum der Menschen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, er ist kein Freiheitsrecht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Freiheitsrechte, warum heißen sie auch Abwehrrechte?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Grundrechte, durch welche die Verfassung den Menschen Freiräume gewährleistet.&lt;/li&gt;&lt;li&gt;Erlauben dem einzelnen verfassungswidrige Eingriffe des Staats in den geschützten Freiraum abzuwehren (über den dafür vorgesehenen besonderen Prozessweg) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beispiele für Freiheitsrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Kunstfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Freiheitsrechte mit Gesetzesvorbehalt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Relativ schützendes&lt;/strong&gt; Freiheitsrecht&lt;/li&gt;&lt;li&gt;Eingriff in den Schutzbereich durch einfache Gesetze möglich - unter Beachtung der &lt;strong&gt;materiellen Eingriffsschranken&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Steht unter materiellem Gesetzesvorbehalt, weil der Gesetzgeber bei seinen Regelungen inhaltlich an Vorhaben der Verfassung gebunden ist.&lt;/li&gt;&lt;li&gt;Der Verfassungstext sagt, ob ein Grundrecht unter materiellem Gesetzesvorbehalt steht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Wie muss der Gesetzgeber handeln, wenn der Verfassungstext keine Vorgaben für einen gesetzlichen Eingriff auf ein Freiheitsrecht hat? &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Es wird die Auslegung herangezogen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesetzgeber muss nachweislich ein konkretes öffentliches Interesse verfolgen&lt;/li&gt;&lt;li&gt;Der Eingriff muss verhältnismäßig sein (Verhältnismäßigkeitsgrundsatz), die Belastung der Freiheit darf nicht höher sein, als zur Erreichung des öffentlichen Interesses unbedingt erforderlich&lt;/li&gt;&lt;li&gt;Eingriff muss sachlich sein&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was besagt die Wesensgehaltssperre?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Freiheitsrecht darf durch einen gesetzlichen Eingriff nicht hinfällig werden, ein Minimum an Freiheit muss bestehen bleiben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eingriffsvorbehalt vs. Ausgestaltungsvorbehalt bei Freiheitsrechten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Eingriffsvorbehalt &lt;/strong&gt;erlaubt in den Schutzbereich des Freiheitsrechts einzugreifen, und diesen durch Gesetz einzuschränken&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Ausgestaltungsvorbehalt &lt;/strong&gt;erlaubt  nur ein Freiheitsrecht näher auszugestalten, nicht in den Schutzbereich einzugreifen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Präzisiert ein Gesetz (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 18 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Verwaltungsapparat des BP?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Präsidentschaftskanzl&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;ei&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man Verwaltungsakte des BP?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Entschließungen&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsbehörden des Bundes&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt; richten die Sicherheitsbehörden ein&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/spg/paragraf/2" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;2 Abs. 2 SPG&lt;/a&gt; definiert Aufgaben der Sicherheitsverwaltung&lt;/li&gt;&lt;li&gt;2/3 Ebenen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;BM für Inneres&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landespolizeidirektion&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li&gt;Mischform aus mittelbarer und unmittelbarer Bundesverwaltung, weil auf unterer Ebene teilweise Bezirksverwaltungsbehörden als Landesbehörden eingebunden sind&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sicherheitsverwaltung: Was is das Bundesheer? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;militärische Formation des Bundes, zählt zur unmittelbaren Bundesverwaltung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Arten der Leitung der Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Aufsicht: &lt;/strong&gt;ex post - nach der Handlung&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Rechtsaufsicht: gesetzmäßig&lt;/li&gt;&lt;li&gt;Zweckaufsicht: zweckmäßig&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Weisung: &lt;/strong&gt;ex ante - vor der Handlung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Amt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einer Behörde zugeordneter bürokratischer Hilfsapparat, handelt nicht selbst hoheitlich. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Approbationsbefugnis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Innerbehördliches Mandat&lt;/li&gt;&lt;li&gt;Organwalter kann Aufgaben an das Amt übertragen&lt;/li&gt;&lt;li&gt;Approbationsbefugte Beamte können damit "im Auftrag" der Behörde Bescheide oder Verordnungen erlassen, der Organwalter ist jedoch immer weisungsbefugt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Formen des Verwaltungshandelns&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bescheid&lt;/li&gt;&lt;li&gt;Verordnung&lt;/li&gt;&lt;li&gt;Maßnahme&lt;/li&gt;&lt;li&gt;Schlicht-hoheitliches Handeln&lt;/li&gt;&lt;li&gt;(Verwaltungsrechtlicher Vertrag)&lt;/li&gt;&lt;li&gt;Privatrechtliches Handeln&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Organwalter (Definition, Zuordnung, Arten)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Den abstrakten Organen werden konkrete Menschen zugeordnet. &lt;/li&gt;&lt;li&gt;Gesetzessprache verwendet Organ und Organwalter oft synonym&lt;/li&gt;&lt;li&gt;Immer einer Gebietskörperschaft zugeordnet&lt;/li&gt;&lt;li&gt;Arten (Gesamtbegriff &lt;strong&gt;öffentliche Bedienstete&lt;/strong&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Beamte = ernannte berufsmäßige Organe&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertragsbedienstete = vertraglich bestellte Organe&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Privatrechtliches Handeln &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gebietskörperschaften können als juristische Personen auch privatrechtlich handeln -&amp;gt; Fiskalverwaltung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zuständigkeit&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die &lt;strong&gt;Möglichkeit&lt;/strong&gt; einer Organisation in einer Sache zu handeln&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ergehen unmittelbar aus Bundesverfassung (ohne weitere Gesetze)&lt;/li&gt;&lt;li&gt;Gesetzesergänzend, gesetzesvertretend oder gesetzesändernd.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aufgabe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Organisation &lt;strong&gt;soll&lt;/strong&gt; in einer Sache handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Pflichtaufgabe: muss Handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliche Aufgabe: im Interesse der Allgemeinheit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Arten von Bescheiden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Leistungsbescheid&lt;/strong&gt;: ordnet Tun oder Unterlassen an, &lt;strong&gt;vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gestaltungsbescheid&lt;/strong&gt;: Gestaltet eine Rechtslage neu, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Feststellungsbescheid&lt;/strong&gt;: verbindliche Feststellung einer unklaren Rechtslage, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Ortspolizeiliche Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Von Gemeinden erlassen &lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 118 Abs. 6 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;im eigenen Wirkungsbereich&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;nur zur Abwehr drohender oder bestehender Missstände&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dürfen nicht gegen Bundes- oder Landesrecht verstoßen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Aufgabe&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Öffentliche Aufgabe, die der Gesetzgeber dem Staat zuweist&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rechtsverordnung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach außen&lt;/li&gt;&lt;li&gt;Legt Rechte und Pflichten für Bürger fest&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsaufgabe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatliche Aufgabe der Verwaltung einer Gebietskörperschaft&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsverordnung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach innen, regelt die interne Verwaltungsorganisation&lt;/li&gt;&lt;li&gt;muss nicht kundgemacht werden (Abgrenzung zur Weisung schweirig)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: Verordnung&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (Art. 139 B-VG)&lt;/li&gt;&lt;li&gt;Generelle (abstrakte oder konkrete) Anordnung einer Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Erst mit Kundmachung gültig&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Maßnahme&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ausübung unmittelbarer verwaltungsbehördlicher Befehls- und Zwangsgewalt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;individueller Akt direkt auf gesetzlicher Grundlage z.B.: Festnahme&lt;/li&gt;&lt;li&gt;Wird wie Rechtsnorm mit Zwang durchgesetzt.&lt;/li&gt;&lt;li&gt;Anfechtung ungerechter Behandlung nicht möglich (anders als bei individueller Rechtsnorm = Bescheid) → Rechtsschutzlücke → Maßnahmebeschwerde vor Verwaltungsgericht (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 Z. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Organisation&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abstrakte Konstrukte der Rechtsordnung denen bestimmte Aufgaben zukommen, bestehen meist aus vielen Organen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;z.B.: Gebietskörperschaft, Verwaltungsorganisation, Gerichtsorganisation&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Arten von Verordnungen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ortspolizeiliche Verordnung&lt;/li&gt;&lt;li&gt;Rechtsverordnung&lt;/li&gt;&lt;li&gt;Verwaltungsverordnung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Organ&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Abstrakt, dem Organ sind &lt;strong&gt;Organzuständigkeiten &lt;/strong&gt;zugeordnet, diese sind teil der Zuständigkeit der &lt;strong&gt;Organisation&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Behörde&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verwaltungsorgane mit Rechtssetzungsbefugnissen (handeln hoheitlich)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Schlicht-hoheitliches Handeln&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hoheitliches Handeln, dass nicht auf dem Erlass von Rechtsnormen beruht.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polizeistreife&lt;/li&gt;&lt;li&gt;Verkehrskontrolle&lt;/li&gt;&lt;li&gt;Urkundenausstellung&lt;/li&gt;&lt;li&gt;Auskunft durch Behörde&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hat die Gemeinde Gesetzgebende oder richterliche Zuständigkeiten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, sie ist eine Verwaltungsorganisation&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;In welchen Artikeln werden Gemeindeverwaltungsangelegenheiten geregelt? &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel115" rel="noopener noreferrer" target="_blank"&gt;Art. 115ff B-VG&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Darf die staatliche Verwaltung den Gemeinden Weisungen erteilen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, die Gemeinden sind autonom.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wem sind die Organe der Gemeinde politisch Verantwortlich?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Den Gemeindebürgern, &lt;strong&gt;nicht&lt;/strong&gt; den obersten Verwaltungsorganen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer wählt die Gemeinde(verwaltungs)organe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Unmittelbar das Gemeindevolk (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel117" rel="noopener noreferrer" target="_blank"&gt;Art. 117 Abs. 2,6 B-VG&lt;/a&gt;) (Sonst: Verwaltungsorgane nicht vom Volk gewählt)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gemeinden sind Weisungsfrei. Was bedeutet das innerhalb der Gemeinde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Innerhalb der Gemeinde herrscht Weisungsbindung. &lt;/li&gt;&lt;li&gt;Der Gemeinderat ist gegenüber den anderen Organen weisungsberechtigt&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Was ist die Rechtsaufsicht der Staaten über die Gemeinden?&lt;/p&gt;</t>
@@ -85,786 +1609,12 @@
     <t>&lt;p&gt;Die staatliche Verwaltung darf keine Weisungen erteilen, überprüft aber das Gemeindehandeln auf &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Gesetzeswidrigkeit &lt;/span&gt;und schreitet bei Übertretungen ein. &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Gemeinden sind Weisungsfrei. Was bedeutet das innerhalb der Gemeinde?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Innerhalb der Gemeinde herrscht Weisungsbindung. &lt;/li&gt;&lt;li&gt;Der Gemeinderat ist gegenüber den anderen Organen weisungsberechtigt&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer wählt die Gemeinde(verwaltungs)organe&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Unmittelbar das Gemeindevolk (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel117" rel="noopener noreferrer" target="_blank"&gt;Art. 117 Abs. 2,6 B-VG&lt;/a&gt;) (Sonst: Verwaltungsorgane nicht vom Volk gewählt)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wem sind die Organe der Gemeinde politisch Verantwortlich?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Den Gemeindebürgern, &lt;strong&gt;nicht&lt;/strong&gt; den obersten Verwaltungsorganen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Darf die staatliche Verwaltung den Gemeinden Weisungen erteilen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein, die Gemeinden sind autonom.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;In welchen Artikeln werden Gemeindeverwaltungsangelegenheiten geregelt? &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel115" rel="noopener noreferrer" target="_blank"&gt;Art. 115ff B-VG&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Hat die Gemeinde Gesetzgebende oder richterliche Zuständigkeiten&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein, sie ist eine Verwaltungsorganisation&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist eine formalgesetzliche Delegation?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ein Gesetz bestimmt das Handeln der Vollziehung nicht oder nur sehr ungenau, dies ist verfassungswidrig (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 18. Abs 1. B-VG&lt;/a&gt;). Der Gesetzgeber delegiert daher die Pflicht das Recht zu bestimmen an die Vollziehung.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Landesverwaltung: Landesregierung (Zuständigkeit, Zusammensetzung, Entscheidungsfindung, Wahl, Regierungsart, Amt)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Oberstes Organ der Landesverwaltung, zuständig für hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art. 11-15 B-VG&lt;/a&gt;) und nicht hoheitliche (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;) Verwaltung&lt;/li&gt;&lt;li&gt;Besteht aus Landeshauptmann und weiteren Landesräten (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank"&gt;Art. 101 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Entscheidet als Kollegialorgan, Landesräte können teilweise auch als Einzelorgane tätig werden (Ämter der Landesregierungen)&lt;/li&gt;&lt;li&gt;Parlamentarisches System: Landtag wählt Regierung &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel101" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(136, 125, 220);"&gt;Art. 101 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Meist Mehrheitsregierung, außer in OÖ, NÖ und W → Proporzregierung=Konzentrationsregierung&lt;/li&gt;&lt;li&gt;Amt der Landesregierung: Hilfsapparat der Regierung &lt;strong&gt;&lt;em&gt;und &lt;/em&gt;&lt;/strong&gt;des Landeshauptmanns.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen: Grundrechte im B-VG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art. 7 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Recht auf den gesetzlichen Richter (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 83 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Recht der Richter auf Unabhängigkeit (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Recht der Gemeinden auf Selbstverwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Weisungsfreie Vollziehung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Unabhängige &lt;strong&gt;Richter &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;weisungsfreier Teil der &lt;strong&gt;Justizverwaltung &lt;/strong&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 2 B-VG&lt;/a&gt;): Richtersenate und Kommissionen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gemeindeselbstverwaltung&lt;/strong&gt;: Gemeinderat und Bürgermeister (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank" style="color: rgb(136, 125, 220); background-color: rgb(40, 45, 88);"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Weisungsfrei, unterliegen nur Aufsicht der Bundes/Landesbehörden.&lt;/li&gt;&lt;li&gt;Einfacher Bundes/Landesgesetzgeber kann weitere Verwaltungsorgane bei Rechtfertigung weisungsfrei stellen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel20" rel="noopener noreferrer" target="_blank"&gt;Art. 20 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie regelt die (Finanz)Verfassung wie der Staat zu seinem Geld kommt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Konstruiert den Staat als Abgabestaat&lt;/li&gt;&lt;li&gt;Staat bringt das Geld zwangsweise durch hoheitliche Abgaben, Gebühren und Beiträge auf.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie wird das Budget bestimmt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In einem Budgetgesetz (Bundesfinanzgesetz) auf der Grundlage eines Bundesfinanzrahmengesetzes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie nennt man das Geld- und Vermögensrelevante Handeln der Verwaltung?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gebarung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wo liegt die Budgethoheit, was bedeutet sie?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beim Parlament, das Parlament entscheidet, wofür die Verwaltung welche Summen ausgeben darf. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sind Gemeinden unter dem Grundrechtsschutz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, die Gemeindeautonomie (Recht auf Selbstverwaltung, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer ist ausgenommen aus dem Grundrechtsschutz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Staaten (Bund und Land), die Grundrechte sind nicht dazu da den Staat vor sich selbst, Land vor dem Bund oder Bund vor dem Land zu schützen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Können Gebietskörperschaften Träger von Grundrechten sein?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, juristische Personen&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; (des öffentlichen und des Privatrechts)&lt;/span&gt; können Träger von Grundrechten sein, wenn dies &lt;strong&gt;wesensmäßig &lt;/strong&gt;möglich ist.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gilt der Gleichheitssatz auch für die nicht-hoheitliche Verwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, Diskriminierung ist verboten, und Sachlichkeit wird verlangt. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Fiskalgeltung der Grundrechte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Bindung des Staates an die Grundrechte im Rahmen der Privatwirtschaftsverwaltung.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Die Verwaltung kann sowohl hoheitlich als auch privatrechtlich Handeln. Gilt der Grundrechtsschutz auch gegen die nicht-hoheitlichen Handlungen?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Ja&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Wie nennt man Verwaltungsakte des BP?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Entschließungen&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist der Verwaltungsapparat des BP?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Präsidentschaftskanzl&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;ei&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsverwaltung: Was is das Bundesheer? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;militärische Formation des Bundes, zählt zur unmittelbaren Bundesverwaltung&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsbehörden des Bundes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt; richten die Sicherheitsbehörden ein&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/spg/paragraf/2" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;2 Abs. 2 SPG&lt;/a&gt; definiert Aufgaben der Sicherheitsverwaltung&lt;/li&gt;&lt;li&gt;2/3 Ebenen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;BM für Inneres&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landespolizeidirektion&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li&gt;Mischform aus mittelbarer und unmittelbarer Bundesverwaltung, weil auf unterer Ebene teilweise Bezirksverwaltungsbehörden als Landesbehörden eingebunden sind&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Präzisiert ein Gesetz (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel18" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 18 Abs. 2 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kompetenzverteilung in der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Kompetenzverteilung in Art. 10 - 15 B-VG gilt &lt;strong&gt;nicht&lt;/strong&gt; für nicht-hoheitliche Verwaltung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist das hoheitliche Organisationsrecht einer Gebietskörperschaft?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bestimmt die innere Willensbildung des &lt;strong&gt;privatrechtlichen&lt;/strong&gt; Handelns&lt;/li&gt;&lt;li&gt;Zuständigkeit für Kaufverträge, Willensbildung, inhaltliche Gestaltung von Verträgen ⇾ bestimmt das hoheitliche Organisationsrecht (nicht die Privatrechtsordnung)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie funktioniert das Gesetzmäßigkeitsgebot in der nicht-hoheitlichen Verwaltung?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Geregelt durch das Verwaltungsprivatrecht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;differenziertes Legalitätsprinzip: &lt;/strong&gt;Auch privatrechtliche Handlungen unterliegen dem Gesetzmäßigkeitsgebot,  es ist aber flexibler und weniger streng, als für hoheitliches Handeln &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist der Inhalt der nicht-hoheitlichen Verwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Privatwirtschaftsverwaltung&lt;/li&gt;&lt;li&gt;Fiskalverwaltung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer kann nicht-hoheitlich handeln, wer nicht?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Nur die juristischen Personen: Bund, Länder und Gemeinden, also nur die Verwaltung. &lt;/li&gt;&lt;li&gt;Parlamente und Gerichte handeln  immer hoheitlich&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Gebietskörperschaften sind Träger von Privatrechten?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel17" rel="noopener noreferrer" target="_blank"&gt;Art. 17 B-VG&lt;/a&gt;: Bund und Länder sind juristische Personen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel116" rel="noopener noreferrer" target="_blank"&gt;Art. 116 Abs. 2 B-VG&lt;/a&gt;: Gemeinden sind juristische Personen&lt;/li&gt;&lt;li&gt;Vermögensfähig sind also der Bund, die Länder und die Gemeinden, nicht der Gesamtstaat Österreich.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Unterschiede zwischen juristischen Personen des Privatrechts und des öffentlichen Rechts? Was ist identisch? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Unterschiede:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Privatrecht: Durch Vertrag errichtet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliches Recht: Durch Gesetz errichtet&lt;/li&gt;&lt;li&gt;Beide haben dieselbe (Privat)Rechtsfähigkeit, dieselben privaten Rechte und Pflichten&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist ein Organisationsrecht? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Regelt welche Organe eine juristische Person hat, und welche Organwalter für die jur. Person handeln.&lt;/li&gt;&lt;li&gt;Insbesondere wer intern entscheidet, und wer nach außen vertritt.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Jur. Person handelt immer nur durch vertretungsbefugte Organe.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die zwei Kernaussagen der Wesenstheorie?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Umfang der Rechte von jur. Personen im wesentlichen auf &lt;strong&gt;Vermögensrechte &lt;/strong&gt;beschränkt = &lt;strong&gt;Vermögensfähigkeit&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Jur. Personen sind rechtsfähig, benötigen aber Menschen um für sie zu handeln (&lt;strong&gt;Organisationsrecht&lt;/strong&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Können juristische Personen Rechtsträger sein? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Privatrechtsordnung erlaubt, dass juristische Personen von der Rechtsordnung als Rechtsträger behandelt wären, als wären sie Menschen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind juristische Personen? &lt;/p&gt;&lt;p&gt;Wie werden sie noch genannt?&lt;/p&gt;&lt;p&gt;Wie wird entschieden, welche juristischen Personen es gibt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;= virtuelle Menschen&lt;/li&gt;&lt;li&gt;Auch Rechtsperson oder Körperschaft genannt&lt;/li&gt;&lt;li&gt;Gesetzgebung entscheidet ob und welche juristischen Personen es gibt.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind natürliche Personen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;= Menschen&lt;/li&gt;&lt;li&gt;Träger von Rechten und Pflichten&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ABGB&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Allgemeines bürgerliches Gesetzbuch&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer ist der gesetzliche Vertreter für ein Kind?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Eltern (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/167" rel="noopener noreferrer" target="_blank"&gt;§ 167 ABGB&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ist jeder Mensch handlungsfähig?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein (&lt;a href="https://www.jusline.at/gesetz/abgb/paragraf/21" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;21 ABGB&lt;/a&gt;), wer nicht handlungsfähig ist, braucht einen Vertreter der für ihn handelt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Handlungsfähigkeit?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, durch eigenes Handeln Rechte zu erwerben und Pflichten zu begründen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Rechtsfähigkeit? Wer hat sie wie lange? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Die Fähigkeit, Träger privater Rechte und Pflichten zu sein (z.B.: Eigentümer von Geld und Vermögen)&lt;/li&gt;&lt;li&gt;Jeder Mensch ist von Geburt bis zum Tod rechtsfähig.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einzelne Grundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Recht auf persönliche Freiheit&lt;/li&gt;&lt;li&gt;Hausrecht&lt;/li&gt;&lt;li&gt;Versammlungsfreiheit&lt;/li&gt;&lt;li&gt;Meinungsfreiheit&lt;/li&gt;&lt;li&gt;...&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist das &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Recht auf den gesetzlichen Richter?&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt; Justizgrundrecht, das festlegt, dass für Rechtsstreitigkeiten und Prozesse bereits im Voraus bestimmt sein muss, welches&amp;nbsp;&lt;/span&gt;Gericht&amp;nbsp;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;und welcher Richter zuständig ist (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel83" rel="noopener noreferrer" target="_blank"&gt;Art.&amp;nbsp;83 Abs. 2&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel87" rel="noopener noreferrer" target="_blank"&gt;Art. 87 Abs. 3&amp;nbsp;B-VG&lt;/a&gt;&lt;span style="background-color: rgb(255, 255, 255); color: rgb(102, 102, 102);"&gt;)&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verfahrensgrundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wehren den Staat nicht ab, sondern verlangen Einhaltung der durch die Verfassung gewährleisteten Verfahrensrechte &lt;/li&gt;&lt;li&gt;Beispiele: Recht auf den gesetzlichen Richter, Recht auf faires Verfahren, keine Strafe ohne Gesetz.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Politische Grundrechte (= Teilhaberechte)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Durch die Verfassung gewährleistete Recht der Teilnahme der Menschen am Staat&lt;/li&gt;&lt;li&gt;Keine Abwehrrechte, sondern Teilhaberechte (status activus)&lt;/li&gt;&lt;li&gt;Aktive Teilhabe an der Staatswillensbildung und Staatsgewalt&lt;/li&gt;&lt;li&gt;Beispiele: Wahlrecht, Recht auf Volksbegehren, Petitionsrecht, Gründung und Betätigungsfreiheit polit. Parteien.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Soziale Grundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Österreich ist ein Sozialstaat, die Verfassung kennt aber &lt;strong&gt;keine&lt;/strong&gt; sozialen Grundrechte.&lt;/li&gt;&lt;li&gt;Begründung: könnten den Staat wirtschaftlich überfordern.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Freiheitsrechte mit staatlichen Schutzpflichten&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Nicht nur Abwehrrecht gegen Staat&lt;/li&gt;&lt;li&gt;Anspruch gegen den Staat, dass er den Freiraum auch vor Beschädigung durch andere Privatpersonen schützt&lt;/li&gt;&lt;li&gt;Beispiele: Recht auf Leben (Art. 2 EMRK), Verbot der Folter, ..&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Freiheitsrechte ohne Gesetzesvorbehalt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Absolut schützendes Freiheitsrecht&lt;/li&gt;&lt;li&gt;Kein Eingriff in den Schutzbereich durch einfache Gesetze zulässig&lt;/li&gt;&lt;li&gt;Beispiele: Verbot der Folter, Verbot der Todesstrafe, ... &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was sind die Organe einer Statutarstadt? Was sind die Ämter dafür?&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gemeinderat&lt;/li&gt;&lt;li&gt;Stadtsenat&lt;/li&gt;&lt;li&gt;Bürgermeister&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Amt für alle 3: Magistrat&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Quoren für Landesverfassungsgesetze?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Präsenz 1/2, Konsens 2/3 (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel99" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 99 Abs. 2 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Arten der Leitung der Verwaltung?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Aufsicht: &lt;/strong&gt;ex post - nach der Handlung&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Rechtsaufsicht: gesetzmäßig&lt;/li&gt;&lt;li&gt;Zweckaufsicht: zweckmäßig&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Weisung: &lt;/strong&gt;ex ante - vor der Handlung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungshandeln: Bescheid&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;3 formale Merkmale (nicht vorhanden: Absolut nichtig)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine Verwaltungsbehörde handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss an einen individuellen Adressaten gerichtet sein&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es muss eine behördliche Anordnung enthalten&lt;/li&gt;&lt;li&gt;Gesetzgeber kann weitere Merkmale hinzufügen, Auswirkung des Fehlens legt Gesetzgeber fest (z.B.: relativ nichtig)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eingriffsvorbehalt vs. Ausgestaltungsvorbehalt bei Freiheitsrechten&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Eingriffsvorbehalt &lt;/strong&gt;erlaubt in den Schutzbereich des Freiheitsrechts einzugreifen, und diesen durch Gesetz einzuschränken&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Ausgestaltungsvorbehalt &lt;/strong&gt;erlaubt  nur ein Freiheitsrecht näher auszugestalten, nicht in den Schutzbereich einzugreifen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was besagt die Wesensgehaltssperre?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ein Freiheitsrecht darf durch einen gesetzlichen Eingriff nicht hinfällig werden, ein Minimum an Freiheit muss bestehen bleiben.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Wie muss der Gesetzgeber handeln, wenn der Verfassungstext keine Vorgaben für einen gesetzlichen Eingriff auf ein Freiheitsrecht hat? &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Es wird die Auslegung herangezogen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesetzgeber muss nachweislich ein konkretes öffentliches Interesse verfolgen&lt;/li&gt;&lt;li&gt;Der Eingriff muss verhältnismäßig sein (Verhältnismäßigkeitsgrundsatz), die Belastung der Freiheit darf nicht höher sein, als zur Erreichung des öffentlichen Interesses unbedingt erforderlich&lt;/li&gt;&lt;li&gt;Eingriff muss sachlich sein&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Freiheitsrechte mit Gesetzesvorbehalt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Relativ schützendes&lt;/strong&gt; Freiheitsrecht&lt;/li&gt;&lt;li&gt;Eingriff in den Schutzbereich durch einfache Gesetze möglich - unter Beachtung der &lt;strong&gt;materiellen Eingriffsschranken&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Steht unter materiellem Gesetzesvorbehalt, weil der Gesetzgeber bei seinen Regelungen inhaltlich an Vorhaben der Verfassung gebunden ist.&lt;/li&gt;&lt;li&gt;Der Verfassungstext sagt, ob ein Grundrecht unter materiellem Gesetzesvorbehalt steht&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beispiele für Freiheitsrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheit&lt;/li&gt;&lt;li&gt;Erwerbsfreiheit&lt;/li&gt;&lt;li&gt;Kunstfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Freiheitsrechte, warum heißen sie auch Abwehrrechte?&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Grundrechte, durch welche die Verfassung den Menschen Freiräume gewährleistet.&lt;/li&gt;&lt;li&gt;Erlauben dem einzelnen verfassungswidrige Eingriffe des Staats in den geschützten Freiraum abzuwehren (über den dafür vorgesehenen besonderen Prozessweg) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Schützt der Gleichheitssatz vor eingriffen in den Freiraum der Menschen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein, er ist kein Freiheitsrecht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Willkürverbot, was ist Willkür?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gilt für die Vollziehung&lt;/li&gt;&lt;li&gt;Verbot willkürlicher Entscheidungen&lt;/li&gt;&lt;li&gt; Willkür liegt vor, wenn eine Behörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;eine Person absichtlich benachteiligt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;ohne Rechtsgrundlage entscheidet&lt;/li&gt;&lt;li class="ql-indent-1"&gt;die Rechtslage verkennt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gravierende Verfahrensfehler begeht&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wen bindet der Gleichheitssatz, wen nicht?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bindet den:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li&gt;einfachen Landesgesetzgeber&lt;/li&gt;&lt;li&gt;Landesverfassungsgesetzgeber&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Bindet nicht:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bundesverfassungsgesetzgeber, weil der Gleichheitssatz bloß ein Bundesverfassungsgesetz ist. &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wann verletzt ein einfaches Gesetz den Gleichheitssatz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wenn es:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Unsachliche Differenzierungen vornimmt&lt;/strong&gt; (Gleiches ist gleich zu behandeln, soweit kein Grund für eine Ungleichbehandlung vorliegt)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gebotene Differenzierungen unterlässt&lt;/strong&gt; (Ungleiches darf nicht ohne Grund gleich behandelt werden)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Sachlich nicht gerechtfertigte Regelungen&lt;/strong&gt; trifft.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gleichheitsformel&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitskonform&lt;/strong&gt;, wenn sie sachlich gerechtfertigt ist. Eine Ungleichbehandlung ist &lt;strong&gt;gleichheitswidrig&lt;/strong&gt;, wenn sie &lt;strong&gt;nicht &lt;/strong&gt;sachlich gerechtfertigt ist.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;(z.B.: Matura als Voraussetzung für Studium ist konform, da allgemeine Vorbildung notwendig ist, um sinnvoll zu studieren)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kann der Gesetzgeber ungleiches gleich behandeln?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nein, bei unterschieden im Tatsächlichen (z.B.: unterschiedliches Einkommen) muss der Gesetzgeber auch unterschiedliche Regelungen erlassen (Gebot &lt;strong&gt;sachlicher Differenzierung&lt;/strong&gt;) &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was bedeutet &lt;strong&gt;gleich&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gleiche Betroffenheit der Rechtsunterworfenen unter Berücksichtigung aller rechtlichen und tatsächlichen Wirkungen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gleichheitsrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gleichheitssatz: &lt;a href="https://www.jusline.at/gesetz/stgg/paragraf/artikel2" rel="noopener noreferrer" target="_blank"&gt;Art 2. StGG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel7" rel="noopener noreferrer" target="_blank"&gt;Art 7 Abs. 1 B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Recht auf Gleichbehandlung von Fremden untereinander&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BVG über die Beseitigung aller Formen rassischer Diskriminierung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Kategorien/Arten von Grundrechten gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Gleichheitsrechte (Gleichheitssatz)&lt;/li&gt;&lt;li&gt;Freiheitsrechte (= Abwehrrechte)&lt;/li&gt;&lt;li&gt;Soziale Grundrechte&lt;/li&gt;&lt;li&gt;Politische Grundrechte (= Teilhaberechte)&lt;/li&gt;&lt;li&gt;Verfahrensgrundrechte&lt;/li&gt;&lt;li&gt;Sonstige Grundrechte&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind verfassungsimmanente&amp;nbsp;Schranken? Was bedeuten Sie für Grundrechte? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einschränkung des Schutzbereichs des Grundrechts durch andere Grundrechte und objektive Verfassungsbestimmungen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Der Schutzbereich des Grundrechts geht daher nicht zwangsläufig so weit, wie die Formulierung des Textes erwarten lässt.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie wird mit Widersprüchen in Grundrechtsquellen umgegangen? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Dasselbe Grundrecht kann an verschiedenen Stellen der Verfassungsordnung verankert sein. Widersprüche sind nach den Regeln der &lt;strong style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Derogation &lt;/strong&gt;aufzulösen.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie unterteilt die Verfassung unter objektivem Recht gewährleistete Rechte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nach Adressatenkreis in Staatsbürgerrechte und Menschenrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Drittwirkung der Grundrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Durch Trennung von Staat und Gesellschaft gibt es &lt;strong&gt;keine Drittwirkung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Grundrechte gelten nur gegen den Staat, nicht Mensch gegen Mensch&lt;/li&gt;&lt;li&gt;Ausnahmen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gesetzlich angeordnete Drittwirkungen (z.B.: Datenschutzgesetz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Grundrechte mit staatlicher Schutzpflicht (Recht auf Leben)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Mittelbare Drittwirkung im Zivilrecht (Auslegung, Sittenklauseln)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wo werden über Verstöße gegen Grundrechte entschieden?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;OGH&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wo werden in der Regel über Verstöße gegen subjektives Recht entschieden?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;im VfGH&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie wird der Schutzbereich eines Grundrechts festgelegt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Verfassung die ein Grundrecht normiert, legt den Schutzbereich mit dem Wortlaut des Verfassungstextes fest. Diese Begriffe sind allerdings auslegungsbedürftig (z.&amp;nbsp;B.: Eigentumsfreiheit hat den Schutzbereich "Eigentum")&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Einzelne Grundrechte in Staatsverträgen&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Rechte der Minderheiten&lt;/li&gt;&lt;li&gt;Religionsfreiheit&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Grundrechtsquellen: Grundrechte in einfachen Gesetzen&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Recht auf Zivildienst&lt;/li&gt;&lt;li&gt;Recht auf Datenschutz&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Quellen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Grundrechtskataloge&lt;/li&gt;&lt;li&gt;Grundrechtsgesetze&lt;/li&gt;&lt;li&gt;Grundrechte im B-VG&lt;/li&gt;&lt;li&gt;Grundrechte in einfachen Gesetzen&lt;/li&gt;&lt;li&gt;Einzelne Grundrechte in Staatsverträgen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtsgesetze&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Hausrechts Gesetz &lt;/li&gt;&lt;li&gt;Beschluss der provisorischen Nationalversammlung über die Aufhebung der Zensur 1918&lt;/li&gt;&lt;li&gt;PersFrG (Bundesverfassungsgesetz zum Schutz der persönlichen Freiheit)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundrechtsquellen: Grundrechtskataloge&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;StGG 1867&lt;/li&gt;&lt;li&gt;EMRK + ZP&lt;/li&gt;&lt;li&gt;BVG Kinderrechte&lt;/li&gt;&lt;li&gt;EU Grundrechtecharta&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gegen wen schützen Grundrechte, gegen wen nicht?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Grundrechte schützen gegen Staat und Staatsgewalt&lt;/li&gt;&lt;li&gt;Schützen auch gegen den Gesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Bundesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen Landesverfassungsgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen einfachen Landesgesetzgeber&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gegen die staatl. Vollziehung (Verwaltung und Gerichtsbarkeit)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Aber: &lt;/strong&gt;Bundesverfassungsgesetze können Grundrechte einschränken. (z.&amp;nbsp;B.: Wehrpflicht für Männer widerspricht dem Gleichheitssatz, ist aber durch B-VG diskriminierend festgelegt) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Objektives Recht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Mensch hat keinen durchsetzbaren Anspruch auf Einhaltung der Gesetze&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Subjektives Recht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Grundrechte sind gegen den Staat durchsetzbare Individualrechte&lt;/li&gt;&lt;li&gt;Mensch hat Anspruch auf Einhaltung der Gesetze (Verwaltung, Gerichtsbarkeit, Gesetzgebung verfolgen Verletzung der Grundrechte)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Grundrechte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Alle den Menschen durch formelle Verfassungsgesetze gewährleistete Recht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Geschichte der Grund- und Freiheitsrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;1789&lt;/strong&gt;: Deklaration der Menschen- und Bürgerrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1867&lt;/strong&gt;: Staatsgrundgesetz (Dezemberverfassung) &lt;/p&gt;&lt;p&gt;&lt;strong&gt;1948&lt;/strong&gt;: Allgemeine Erklärung der Menschenrechte&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1950&lt;/strong&gt;: Europäische Menschenrechtskonvention&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Gemeindewachkörper &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118 Abs. 8 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 118a B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Gemeinde&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Aufgaben im kommunalen Bereich&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Justizwache &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/stvg/paragraf/13a" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;§&amp;nbsp;13a Strafvollzugsgesetz&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;﻿Bund&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Bewachung der Strafgefangenen&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(34, 38, 74); color: rgb(238, 236, 246);"&gt;Wachkörper: &lt;/span&gt;Bundespolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 10 Abs. 1 Z. 14 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, &lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art 78d B-VG&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Bund&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Innere Sicherheit&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Unmittelbare Bundesverwaltung, BM für Inneres an der Spitze&lt;/li&gt;&lt;li&gt;im Bereich jeder Landespolizeidirektion sind Bezirkskommanden bzw. Stadtpolizeikommanden eingerichtet&lt;/li&gt;&lt;li&gt;Wachkörper Bundespolizei ist von Sicherheitsbehörden des Bundes zu unterscheiden!&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wachkörper&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bewaffnete Formationen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78d" rel="noopener noreferrer" target="_blank"&gt;Art. 78d Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundespolizei: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Justizwache: &lt;strong&gt;Bund&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gemeindewachkörper: &lt;strong&gt;Gemeinde&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Organisation und Führung der Bundespolizei und die Org. sonstiger Wachkörper (Ausnahme: Gemeindewachkörper) ist Bundessache&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: &lt;/span&gt;Bezirksverwaltungsbehörde&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bezirkshauptmannschaft/Bürgermeister besorgt prinzipiell Sicherheitsverwaltung auf Bundesebene&lt;/li&gt;&lt;li&gt;Als Verwaltungsbehörde aber nicht auf Sicherheitsaufgaben spezialisiert.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Sicherheitsbehörden: Landespolizeidirektion&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78b" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgba(0, 0, 0, 0);"&gt;Art. 78b Abs. 1 B-VG&lt;/a&gt;) für jedes Bundesland:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Landespolizeidirektor weisungsgebunden an BM&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM muss jede wichtige Weisung an den LH mitteilen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;BM kann Landespolizeidirektor nur mit Einvernehmen des LH bestellen&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78c" rel="noopener noreferrer" target="_blank"&gt;Art. 78c B-VG&lt;/a&gt; ermächtigt einfachen Bundesgesetzgeber die Landespolizeidirektion zur Sicherheitsbehörde 1. Instanz zu bestimmen, &lt;a href="https://www.jusline.at/gesetz/spg/paragraf/8" rel="noopener noreferrer" target="_blank"&gt;§&amp;nbsp;8 SPG&lt;/a&gt; legt dafür einige Gebiete fest.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsbehörden: BM für Inneres&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 78a Abs. 1 B-VG&lt;/a&gt;): Generaldirektion für öffentliche Sicherheit sorgt für Sicherheitsverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;SPG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitspolizeigesetz&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abgabebehörden&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Auftragsverwaltung des Bundes: für nicht-hoheitliche Verwaltung ist theoretisch nur der BM zuständig (z.&amp;nbsp;B.: Bundesvermögen, Geschäfte des Bundes)&lt;/li&gt;&lt;li&gt;BM kann einzelne Geschäfte durch hoheitlichen Auftrag dem LH übertragen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel104" rel="noopener noreferrer" target="_blank"&gt;Art. 104 Abs. 2&lt;/a&gt;) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Unmittelbare Bundesverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(105, 122, 180);"&gt;Art. 102 Abs. 2 B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ausnahme&lt;/li&gt;&lt;li&gt;Bund erledigt Aufgaben durch eigene Bundesbehörden&lt;/li&gt;&lt;li&gt;Bund darf dennoch mittelbare Bundesverwaltung nutzen &lt;/li&gt;&lt;li&gt;Mit Zustimmung der Länder, darf Bund auch Materien regeln, die nicht in Art. 102 Abs. 2 stehen (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 4 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Mittelbare Bundesverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel102" rel="noopener noreferrer" target="_blank"&gt;Art. 102 Abs. 1 B-VG&lt;/a&gt;)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Das oberste Organ ist ein BM (oder der BK), als funktionelles und organisatorisches Organ des Bundes&lt;/li&gt;&lt;li&gt;Das mittlere Organ ist der Landeshauptmann (als Einzelorgan). &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organisatorisch ein Landesorgan, funktionell aber im Auftrag des Bundes&lt;/li&gt;&lt;li class="ql-indent-1"&gt;An Weisungen des BM gebunden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Amt der Landesregierung&lt;/li&gt;&lt;li&gt;Das untere Organ ist die Bezirksverwaltungsbehörde&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Organwalter (Bezirkshauptmann/Bürgermeister) an Weisung des LH gebunden (In Bundesverwaltung, sonst an Landesregierung)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Amt: Bezirkshauptmannschaft/Magistrat&lt;/li&gt;&lt;li&gt;Unterste Organe: Gemeindeorgane&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Staatssekretäre &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Werden zwar in Art. 19 B-VG als oberste Organe der Verwaltung genannt, sind jedoch BM unterstellt und weisungsgebunden (&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78" rel="noopener noreferrer" target="_blank" style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Art. 78 Abs. 3 B-VG&lt;/a&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Aufgabe ist Unterstützung und Vertretung des BM, sie sind nicht Teil der Bundesregierung&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ämter der Bundesregierung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bundeskanzleramt für BK&lt;/li&gt;&lt;li&gt;Bundesministerien für die BM&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bundesregierung: &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;BK, VK und BMs als Einzelorgane&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Oberste Organe der Verwaltung (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank"&gt;Art. 19 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;BM für Finanzen und für Inneres sind in der Verfassung, andere werden durch Bundesministeriengesetz 1986 bestimmt&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Bundesregierung &lt;/span&gt;als Kollegialorgan&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;= Ministerrat&lt;/li&gt;&lt;li&gt;Beschlüsse müssen einstimmig sein&lt;/li&gt;&lt;li&gt;Aufgabe sind Regierungsakte wie&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge an BP (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel67" rel="noopener noreferrer" target="_blank"&gt;Art. 67 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gesetzesvorlagen an das Parlament (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel41" rel="noopener noreferrer" target="_blank"&gt;Art. 41 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vorschläge für Ernennung von Verfassungsrichtern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel147" rel="noopener noreferrer" target="_blank"&gt;Art. 147 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Zusammensetzung der Bundesregierung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Besteht aus BK, Vizekanzler und Bundesministern (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel19" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt;Art. 19 Abs. 1 B-VG&lt;/a&gt;,&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel69" rel="noopener noreferrer" target="_blank" style="background-color: rgba(0, 0, 0, 0); color: rgb(105, 122, 180);"&gt; Art. 69 Abs. 1 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Landesverwaltung unterhalb der Regierung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Landesverwaltung in Verwaltungssprengel territorial gegliedert&lt;/li&gt;&lt;li&gt;Land in Bezirke gegliedert, 2 Arten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Bezirk&lt;/strong&gt;, der mehrere Gemeinden erfasst&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Statutarstadt&lt;/strong&gt;, die alleine ein Bezirk ist&lt;/li&gt;&lt;li&gt;Bezirksverwaltungsbehörden&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirkshauptmann (monokratisch), Amt: Bezirkshauptmannschaft&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bürgermeister, Amt: Magistrat&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitsbehörden des Bundes (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel78a" rel="noopener noreferrer" target="_blank"&gt;Art. 78a-c B-VG&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ortspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Örtliche Verwaltungspolizei und örtliche Sicherheitspolizei gemeinsam&lt;/li&gt;&lt;li&gt;bei gesetzlicher Lücke zur Beseitigung konkreter Gefahren und Missstände, wenn diese das "örtliche Gemeinschaftsleben" stören &lt;/li&gt;&lt;li&gt;Gemeinde darf gesetzesergänzende Verordnungen erlassen (ortspolizeiliche Verordnungen &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel118" rel="noopener noreferrer" target="_blank"&gt;Art. 118 Abs. 6 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Örtliche Sicherheitspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aus dem Kompetenztatbestand ausgenommen → Aufteilung in überörtliche und örtliche Sicherheitspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sicherheitspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10 Abs. 1 Z. 7 B-VG&lt;/a&gt; Aufrechterhaltung der öffentlichen Ruhe, Ordnung und Sicherheit (soweit keiner konkreten Sachmaterie zugewiesen)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Örtliche Verwaltungspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Alle in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank" style="color: rgb(105, 122, 180); background-color: rgb(40, 45, 88);"&gt;Art. 10-15 B-VG&lt;/a&gt; enthaltenen Angelegenheiten der Verwaltungspolizei, die im &lt;em&gt;örtlichen Interesse&lt;/em&gt; gelegen sind, fallen in den Wirkungsbereich der Gemeinden&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungspolizei&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Staatliches Handeln zur Abwehr und Beseitigung konkreter Gefahren und Missstände&lt;/li&gt;&lt;li&gt;Annexmaterie zu den Kompetenzen in &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel10" rel="noopener noreferrer" target="_blank"&gt;Art. 10-15 B-VG&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Allgemeine staatliche Verwaltung (Aufstellung in Bund und Ländern)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Allzuständigkeit der Staatsgewalt, erledigt von allgemeinen staatlichen Verwaltungsorganen&lt;/li&gt;&lt;li&gt;der Länder: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz) &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landesregierungen (2. Instanz)&lt;/li&gt;&lt;li&gt;der Bund:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bezirksverwaltungsbehörden (1. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Landeshauptmann (2. Instanz)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bundesminister (3. Instanz) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organ&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abstrakt, dem Organ sind &lt;strong&gt;Organzuständigkeiten &lt;/strong&gt;zugeordnet, diese sind teil der Zuständigkeit der &lt;strong&gt;Organisation&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Privatrechtliches Handeln &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gebietskörperschaften können als juristische Personen auch privatrechtlich handeln -&amp;gt; Fiskalverwaltung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Schlicht-hoheitliches Handeln&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Hoheitliches Handeln, dass nicht auf dem Erlass von Rechtsnormen beruht.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polizeistreife&lt;/li&gt;&lt;li&gt;Verkehrskontrolle&lt;/li&gt;&lt;li&gt;Urkundenausstellung&lt;/li&gt;&lt;li&gt;Auskunft durch Behörde&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: &lt;/span&gt;Maßnahme&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ausübung unmittelbarer verwaltungsbehördlicher Befehls- und Zwangsgewalt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;individueller Akt direkt auf gesetzlicher Grundlage z.B.: Festnahme&lt;/li&gt;&lt;li&gt;Wird wie Rechtsnorm mit Zwang durchgesetzt.&lt;/li&gt;&lt;li&gt;Anfechtung ungerechter Behandlung nicht möglich (anders als bei individueller Rechtsnorm = Bescheid) → Rechtsschutzlücke → Maßnahmebeschwerde vor Verwaltungsgericht (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel130" rel="noopener noreferrer" target="_blank"&gt;Art. 130 Abs. 1 Z. 1 B-VG&lt;/a&gt;, &lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel132" rel="noopener noreferrer" target="_blank"&gt;Art. 132 Abs. 2 B-VG&lt;/a&gt;)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsverordnung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach innen, regelt die interne Verwaltungsorganisation&lt;/li&gt;&lt;li&gt;muss nicht kundgemacht werden (Abgrenzung zur Weisung schweirig)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Rechtsverordnung&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Wirkt nach außen&lt;/li&gt;&lt;li&gt;Legt Rechte und Pflichten für Bürger fest&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Ortspolizeiliche Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Von Gemeinden erlassen &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(Art. 118 Abs. 6)&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;im eigenen Wirkungsbereich&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;nur zur Abwehr drohender oder bestehender Missstände&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dürfen nicht gegen Bundes- oder Landesrecht verstoßen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ergehen unmittelbar aus Bundesverfassung (ohne weitere Gesetze)&lt;/li&gt;&lt;li&gt;Gesetzesergänzend, gesetzesvertretend oder gesetzesändernd.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Arten von Verordnungen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Durchführungsverordnung &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Selbständige Verordnung&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Ortspolizeiliche Verordnung&lt;/li&gt;&lt;li&gt;Rechtsverordnung&lt;/li&gt;&lt;li&gt;Verwaltungsverordnung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Verwaltungshandeln: Verordnung&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verfassungsbegriff (Art. 139 B-VG)&lt;/li&gt;&lt;li&gt;Generelle (abstrakte oder konkrete) Anordnung einer Verwaltungsbehörde&lt;/li&gt;&lt;li&gt;Erst mit Kundmachung gültig&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Arten von Bescheiden&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Leistungsbescheid&lt;/strong&gt;: ordnet Tun oder Unterlassen an, &lt;strong&gt;vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gestaltungsbescheid&lt;/strong&gt;: Gestaltet eine Rechtslage neu, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Feststellungsbescheid&lt;/strong&gt;: verbindliche Feststellung einer unklaren Rechtslage, &lt;strong&gt;nicht vollstreckbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Formen des Verwaltungshandelns&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bescheid&lt;/li&gt;&lt;li&gt;Verordnung&lt;/li&gt;&lt;li&gt;Maßnahme&lt;/li&gt;&lt;li&gt;Schlicht-hoheitliches Handeln&lt;/li&gt;&lt;li&gt;(Verwaltungsrechtlicher Vertrag)&lt;/li&gt;&lt;li&gt;Privatrechtliches Handeln&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Approbationsbefugnis&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Innerbehördliches Mandat&lt;/li&gt;&lt;li&gt;Organwalter kann Aufgaben an das Amt übertragen&lt;/li&gt;&lt;li&gt;Approbationsbefugte Beamte können damit "im Auftrag" der Behörde Bescheide oder Verordnungen erlassen, der Organwalter ist jedoch immer weisungsbefugt.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Amt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einer Behörde zugeordneter bürokratischer Hilfsapparat, handelt nicht selbst hoheitlich. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Behörde&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsorgane mit Rechtssetzungsbefugnissen (handeln hoheitlich)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsaufgabe&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Staatliche Aufgabe der Verwaltung einer Gebietskörperschaft&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Staatliche Aufgabe&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Öffentliche Aufgabe, die der Gesetzgeber dem Staat zuweist&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aufgabe&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Organisation &lt;strong&gt;soll&lt;/strong&gt; in einer Sache handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Pflichtaufgabe: muss Handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;öffentliche Aufgabe: im Interesse der Allgemeinheit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Zuständigkeit&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die &lt;strong&gt;Möglichkeit&lt;/strong&gt; einer Organisation in einer Sache zu handeln&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organwalter (Definition, Zuordnung, Arten)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Den abstrakten Organen werden konkrete Menschen zugeordnet. &lt;/li&gt;&lt;li&gt;Gesetzessprache verwendet Organ und Organwalter oft synonym&lt;/li&gt;&lt;li&gt;Immer einer Gebietskörperschaft zugeordnet&lt;/li&gt;&lt;li&gt;Arten (Gesamtbegriff &lt;strong&gt;öffentliche Bedienstete&lt;/strong&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Beamte = ernannte berufsmäßige Organe&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertragsbedienstete = vertraglich bestellte Organe&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organisation&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abstrakte Konstrukte der Rechtsordnung denen bestimmte Aufgaben zukommen, bestehen meist aus vielen Organen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;z.B.: Gebietskörperschaft, Verwaltungsorganisation, Gerichtsorganisation&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;3 Rechtsordnungen&lt;/p&gt;</t>
   </si>
   <si>
@@ -1195,10 +1945,10 @@
     <t>&lt;p&gt;Verwaltung erlässt als &lt;strong&gt;individuell-konkrete &lt;/strong&gt;Rechtsnormen &lt;strong&gt;Bescheide&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Urteil und Beschluss&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gerichte erlassen &lt;strong&gt;individuell-konkrete&lt;/strong&gt; Urteile oder Beschlüsse&lt;/p&gt;</t>
+    <t>&lt;p&gt;Urteil und Beschluss (ordentliche Gerichtsbarkeit) &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ordentliche Gerichte erlassen &lt;strong&gt;individuell-konkrete&lt;/strong&gt; in Rechtsstreiten:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Urteile: Entscheidung&lt;strong&gt; in der Sache&lt;/strong&gt; im Namen der Republik &lt;/li&gt;&lt;li&gt;Beschlüsse: Anordnung&lt;strong&gt; im Verfahren&lt;/strong&gt;, nicht in der Sache&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Verordnung&lt;/p&gt;</t>
@@ -1264,7 +2014,7 @@
     <t>&lt;p&gt;Objektive Rechtsschutzeinrichtungen&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Staatliche Einrichtungen welche die Einhaltung der Gesetze gewährleisten sollen. (&lt;strong&gt;objektiv &lt;/strong&gt;= hängt nicht vom Betroffenen ab, ob die Einrichtungen aktiv werden)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;polit. und rechtl. Kontrollen der Regierung durch das Parlament&lt;/li&gt;&lt;li&gt;Missstandskontrolle durch Volksanwaltschaft&lt;/li&gt;&lt;li&gt;Gebarungskontrolle durch Rechnungshof&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Staatliche Einrichtungen welche die Einhaltung der Gesetze gewährleisten sollen. (&lt;strong&gt;objektiv &lt;/strong&gt;= hängt nicht vom Betroffenen ab, ob die Einrichtungen aktiv werden)&lt;/p&gt;&lt;ul&gt;&lt;li&gt;polit. und rechtl. Kontrollen der Regierung durch das Parlament&lt;/li&gt;&lt;li&gt;Missstandskontrolle durch Volksanwaltschaft&lt;/li&gt;&lt;li&gt;Gebarungskontrolle durch Rechnungshof&lt;/li&gt;&lt;li&gt;behördliche Aufsichtspflichten&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Subjektive Rechtswege&lt;/p&gt;</t>
@@ -2002,7 +2752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B392"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -4144,6 +4894,1006 @@
         <v>533</v>
       </c>
     </row>
+    <row r="268" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
